--- a/O文档/万象说史计划表180602.xlsx
+++ b/O文档/万象说史计划表180602.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="160" windowWidth="24740" windowHeight="14460" tabRatio="718"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="24740" windowHeight="14660" tabRatio="718"/>
   </bookViews>
   <sheets>
     <sheet name="写作营计划" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="1651">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6821,11 +6821,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄家驹0603
-第1天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>殷夫0603
 第1天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6841,6 +6836,10 @@
   <si>
     <t>袁世凯0601
 第3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6856,13 +6855,6 @@
   </si>
   <si>
     <t>章太炎0606</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔泓熙：跆拳道创始人
-明骥：台湾新电影之父
-谢觉哉：延安五老之一，第一任内务部部长
-夏丏尊：教育家《中学生》《爱的教育》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6889,13 +6881,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华里丝·辛普森：让国王退位的温莎公爵夫人
-蒋梦麟：北大任期最长校长
-夏鼐：中国现代考古学的奠基人之一
-黎刹：菲律宾国父</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄金荣：青帮头子
 婉容：末代皇后
 容国团：中国的第一个世界冠军
@@ -6919,10 +6904,121 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>崔泓熙：跆拳道创始人
+郑渊洁：中国童话大王
+谢觉哉：延安五老之一，第一任内务部部长
+夏丏尊：教育家《中学生》《爱的教育》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄家驹0603
+第1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑渊洁0608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭加木0609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高尔基0610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香淳皇后0609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华里丝·辛普森：让国王退位的温莎公爵夫人
+蒋梦麟：北大任期最长校长
+夏鼐：中国现代考古学的奠基人之一
+黎刹：菲律宾国父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎刹0613</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金荣0614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>织田信长0613</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>郑成功：收复台湾的民族英雄
-温莎公爵：为了女人不要王位
+图灵：人工智能之父
 梁漱溟：中国最后一个大儒家
 伍廷芳：著名外交家，签订第一个平等条约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向忠发：中共曾经的最高领导人
+司徒雷登：生死在中国，筹建燕京大学的美国大使
+雷鸣远：我为爱中国而生，我为爱中国而死的天主教神父
+钟伟：中国的巴顿，《亮剑》李云龙的原型
+谷超豪：国家最高科学技术奖
+马寅初：经济学泰斗、人口学第一人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔治·奥威尔：《动物庄园》《1984》作者
+邓稼先：设计了中国原子弹和氢弹
+顾诚：言必有据的明史专家、苦行僧
+迈克尔·杰克逊：美国歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金九：韩国国父
+内藤湖南：研究透中国的著名日本历史学家
+弗朗西斯科·皮萨罗：200人征服印加帝国
+赛珍珠：靠写中国人，1938年获得诺贝尔文学奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约瑟·斯密：美国摩门教宗教领袖
+何香凝：廖仲恺夫人，国民党左派
+石达开：太平天国翼王五千岁
+陈树棠：一人俘虏61个敌人的孤胆英雄
+龙云：云南王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦迪逊：美国宪法之父
+卢梭：法兰西启蒙运动三剑侠之一
+钱三强：中国原子弹之父
+张瑞芳：中国影剧界四大名旦，《李双双》百花奖影后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨德昌：台湾著名导演
+凯瑟琳·赫本：美国影坛第一夫人
+汤恩伯：备受争议的黄埔名将
+汪峰：中国摇滚乐的领军人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘峙：福将，常胜将军，长腿将军
+启功：著名书法家
+进化论牛津大辩论，人类科学史上的一件大事
+2002年，巴西第五度夺得世界杯冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温莎公爵夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪国真0615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑成功0617</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7112,7 +7208,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="740">
+  <cellStyleXfs count="744">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7380,6 +7476,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8057,7 +8157,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="740">
+  <cellStyles count="744">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -8424,6 +8524,8 @@
     <cellStyle name="超链接" xfId="734" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="736" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -8797,6 +8899,8 @@
     <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9126,13 +9230,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomRight" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9910,7 +10014,7 @@
         <v>1586</v>
       </c>
       <c r="D52" s="76" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60">
@@ -9924,7 +10028,7 @@
         <v>1598</v>
       </c>
       <c r="E53" s="76" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="60">
@@ -9937,7 +10041,7 @@
       <c r="C54" s="72" t="s">
         <v>1599</v>
       </c>
-      <c r="G54" s="75" t="s">
+      <c r="G54" s="76" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -9965,7 +10069,7 @@
       <c r="C56" s="72" t="s">
         <v>1601</v>
       </c>
-      <c r="J56" s="75" t="s">
+      <c r="J56" s="76" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -9979,8 +10083,8 @@
       <c r="C57" s="72" t="s">
         <v>1602</v>
       </c>
-      <c r="F57" s="75" t="s">
-        <v>1616</v>
+      <c r="F57" s="76" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="60">
@@ -9993,8 +10097,8 @@
       <c r="C58" s="72" t="s">
         <v>1603</v>
       </c>
-      <c r="H58" s="75" t="s">
-        <v>1617</v>
+      <c r="H58" s="76" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="75">
@@ -10008,7 +10112,7 @@
         <v>1604</v>
       </c>
       <c r="K59" s="78" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="75">
@@ -10021,7 +10125,7 @@
       <c r="C60" s="72" t="s">
         <v>1605</v>
       </c>
-      <c r="D60" s="78" t="s">
+      <c r="D60" s="77" t="s">
         <v>1621</v>
       </c>
     </row>
@@ -10035,7 +10139,7 @@
       <c r="C61" s="72" t="s">
         <v>1622</v>
       </c>
-      <c r="E61" s="78" t="s">
+      <c r="E61" s="77" t="s">
         <v>1623</v>
       </c>
     </row>
@@ -10047,7 +10151,10 @@
         <v>43266</v>
       </c>
       <c r="C62" s="72" t="s">
-        <v>1624</v>
+        <v>1630</v>
+      </c>
+      <c r="I62" s="77" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="60">
@@ -10058,7 +10165,10 @@
         <v>43267</v>
       </c>
       <c r="C63" s="72" t="s">
-        <v>1625</v>
+        <v>1624</v>
+      </c>
+      <c r="G63" s="78" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="75">
@@ -10069,10 +10179,13 @@
         <v>43268</v>
       </c>
       <c r="C64" s="72" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="75">
+        <v>1625</v>
+      </c>
+      <c r="J64" s="78" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="75">
       <c r="A65" s="61" t="s">
         <v>887</v>
       </c>
@@ -10080,10 +10193,13 @@
         <v>43269</v>
       </c>
       <c r="C65" s="72" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="60">
+        <v>1626</v>
+      </c>
+      <c r="F65" s="78" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="60">
       <c r="A66" s="61" t="s">
         <v>888</v>
       </c>
@@ -10091,10 +10207,16 @@
         <v>43270</v>
       </c>
       <c r="C66" s="72" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="75">
+        <v>1636</v>
+      </c>
+      <c r="E66" s="74" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H66" s="78" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="75">
       <c r="A67" s="61" t="s">
         <v>889</v>
       </c>
@@ -10102,10 +10224,13 @@
         <v>43271</v>
       </c>
       <c r="C67" s="72" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="75">
+        <v>1627</v>
+      </c>
+      <c r="E67" s="78" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="75">
       <c r="A68" s="61" t="s">
         <v>890</v>
       </c>
@@ -10113,10 +10238,13 @@
         <v>43272</v>
       </c>
       <c r="C68" s="72" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="60">
+        <v>1628</v>
+      </c>
+      <c r="D68" s="78" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="60">
       <c r="A69" s="61" t="s">
         <v>891</v>
       </c>
@@ -10124,10 +10252,13 @@
         <v>43273</v>
       </c>
       <c r="C69" s="72" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="60">
+        <v>1629</v>
+      </c>
+      <c r="I69" s="78" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="60">
       <c r="A70" s="61" t="s">
         <v>892</v>
       </c>
@@ -10135,71 +10266,325 @@
         <v>43274</v>
       </c>
       <c r="C70" s="72" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>1640</v>
+      </c>
+      <c r="G70" s="78" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="90">
       <c r="A71" s="62" t="s">
         <v>893</v>
       </c>
       <c r="B71" s="32">
         <v>43275</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="C71" s="72" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J71" s="74" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="60">
       <c r="A72" s="61" t="s">
         <v>887</v>
       </c>
       <c r="B72" s="32">
         <v>43276</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="C72" s="72" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F72" s="74" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="60">
       <c r="A73" s="61" t="s">
         <v>888</v>
       </c>
       <c r="B73" s="32">
         <v>43277</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="C73" s="72" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="75">
       <c r="A74" s="61" t="s">
         <v>889</v>
       </c>
       <c r="B74" s="32">
         <v>43278</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="C74" s="72" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="60">
       <c r="A75" s="61" t="s">
         <v>890</v>
       </c>
       <c r="B75" s="32">
         <v>43279</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="C75" s="72" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="60">
       <c r="A76" s="61" t="s">
         <v>891</v>
       </c>
       <c r="B76" s="32">
         <v>43280</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="C76" s="72" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="60">
       <c r="A77" s="61" t="s">
         <v>892</v>
       </c>
       <c r="B77" s="32">
         <v>43281</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="C77" s="72" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="62" t="s">
         <v>893</v>
       </c>
       <c r="B78" s="32">
         <v>43282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B79" s="32">
+        <v>43283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B80" s="32">
+        <v>43284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B81" s="32">
+        <v>43285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B82" s="32">
+        <v>43286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B83" s="32">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B84" s="32">
+        <v>43288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B85" s="32">
+        <v>43289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B86" s="32">
+        <v>43290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B87" s="32">
+        <v>43291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B88" s="32">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B89" s="32">
+        <v>43293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B90" s="32">
+        <v>43294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B91" s="32">
+        <v>43295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B92" s="32">
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B93" s="32">
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B94" s="32">
+        <v>43298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B95" s="32">
+        <v>43299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B96" s="32">
+        <v>43300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B97" s="32">
+        <v>43301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B98" s="32">
+        <v>43302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B99" s="32">
+        <v>43303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B100" s="32">
+        <v>43304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B101" s="32">
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B102" s="32">
+        <v>43306</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B103" s="32">
+        <v>43307</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B104" s="32">
+        <v>43308</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B105" s="32">
+        <v>43309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B106" s="32">
+        <v>43310</v>
       </c>
     </row>
   </sheetData>

--- a/O文档/万象说史计划表180602.xlsx
+++ b/O文档/万象说史计划表180602.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="24740" windowHeight="14660" tabRatio="718"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15080" tabRatio="718"/>
   </bookViews>
   <sheets>
     <sheet name="写作营计划" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="1789">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6053,10 +6053,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雪爪鸿泥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>春风化雨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6839,10 +6835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>余纯顺0606</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6974,13 +6966,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金九：韩国国父
-内藤湖南：研究透中国的著名日本历史学家
-弗朗西斯科·皮萨罗：200人征服印加帝国
-赛珍珠：靠写中国人，1938年获得诺贝尔文学奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>约瑟·斯密：美国摩门教宗教领袖
 何香凝：廖仲恺夫人，国民党左派
 石达开：太平天国翼王五千岁
@@ -6996,6 +6981,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>刘峙：福将，常胜将军，长腿将军
+启功：著名书法家
+进化论牛津大辩论，人类科学史上的一件大事
+2002年，巴西第五度夺得世界杯冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温莎公爵夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪国真0615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑成功0617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向忠发0618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金九：韩国国父
+内藤湖南：研究透中国的著名日本历史学家
+弗朗西斯科·皮萨罗：200人征服印加帝国
+赛珍珠：写中国农民，1938年获得诺贝尔文学奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈树棠0619</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥威尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内藤湖南0619</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>杨德昌：台湾著名导演
 凯瑟琳·赫本：美国影坛第一夫人
 汤恩伯：备受争议的黄埔名将
@@ -7003,22 +7034,775 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘峙：福将，常胜将军，长腿将军
-启功：著名书法家
-进化论牛津大辩论，人类科学史上的一件大事
-2002年，巴西第五度夺得世界杯冠军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温莎公爵夫人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪国真0615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑成功0617</t>
+    <t>汤恩伯0620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴西五冠0620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王士珍：北洋三杰之首
+章士钊：在革命边缘的著名民主人士
+张闻天：中国共产党早期的杰出领导人，长征后的总书记
+马龙·白兰度：著名美国演员，最伟大的男演员第4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈延年：陈独秀的长子，献身革命
+李惠堂：亚洲球王
+滕杰：力行社（蓝衣社）创始人、首任书记
+茅盾：中国革命文艺奠基人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009，乌鲁木齐七五事件，197人死亡
+多利：第一个成功克隆的哺乳动物
+蓬皮杜:第一位访华的西方元首
+费德勒：网球之神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西奥多·赫茨尔：现代以色列国父
+包拯：包青天
+陈寅恪：清华四大导师之一
+王耀武：抗日铁军军长，解放后被特赦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张闻天0625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢梭：法兰西启蒙运动三剑侠
+海明威：著名美国作家
+赵南哲：韩国现代围棋之父
+傅冬菊：傅作义的长女，北京和平解放
+詹姆斯·史都华：美国最伟大的男演员第3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李惠堂0626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包拯0626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张瑞芳0619</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢梭0627</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓颖超：周恩来的妻子
+季羡林：国学大师、学界泰斗、国宝
+任继愈：著名哲学家、佛学家
+魏敦瑞:研究北京人
+龚建平：中国第一个因假球、黑哨入狱的裁判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李公朴：被刺杀的七君子
+徐永昌：一级上将，抗战时期的军委会四巨头之一
+邱少云:抗美援朝英雄
+李济：中国考古学之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范思哲：奢侈品牌创始人，被枪杀
+顾炎武：明末清初三大思想家之一
+闻一多：最后一次演讲
+秋瑾：近代中国女性革命的象征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛普森0703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄飞鸿：香港影视捧出来的武林高手
+山田五十铃：最後の大女优
+王云五：商务印书馆总经理，四角号码发明者，金圆券
+1981年成昆铁路列车坠桥事故</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云五0703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯南·道尔：福尔摩斯的作者
+费雯·丽：著名美国演员
+文强 ：第一个被执行死刑的正厅局级公安局长
+皮定均：中原突围的第一功臣，最年轻的中将
+杨增新：主政新疆17年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱德：十大元帅之首
+莫泊桑：短篇小说之王
+王云五：四角号码检字法发明人，国民党金圆券发行
+路易斯·阿姆斯特朗：爵士乐之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫泊桑？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯南·道尔?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚建平0706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李公朴0706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金日成：朝鲜领导人
+1994年，橄榄球运动员辛普森被美国法院以谋杀罪名起诉
+1914年，孙中山的中华革命党成立
+1889年，华尔街日报创刊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华革命党</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坎普·吉列：吉列剃须刀
+杨传广：台湾第一块奥运奖牌，亚洲铁人
+特斯拉：交流电的发明者
+加尔文：新教改革派的创始人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特斯拉？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿蒙森：第一个到达南极点的人
+屈武：蒋经国结拜兄弟，新疆和平解放，民革中央主席
+郑正秋：中国电影之父、中国电影第一人。
+胡先骕：中国植物学的奠基人，水杉发现者
+玛格丽特·考特：女子网球运动员，62个大满贯赛冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋瑾0709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨马兰奇:大力支持中国申办奥运会
+聂耳:《义勇军进行曲》
+1900年，庚子俄难，7000名中国人死亡
+赵丽蓉：中国评剧、小品表演艺术家
+储安平：三大右派之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屈武0709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛世才：新疆王
+孙万福：不识字的劳动诗人
+方东美：新儒学的哲学起源
+章文晋：中美建交的重要人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庚子俄难0711</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辜鸿铭：学博中西的“清末怪杰”、“清末狂儒”
+郭嵩焘：中国首位驻外使节，与曾国藩、左宗棠是儿女亲家
+张奚若：“中华人民共和国”国名提议者
+曼德拉：南非国父
+简·奥斯汀：《傲慢与偏见》、《理智与情感》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼特拉克:文艺复兴之父，人文主义之父
+斯诺:访问延安，宣扬中国革命的美国记者
+李承晚：缔造大韩民国
+徐悲鸿：中国现代美术的奠基人
+王富洲:中国第一位登上珠穆朗玛的运动员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李小龙：功夫巨星
+孟德尔：遗传学的奠基人
+彼特拉克:文艺复兴之父，人文主义之父
+1969年：阿波罗号登月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海明威：著名美国作家
+刘节：代替老师陈寅恪挨批斗
+1998年：跳马运动员桑兰摔伤，高位截瘫
+2012年：北京特大暴雨，79人死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯诺0711</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张奚若0711</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙万福？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张露萍：打入军统的红色女特工
+袁珂:中国著名神话学家
+2015年，三里屯优衣库视频事件
+刘半农：首创女字旁她，新文化运动先驱
+金岳霖：誉为“中国哲学界第一人”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张露萍？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海明威？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹韬奋：七君子事件，追认党员
+僧格林沁：最后一个八旗统帅
+尧茂书：漂流长江第一人
+谷崎润一郎：6次提名诺贝尔文学奖
+大仲马：《三个火枪手》《基督山伯爵》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡兰成：张爱玲第一任丈夫，汉奸作家
+陶行知：知行合一的人民教育家
+张发奎：北伐、抗日名将
+1894年，甲午战争爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李奇微：朝鲜战争中挽救联合国军
+林汉达：《上下五千年》
+艾德·盖恩：美国著名的连环杀手
+纪晓岚：修《四库全书》的风流才子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈纳德：娶中国媳妇的飞虎将军
+马可：作曲家，《咱们工人有力量》《南泥湾》
+伏尼契：《牛虻》
+小仲马：《茶花女》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李嘉诚：香港首富
+冯子材：清末将领、民族英雄抗法英雄
+墨索里尼：法西斯主义的创始人
+邓稼先：设计了中国原子弹和氢弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹韬奋0718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿波罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡兰成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林汉达？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈纳德？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宝箴：维新变法的实权派风云人物
+2011年：挪威爆炸和枪击事件，1个人打死76人，没有死刑
+约翰·迪林杰：美国抢劫24家银行的“头号公敌”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿玉源太郎：明治时期的日本第一智将，统治台湾
+汤飞凡：分离出沙眼病原体的科学家
+熊希龄:民国第一任总理，热河行宫盗宝案
+2011年：甬温线动车追尾事故</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊希龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱伟长：中国近代力学、应用数学的奠基人之一
+钱穆：中国最后一位士大夫、国学宗师
+明治天皇：明治维新
+俾斯麦：铁血宰相，复兴德意志
+阮福晪：越南末代皇帝
+亨利·福特：福特汽车公司的建立者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周扬：党的“文艺路线”奠基人之一
+菱刈隆：关东军司令，被称之为“军中之魁”。
+陈宝莲：个性女演员自杀，留下满月孩子
+德尼·狄德罗：现代百科全书的奠基人
+沈荩：揭露中俄密约，被清政府绞杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉马克：生物进化学说
+周璇：民国女演员，《马路天使》《夜上海》
+马君武：著名政治活动家、教育家
+林森：中华民国国民政府主席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马季：中国新相声的代表
+贝尔：电话发明人
+赵一曼：东北抗日女英雄
+1990年：伊拉克入侵科威特，海湾战争爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗瑞卿：跳楼的十大将之一
+王洪文：四人帮之一
+杨尚昆：中共八大元老之一
+杨朔：著名散文作家，文革自杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐山大地震？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨索里尼？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林森0724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱伟长0724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宝莲0724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝利萨留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩格斯：革命导师
+金克木：北大三支笔，未名四老
+梦露：美国女演员
+阿姆斯特朗：第一个登上月球的人
+本田宗一郎：本田汽车创始人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方志敏：红十军团的缔造者
+季羡林：国学大师、学界泰斗、国宝
+保禄六世：第一个出访五大洲，即将封圣的天主教皇
+弗莱明：发现青霉素，开创了抗生素领域
+1945年：广岛原子弹爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李秀成：太平天国忠王
+泰戈尔：印度诗人、哲学家
+金圣叹：腰斩水浒的文学批评家，卒于哭庙案
+野比大雄：哆啦A梦的主角，生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡内基：钢铁大王，现代慈善事业的奠基人
+吴晗：三家村之一，海瑞罢官
+木户孝允：日本维新三杰之一
+李维汉：中共中央统战部部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱自清：背影、荷塘月色，自杀
+陈嘉庚：著名华侨领袖
+薛定谔：量子力学奠基者
+黄宗羲：明末清初三大思想家
+2015年：天津港爆炸事故</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李宗仁：新桂系领袖，台儿庄大捷
+潘光旦：清华四哲人之一 
+卡斯特罗：古巴国父
+南丁格尔：护理事业的创始人
+贝尔德：电视、光纤、雷达发明人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1976年，唐山大地震
+佟麟阁：抗日战争中殉国的第一位高级将领
+赵登禹：抗日英雄，大刀向鬼子头上砍去
+江户川乱步：《名侦探柯南》
+是川银藏：日本股神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝尔？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许地山：《落花生》作者，研究梵文
+蔡和森：共产党早期领导人，第一个提出中国共产党名称
+松本清张：41岁开始写作的世界三大推理小说家之一
+荣德生：留在大陆的最大民族资本家
+曹汝霖：五四运动的受害者
+路易斯·阿姆斯特朗：爵士乐之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松本清张？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王洪文？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪爪淤泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方志敏0731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挪威?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩格斯？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰戈尔0731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费德勒：网球之神
+梅兰芳：京剧大师
+土肥原贤二：建立满洲国的策划人物
+罗振玉：甲骨文、敦煌学，近代考古学的奠基人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土肥原贤二0801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粟裕：最会带兵打仗的十大将之首
+张云逸：十大将之一
+王力：中国现代语言学奠基人
+容国团：香港人，新中国第一个世界冠军，自杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周立波：《暴风骤雨》
+饶宗颐：全球华人国学奖终身成就奖
+让·皮亚杰：近代最有名的发展心理学家
+郑天挺：南开史学四大家
+1945年：长崎原子弹爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王懿荣：发现和收藏甲骨文第一人
+法拉利：赛车之父
+张啸林：上海滩“青帮三大亨”，被军统刺杀
+光绪皇帝：
+周克华：系列执枪杀人凶手，爆头哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1945年：日本无条件投降
+雷锋：英雄模范
+石原莞尔：日本第一兵家
+李德：共产国际派驻中国的军事顾问
+拿破仑：法兰西第一帝国的缔造者
+珍妃：光绪宠妃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿维兰热：将足球商业化的国际足联主席
+贝比·鲁斯：美国的棒球之神
+劳伦斯：阿拉伯的劳伦斯
+普雷斯利：美国歌手猫王
+孔祥熙：宋氏三姐妹的大姐夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋先云：“黄埔（军校）三杰”之首
+华彦钧：瞎子阿炳，二胡《二泉映月》
+吴培文:发现并保护司母戊鼎
+江泽民:第三代中央领导集体的核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金大中：韩国民主斗士的象征，被誉为“亚洲的曼德拉”
+高秀敏：小品、二人转演员
+克莱斯勒：克莱斯勒汽车的总裁和创始人
+1977年，中共11大结束，宣告文革结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费罗·法恩斯沃斯：电视机发明者
+可可·香奈尔：香奈尔（Chanel）品牌的创始人
+段德昌：共和国第一号烈士
+王士珍：北洋三杰之首
+雷鸣远：天主教神父，我为爱中国而生，我为爱中国而死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张云逸？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈嘉庚？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴晗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡斯特罗0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法拉利0807?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿破仑0807？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长崎原子弹？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋先云？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔祥熙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高秀敏？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宓：哈佛三杰之一
+廖仲恺：国民党左派领袖
+华国锋：你办事，我放心，毛泽东的接班人？
+吴泓：《时尚》杂志社创始人之一
+李义江：同性恋连环杀手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪东兴：怀仁堂事件的决策者之一
+陈立夫：国民党重要政治人物
+张伯伦：单场100分 NBA明星
+1993年，王军霞创造多项长跑世界纪录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘鹗：《老残游记》
+褚民谊：著名汉奸，汪伪的外交部长
+瓦伦蒂诺：美国著名男演员，无法忘怀的美丽男人
+1931年，台湾蒋渭水庶民的国葬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武元甲：越南的“红色拿破仑”
+冯如：中国航空之父
+阿姆斯特朗：第一个踏上月球的宇航员
+尼采：西方现代哲学的开创者
+成吉思汗：一代天骄
+陈果夫：民国时期政治人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈毅：十大元帅之一
+张其昀：中国人文地理学的开山大师 提倡华学 创立全神教 
+2005年，超级女声总决赛
+侯德榜：中国重化学工业的开拓者
+拉瓦锡：近代化学之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华国锋？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张伯伦？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣德生？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸丰皇帝：清朝最后一位掌握实权的皇帝
+邓小平：推动现代中国的改革开放进程 
+施今墨：北京四大名医之一
+龚自珍：不拘一格降人才，改良主义的先驱者
+五世格达活佛：西藏昌都劝和，遇毒圆寂
+英蒂利：红色高棉“第一夫人”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段德昌？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸丰？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴毛毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李达：中共一大代表
+阿拉法特：1994年诺贝尔和平奖
+苏轼：
+老舍：骆驼祥子，茶馆，自杀
+张謇：中国近代教育、民族工业第一人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张謇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈果夫？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯德榜？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特蕾莎修女：美国最尊敬的人，天主教圣人
+艾德·盖恩：美国最有名的连环杀手之一
+郑成功：收复台湾的民族英雄
+勒·柯布西耶：20世纪最重要的建筑师之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周培源：中国近代力学奠基人和理论物理奠基人之一
+谭其骧：历史地理学家
+1845年，《科学美国人》创刊
+1963年，马丁路德金发表《我有一个梦想》演讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英格丽·褒曼：著名女演员，《北非谍影》
+迈克尔·杰克逊：美国歌手
+吴冠中：中国现代中国画代表性画家之一
+周友平：性虐连环杀人凶手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱穆：中国最后一位士大夫、国学宗师
+马克·吕布：见证中国的摄影家
+彭湃：中国农民运动大王
+林则徐：虎门销烟
+张闻天：中国共产党早期的杰出领导人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋渭水？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特蕾莎修女？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁馨儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁路德金？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英格丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴安娜王妃：人民的王妃
+黄绍竑：新桂系三巨头之一
+大正天皇:明治后的天皇，一夫一妻 
+蔡英文：中华民国首位女总统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯玉祥：倒戈将军
+何香凝：国民党左派，女权革命的领袖
+卢武铉：坠崖的韩国总统
+路易十四：太阳王
+1923年:关东大地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张之洞：晚清四大名臣；创办了华科大、武大、南大等
+杨秀清：太平天国的真正领袖，东王
+顾拜旦：现代奥林匹克之父
+张丽珠：中国第一个试管婴儿
+嘉庆皇帝：清朝第七位皇帝
+托尔金：《魔戒》作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静江：国民党四大元老
+文鲜明：韩国统一教创始人
+傅雷：翻译巴尔扎克，傅雷家书
+陈梦家：新月派代表诗人
+张宗昌：奉系军阀,狗肉将军、混世魔王、长腿将军
+本因坊秀策：围棋黄金时期最伟大的棋士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱穆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7208,7 +7992,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="744">
+  <cellStyleXfs count="772">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7476,6 +8260,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8157,7 +8969,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="744">
+  <cellStyles count="772">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -8526,6 +9338,20 @@
     <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="764" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="768" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="770" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -8901,6 +9727,20 @@
     <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="771" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9230,13 +10070,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:S162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J71" sqref="J71"/>
+      <selection pane="bottomRight" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9244,13 +10084,15 @@
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="31" customWidth="1"/>
     <col min="3" max="3" width="52.83203125" customWidth="1"/>
-    <col min="4" max="11" width="11.6640625" style="74" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" style="74" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="74" customWidth="1"/>
+    <col min="4" max="8" width="11.6640625" style="74" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="74" customWidth="1"/>
+    <col min="10" max="13" width="11.6640625" style="74" customWidth="1"/>
     <col min="14" max="15" width="13.1640625" style="74" customWidth="1"/>
+    <col min="16" max="18" width="11.6640625" style="74" customWidth="1"/>
+    <col min="19" max="19" width="13.1640625" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="71" customFormat="1">
+    <row r="1" spans="1:19" s="71" customFormat="1">
       <c r="A1" s="71" t="s">
         <v>1481</v>
       </c>
@@ -9261,43 +10103,55 @@
         <v>1482</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>1492</v>
+        <v>1733</v>
       </c>
       <c r="E1" s="73" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F1" s="73" t="s">
         <v>1490</v>
       </c>
-      <c r="F1" s="73" t="s">
-        <v>1494</v>
-      </c>
       <c r="G1" s="73" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1" s="73" t="s">
-        <v>1504</v>
+        <v>1560</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>1561</v>
+        <v>1721</v>
       </c>
       <c r="J1" s="73" t="s">
-        <v>1567</v>
+        <v>1503</v>
       </c>
       <c r="K1" s="73" t="s">
-        <v>1541</v>
+        <v>1779</v>
       </c>
       <c r="L1" s="73" t="s">
-        <v>1582</v>
+        <v>1781</v>
       </c>
       <c r="M1" s="73" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="N1" s="73" t="s">
         <v>1489</v>
       </c>
       <c r="O1" s="73" t="s">
+        <v>1581</v>
+      </c>
+      <c r="P1" s="73" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="60">
+      <c r="Q1" s="73" t="s">
+        <v>1540</v>
+      </c>
+      <c r="R1" s="73" t="s">
+        <v>1568</v>
+      </c>
+      <c r="S1" s="73" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="60">
       <c r="A2" s="61" t="s">
         <v>887</v>
       </c>
@@ -9307,11 +10161,11 @@
       <c r="C2" s="72" t="s">
         <v>1483</v>
       </c>
-      <c r="E2" s="76" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="60">
+      <c r="F2" s="76" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="60">
       <c r="A3" s="61" t="s">
         <v>888</v>
       </c>
@@ -9322,10 +10176,11 @@
         <v>1484</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="60">
+        <v>1497</v>
+      </c>
+      <c r="E3" s="76"/>
+    </row>
+    <row r="4" spans="1:19" ht="60">
       <c r="A4" s="61" t="s">
         <v>889</v>
       </c>
@@ -9335,11 +10190,11 @@
       <c r="C4" s="72" t="s">
         <v>1485</v>
       </c>
-      <c r="O4" s="76" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="75">
+      <c r="S4" s="76" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="75">
       <c r="A5" s="61" t="s">
         <v>890</v>
       </c>
@@ -9349,11 +10204,11 @@
       <c r="C5" s="72" t="s">
         <v>1486</v>
       </c>
-      <c r="F5" s="76" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="60">
+      <c r="P5" s="76" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="60">
       <c r="A6" s="61" t="s">
         <v>891</v>
       </c>
@@ -9363,11 +10218,12 @@
       <c r="C6" s="72" t="s">
         <v>1487</v>
       </c>
+      <c r="I6" s="76"/>
       <c r="N6" s="76" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="75">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="75">
       <c r="A7" s="61" t="s">
         <v>892</v>
       </c>
@@ -9377,11 +10233,11 @@
       <c r="C7" s="72" t="s">
         <v>1488</v>
       </c>
-      <c r="E7" s="76" t="s">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="75">
+      <c r="F7" s="76" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="75">
       <c r="A8" s="62" t="s">
         <v>893</v>
       </c>
@@ -9389,13 +10245,14 @@
         <v>43212</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="90">
+        <v>1509</v>
+      </c>
+      <c r="E8" s="76"/>
+    </row>
+    <row r="9" spans="1:19" ht="90">
       <c r="A9" s="61" t="s">
         <v>887</v>
       </c>
@@ -9403,13 +10260,13 @@
         <v>43213</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="60">
+        <v>1501</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="60">
       <c r="A10" s="61" t="s">
         <v>888</v>
       </c>
@@ -9417,13 +10274,13 @@
         <v>43214</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G10" s="76" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="60">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="60">
       <c r="A11" s="61" t="s">
         <v>889</v>
       </c>
@@ -9431,13 +10288,15 @@
         <v>43215</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>1497</v>
-      </c>
-      <c r="H11" s="76" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="105">
+        <v>1496</v>
+      </c>
+      <c r="J11" s="76" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+    </row>
+    <row r="12" spans="1:19" ht="105">
       <c r="A12" s="61" t="s">
         <v>890</v>
       </c>
@@ -9445,13 +10304,13 @@
         <v>43216</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>1506</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="75">
+        <v>1505</v>
+      </c>
+      <c r="P12" s="76" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="75">
       <c r="A13" s="61" t="s">
         <v>891</v>
       </c>
@@ -9459,13 +10318,14 @@
         <v>43217</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>1507</v>
-      </c>
+        <v>1506</v>
+      </c>
+      <c r="I13" s="76"/>
       <c r="N13" s="76" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="75">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="75">
       <c r="A14" s="61" t="s">
         <v>892</v>
       </c>
@@ -9473,13 +10333,13 @@
         <v>43218</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>1512</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="90">
+        <v>1511</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="90">
       <c r="A15" s="62" t="s">
         <v>893</v>
       </c>
@@ -9487,13 +10347,14 @@
         <v>43219</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="75">
+        <v>1523</v>
+      </c>
+      <c r="E15" s="76"/>
+    </row>
+    <row r="16" spans="1:19" ht="75">
       <c r="A16" s="61" t="s">
         <v>887</v>
       </c>
@@ -9501,13 +10362,13 @@
         <v>43220</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>1511</v>
-      </c>
-      <c r="F16" s="76" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="60">
+        <v>1510</v>
+      </c>
+      <c r="P16" s="76" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="60">
       <c r="A17" s="61" t="s">
         <v>888</v>
       </c>
@@ -9515,13 +10376,13 @@
         <v>43221</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G17" s="76" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="90">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="90">
       <c r="A18" s="61" t="s">
         <v>889</v>
       </c>
@@ -9529,13 +10390,15 @@
         <v>43222</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>1515</v>
-      </c>
-      <c r="H18" s="76" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="60">
+        <v>1514</v>
+      </c>
+      <c r="J18" s="76" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+    </row>
+    <row r="19" spans="1:17" ht="60">
       <c r="A19" s="61" t="s">
         <v>890</v>
       </c>
@@ -9543,16 +10406,17 @@
         <v>43223</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D19" s="76" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76" t="s">
         <v>1531</v>
       </c>
-      <c r="E19" s="76" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="60">
+    </row>
+    <row r="20" spans="1:17" ht="60">
       <c r="A20" s="61" t="s">
         <v>891</v>
       </c>
@@ -9560,13 +10424,14 @@
         <v>43224</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>1525</v>
-      </c>
+        <v>1524</v>
+      </c>
+      <c r="I20" s="76"/>
       <c r="N20" s="76" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="60">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="60">
       <c r="A21" s="61" t="s">
         <v>892</v>
       </c>
@@ -9574,13 +10439,13 @@
         <v>43225</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F21" s="76" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="75">
+        <v>1515</v>
+      </c>
+      <c r="P21" s="76" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="75">
       <c r="A22" s="62" t="s">
         <v>893</v>
       </c>
@@ -9588,13 +10453,15 @@
         <v>43226</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>1517</v>
-      </c>
-      <c r="H22" s="76" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="90">
+        <v>1516</v>
+      </c>
+      <c r="J22" s="76" t="s">
+        <v>1533</v>
+      </c>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+    </row>
+    <row r="23" spans="1:17" ht="90">
       <c r="A23" s="61" t="s">
         <v>887</v>
       </c>
@@ -9602,13 +10469,13 @@
         <v>43227</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G23" s="76" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="75">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="75">
       <c r="A24" s="61" t="s">
         <v>888</v>
       </c>
@@ -9616,13 +10483,13 @@
         <v>43228</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E24" s="76" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="75">
+        <v>1534</v>
+      </c>
+      <c r="F24" s="76" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="75">
       <c r="A25" s="61" t="s">
         <v>889</v>
       </c>
@@ -9630,13 +10497,14 @@
         <v>43229</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>1540</v>
-      </c>
+        <v>1539</v>
+      </c>
+      <c r="I25" s="75"/>
       <c r="N25" s="75" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="75">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="75">
       <c r="A26" s="61" t="s">
         <v>890</v>
       </c>
@@ -9644,13 +10512,13 @@
         <v>43230</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>1536</v>
-      </c>
-      <c r="F26" s="76" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="60">
+        <v>1535</v>
+      </c>
+      <c r="P26" s="76" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="60">
       <c r="A27" s="61" t="s">
         <v>891</v>
       </c>
@@ -9658,13 +10526,13 @@
         <v>43231</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>1537</v>
-      </c>
-      <c r="E27" s="76" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="75">
+        <v>1536</v>
+      </c>
+      <c r="F27" s="76" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="75">
       <c r="A28" s="61" t="s">
         <v>892</v>
       </c>
@@ -9672,13 +10540,13 @@
         <v>43232</v>
       </c>
       <c r="C28" s="72" t="s">
-        <v>1538</v>
-      </c>
-      <c r="K28" s="75" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="60">
+        <v>1537</v>
+      </c>
+      <c r="Q28" s="75" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="60">
       <c r="A29" s="62" t="s">
         <v>893</v>
       </c>
@@ -9686,13 +10554,15 @@
         <v>43233</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H29" s="76" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="90">
+        <v>1525</v>
+      </c>
+      <c r="J29" s="76" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+    </row>
+    <row r="30" spans="1:17" ht="90">
       <c r="A30" s="61" t="s">
         <v>887</v>
       </c>
@@ -9700,13 +10570,14 @@
         <v>43234</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D30" s="76" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="75">
+        <v>1559</v>
+      </c>
+      <c r="E30" s="76"/>
+    </row>
+    <row r="31" spans="1:17" ht="75">
       <c r="A31" s="61" t="s">
         <v>888</v>
       </c>
@@ -9714,13 +10585,13 @@
         <v>43235</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G31" s="76" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="75">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="75">
       <c r="A32" s="61" t="s">
         <v>889</v>
       </c>
@@ -9728,13 +10599,13 @@
         <v>43236</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F32" s="76" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="60">
+        <v>1544</v>
+      </c>
+      <c r="P32" s="76" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="60">
       <c r="A33" s="61" t="s">
         <v>890</v>
       </c>
@@ -9742,13 +10613,13 @@
         <v>43237</v>
       </c>
       <c r="C33" s="72" t="s">
-        <v>1546</v>
-      </c>
-      <c r="E33" s="76" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="60">
+        <v>1545</v>
+      </c>
+      <c r="F33" s="76" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="60">
       <c r="A34" s="61" t="s">
         <v>891</v>
       </c>
@@ -9756,13 +10627,13 @@
         <v>43238</v>
       </c>
       <c r="C34" s="72" t="s">
-        <v>1547</v>
-      </c>
-      <c r="I34" s="76" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="90">
+        <v>1546</v>
+      </c>
+      <c r="H34" s="76" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="90">
       <c r="A35" s="61" t="s">
         <v>892</v>
       </c>
@@ -9770,13 +10641,15 @@
         <v>43239</v>
       </c>
       <c r="C35" s="72" t="s">
-        <v>1562</v>
-      </c>
-      <c r="H35" s="76" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="75">
+        <v>1561</v>
+      </c>
+      <c r="J35" s="76" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+    </row>
+    <row r="36" spans="1:18" ht="75">
       <c r="A36" s="62" t="s">
         <v>893</v>
       </c>
@@ -9784,13 +10657,14 @@
         <v>43240</v>
       </c>
       <c r="C36" s="72" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D36" s="76" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="75">
+        <v>1582</v>
+      </c>
+      <c r="E36" s="76"/>
+    </row>
+    <row r="37" spans="1:18" ht="75">
       <c r="A37" s="61" t="s">
         <v>887</v>
       </c>
@@ -9798,13 +10672,13 @@
         <v>43241</v>
       </c>
       <c r="C37" s="72" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="G37" s="76" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="75">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="75">
       <c r="A38" s="61" t="s">
         <v>888</v>
       </c>
@@ -9812,13 +10686,13 @@
         <v>43242</v>
       </c>
       <c r="C38" s="72" t="s">
-        <v>1553</v>
-      </c>
-      <c r="E38" s="76" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="105">
+        <v>1552</v>
+      </c>
+      <c r="F38" s="76" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="105">
       <c r="A39" s="61" t="s">
         <v>889</v>
       </c>
@@ -9826,16 +10700,16 @@
         <v>43243</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>1554</v>
-      </c>
-      <c r="F39" s="76" t="s">
+        <v>1553</v>
+      </c>
+      <c r="M39" s="76" t="s">
         <v>1591</v>
       </c>
-      <c r="J39" s="76" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="75">
+      <c r="P39" s="76" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="75">
       <c r="A40" s="61" t="s">
         <v>890</v>
       </c>
@@ -9843,13 +10717,13 @@
         <v>43244</v>
       </c>
       <c r="C40" s="72" t="s">
-        <v>1568</v>
-      </c>
-      <c r="M40" s="76" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="60">
+        <v>1567</v>
+      </c>
+      <c r="R40" s="76" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="60">
       <c r="A41" s="61" t="s">
         <v>891</v>
       </c>
@@ -9857,13 +10731,13 @@
         <v>43245</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>1555</v>
-      </c>
-      <c r="I41" s="76" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="75">
+        <v>1554</v>
+      </c>
+      <c r="H41" s="76" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="75">
       <c r="A42" s="61" t="s">
         <v>892</v>
       </c>
@@ -9871,13 +10745,13 @@
         <v>43246</v>
       </c>
       <c r="C42" s="72" t="s">
-        <v>1556</v>
-      </c>
-      <c r="L42" s="75" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="75">
+        <v>1555</v>
+      </c>
+      <c r="O42" s="75" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="75">
       <c r="A43" s="62" t="s">
         <v>893</v>
       </c>
@@ -9885,13 +10759,15 @@
         <v>43247</v>
       </c>
       <c r="C43" s="72" t="s">
-        <v>1557</v>
-      </c>
-      <c r="H43" s="76" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="105">
+        <v>1556</v>
+      </c>
+      <c r="J43" s="76" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+    </row>
+    <row r="44" spans="1:18" ht="105">
       <c r="A44" s="61" t="s">
         <v>887</v>
       </c>
@@ -9899,13 +10775,14 @@
         <v>43248</v>
       </c>
       <c r="C44" s="72" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D44" s="76" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="75">
+        <v>1596</v>
+      </c>
+      <c r="E44" s="76"/>
+    </row>
+    <row r="45" spans="1:18" ht="75">
       <c r="A45" s="61" t="s">
         <v>888</v>
       </c>
@@ -9913,13 +10790,13 @@
         <v>43249</v>
       </c>
       <c r="C45" s="72" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="G45" s="76" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="105">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="105">
       <c r="A46" s="61" t="s">
         <v>889</v>
       </c>
@@ -9927,13 +10804,13 @@
         <v>43250</v>
       </c>
       <c r="C46" s="72" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E46" s="76" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="75">
+        <v>1572</v>
+      </c>
+      <c r="F46" s="76" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="75">
       <c r="A47" s="61" t="s">
         <v>890</v>
       </c>
@@ -9941,13 +10818,13 @@
         <v>43251</v>
       </c>
       <c r="C47" s="72" t="s">
-        <v>1574</v>
-      </c>
-      <c r="M47" s="75" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="90">
+        <v>1573</v>
+      </c>
+      <c r="R47" s="75" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="90">
       <c r="A48" s="61" t="s">
         <v>891</v>
       </c>
@@ -9955,13 +10832,13 @@
         <v>43252</v>
       </c>
       <c r="C48" s="72" t="s">
-        <v>1575</v>
-      </c>
-      <c r="J48" s="76" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="60">
+        <v>1574</v>
+      </c>
+      <c r="M48" s="76" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="60">
       <c r="A49" s="61" t="s">
         <v>892</v>
       </c>
@@ -9969,13 +10846,13 @@
         <v>43253</v>
       </c>
       <c r="C49" s="72" t="s">
-        <v>1596</v>
-      </c>
-      <c r="I49" s="76" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="75">
+        <v>1595</v>
+      </c>
+      <c r="H49" s="76" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="75">
       <c r="A50" s="62" t="s">
         <v>893</v>
       </c>
@@ -9983,13 +10860,13 @@
         <v>43254</v>
       </c>
       <c r="C50" s="72" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F50" s="76" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="90">
+        <v>1583</v>
+      </c>
+      <c r="P50" s="76" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="90">
       <c r="A51" s="61" t="s">
         <v>887</v>
       </c>
@@ -9997,13 +10874,15 @@
         <v>43255</v>
       </c>
       <c r="C51" s="72" t="s">
-        <v>1585</v>
-      </c>
-      <c r="H51" s="76" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="75">
+        <v>1584</v>
+      </c>
+      <c r="J51" s="76" t="s">
+        <v>1611</v>
+      </c>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+    </row>
+    <row r="52" spans="1:17" ht="75">
       <c r="A52" s="61" t="s">
         <v>888</v>
       </c>
@@ -10011,13 +10890,14 @@
         <v>43256</v>
       </c>
       <c r="C52" s="72" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D52" s="76" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="60">
+        <v>1617</v>
+      </c>
+      <c r="E52" s="76"/>
+    </row>
+    <row r="53" spans="1:17" ht="60">
       <c r="A53" s="61" t="s">
         <v>889</v>
       </c>
@@ -10025,13 +10905,13 @@
         <v>43257</v>
       </c>
       <c r="C53" s="72" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E53" s="76" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="60">
+        <v>1597</v>
+      </c>
+      <c r="F53" s="76" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="60">
       <c r="A54" s="61" t="s">
         <v>890</v>
       </c>
@@ -10039,13 +10919,13 @@
         <v>43258</v>
       </c>
       <c r="C54" s="72" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G54" s="76" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="60">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="60">
       <c r="A55" s="61" t="s">
         <v>891</v>
       </c>
@@ -10053,13 +10933,13 @@
         <v>43259</v>
       </c>
       <c r="C55" s="72" t="s">
-        <v>1600</v>
-      </c>
-      <c r="I55" s="76" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="60">
+        <v>1599</v>
+      </c>
+      <c r="H55" s="76" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="60">
       <c r="A56" s="61" t="s">
         <v>892</v>
       </c>
@@ -10067,13 +10947,13 @@
         <v>43260</v>
       </c>
       <c r="C56" s="72" t="s">
-        <v>1601</v>
-      </c>
-      <c r="J56" s="76" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="75">
+        <v>1600</v>
+      </c>
+      <c r="M56" s="76" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="75">
       <c r="A57" s="62" t="s">
         <v>893</v>
       </c>
@@ -10081,13 +10961,13 @@
         <v>43261</v>
       </c>
       <c r="C57" s="72" t="s">
-        <v>1602</v>
-      </c>
-      <c r="F57" s="76" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="60">
+        <v>1601</v>
+      </c>
+      <c r="P57" s="76" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="60">
       <c r="A58" s="61" t="s">
         <v>887</v>
       </c>
@@ -10095,13 +10975,15 @@
         <v>43262</v>
       </c>
       <c r="C58" s="72" t="s">
-        <v>1603</v>
-      </c>
-      <c r="H58" s="76" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="75">
+        <v>1602</v>
+      </c>
+      <c r="J58" s="76" t="s">
+        <v>1615</v>
+      </c>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+    </row>
+    <row r="59" spans="1:17" ht="75">
       <c r="A59" s="61" t="s">
         <v>888</v>
       </c>
@@ -10109,13 +10991,13 @@
         <v>43263</v>
       </c>
       <c r="C59" s="72" t="s">
-        <v>1604</v>
-      </c>
-      <c r="K59" s="78" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="75">
+        <v>1603</v>
+      </c>
+      <c r="Q59" s="78" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="75">
       <c r="A60" s="61" t="s">
         <v>889</v>
       </c>
@@ -10123,13 +11005,14 @@
         <v>43264</v>
       </c>
       <c r="C60" s="72" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D60" s="77" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="60">
+        <v>1619</v>
+      </c>
+      <c r="E60" s="77"/>
+    </row>
+    <row r="61" spans="1:17" ht="60">
       <c r="A61" s="61" t="s">
         <v>890</v>
       </c>
@@ -10137,13 +11020,13 @@
         <v>43265</v>
       </c>
       <c r="C61" s="72" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E61" s="77" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="60">
+        <v>1620</v>
+      </c>
+      <c r="F61" s="77" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="60">
       <c r="A62" s="61" t="s">
         <v>891</v>
       </c>
@@ -10151,13 +11034,13 @@
         <v>43266</v>
       </c>
       <c r="C62" s="72" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H62" s="77" t="s">
         <v>1630</v>
       </c>
-      <c r="I62" s="77" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="60">
+    </row>
+    <row r="63" spans="1:17" ht="60">
       <c r="A63" s="61" t="s">
         <v>892</v>
       </c>
@@ -10165,13 +11048,13 @@
         <v>43267</v>
       </c>
       <c r="C63" s="72" t="s">
-        <v>1624</v>
-      </c>
-      <c r="G63" s="78" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="75">
+        <v>1622</v>
+      </c>
+      <c r="G63" s="77" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="75">
       <c r="A64" s="62" t="s">
         <v>893</v>
       </c>
@@ -10179,13 +11062,13 @@
         <v>43268</v>
       </c>
       <c r="C64" s="72" t="s">
-        <v>1625</v>
-      </c>
-      <c r="J64" s="78" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="75">
+        <v>1623</v>
+      </c>
+      <c r="M64" s="77" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="75">
       <c r="A65" s="61" t="s">
         <v>887</v>
       </c>
@@ -10193,13 +11076,13 @@
         <v>43269</v>
       </c>
       <c r="C65" s="72" t="s">
-        <v>1626</v>
-      </c>
-      <c r="F65" s="78" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="60">
+        <v>1624</v>
+      </c>
+      <c r="P65" s="78" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="60">
       <c r="A66" s="61" t="s">
         <v>888</v>
       </c>
@@ -10207,16 +11090,18 @@
         <v>43270</v>
       </c>
       <c r="C66" s="72" t="s">
-        <v>1636</v>
-      </c>
-      <c r="E66" s="74" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H66" s="78" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="75">
+        <v>1634</v>
+      </c>
+      <c r="F66" s="74" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J66" s="77" t="s">
+        <v>1635</v>
+      </c>
+      <c r="K66" s="77"/>
+      <c r="L66" s="77"/>
+    </row>
+    <row r="67" spans="1:16" ht="75">
       <c r="A67" s="61" t="s">
         <v>889</v>
       </c>
@@ -10224,13 +11109,13 @@
         <v>43271</v>
       </c>
       <c r="C67" s="72" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E67" s="78" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="75">
+        <v>1625</v>
+      </c>
+      <c r="F67" s="77" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="75">
       <c r="A68" s="61" t="s">
         <v>890</v>
       </c>
@@ -10238,13 +11123,14 @@
         <v>43272</v>
       </c>
       <c r="C68" s="72" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D68" s="78" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="60">
+        <v>1626</v>
+      </c>
+      <c r="D68" s="77" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E68" s="77"/>
+    </row>
+    <row r="69" spans="1:16" ht="60">
       <c r="A69" s="61" t="s">
         <v>891</v>
       </c>
@@ -10252,13 +11138,13 @@
         <v>43273</v>
       </c>
       <c r="C69" s="72" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I69" s="78" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="60">
+        <v>1627</v>
+      </c>
+      <c r="H69" s="77" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="60">
       <c r="A70" s="61" t="s">
         <v>892</v>
       </c>
@@ -10266,13 +11152,13 @@
         <v>43274</v>
       </c>
       <c r="C70" s="72" t="s">
-        <v>1640</v>
-      </c>
-      <c r="G70" s="78" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="90">
+        <v>1638</v>
+      </c>
+      <c r="G70" s="77" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="90">
       <c r="A71" s="62" t="s">
         <v>893</v>
       </c>
@@ -10280,13 +11166,13 @@
         <v>43275</v>
       </c>
       <c r="C71" s="72" t="s">
-        <v>1641</v>
-      </c>
-      <c r="J71" s="74" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="60">
+        <v>1639</v>
+      </c>
+      <c r="M71" s="77" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="60">
       <c r="A72" s="61" t="s">
         <v>887</v>
       </c>
@@ -10294,13 +11180,13 @@
         <v>43276</v>
       </c>
       <c r="C72" s="72" t="s">
-        <v>1642</v>
-      </c>
-      <c r="F72" s="74" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="60">
+        <v>1640</v>
+      </c>
+      <c r="F72" s="77" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="60">
       <c r="A73" s="61" t="s">
         <v>888</v>
       </c>
@@ -10308,10 +11194,14 @@
         <v>43277</v>
       </c>
       <c r="C73" s="72" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="75">
+        <v>1648</v>
+      </c>
+      <c r="I73" s="77"/>
+      <c r="N73" s="77" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="75">
       <c r="A74" s="61" t="s">
         <v>889</v>
       </c>
@@ -10319,10 +11209,15 @@
         <v>43278</v>
       </c>
       <c r="C74" s="72" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="60">
+        <v>1641</v>
+      </c>
+      <c r="J74" s="77" t="s">
+        <v>1649</v>
+      </c>
+      <c r="K74" s="77"/>
+      <c r="L74" s="77"/>
+    </row>
+    <row r="75" spans="1:16" ht="60">
       <c r="A75" s="61" t="s">
         <v>890</v>
       </c>
@@ -10330,10 +11225,13 @@
         <v>43279</v>
       </c>
       <c r="C75" s="72" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="60">
+        <v>1642</v>
+      </c>
+      <c r="O75" s="78" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="60">
       <c r="A76" s="61" t="s">
         <v>891</v>
       </c>
@@ -10341,10 +11239,13 @@
         <v>43280</v>
       </c>
       <c r="C76" s="72" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="60">
+        <v>1653</v>
+      </c>
+      <c r="H76" s="78" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="60">
       <c r="A77" s="61" t="s">
         <v>892</v>
       </c>
@@ -10352,239 +11253,1092 @@
         <v>43281</v>
       </c>
       <c r="C77" s="72" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
+        <v>1643</v>
+      </c>
+      <c r="D77" s="77" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E77" s="77"/>
+    </row>
+    <row r="78" spans="1:16" ht="60">
       <c r="A78" s="62" t="s">
         <v>893</v>
       </c>
       <c r="B78" s="32">
         <v>43282</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="C78" s="72" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F78" s="78" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="75">
       <c r="A79" s="61" t="s">
         <v>887</v>
       </c>
       <c r="B79" s="32">
         <v>43283</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="C79" s="72" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I79" s="77"/>
+      <c r="N79" s="77" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="60">
       <c r="A80" s="61" t="s">
         <v>888</v>
       </c>
       <c r="B80" s="32">
         <v>43284</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="72" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G80" s="78" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="60">
       <c r="A81" s="61" t="s">
         <v>889</v>
       </c>
       <c r="B81" s="32">
         <v>43285</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" s="72" t="s">
+        <v>1657</v>
+      </c>
+      <c r="M81" s="77" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="60">
       <c r="A82" s="61" t="s">
         <v>890</v>
       </c>
       <c r="B82" s="32">
         <v>43286</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" s="72" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="60">
       <c r="A83" s="61" t="s">
         <v>891</v>
       </c>
       <c r="B83" s="32">
         <v>43287</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="72" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F83" s="77" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="75">
       <c r="A84" s="61" t="s">
         <v>892</v>
       </c>
       <c r="B84" s="32">
         <v>43288</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="72" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F84" s="77" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="60">
       <c r="A85" s="62" t="s">
         <v>893</v>
       </c>
       <c r="B85" s="32">
         <v>43289</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" s="72" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F85" s="77" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I85" s="78"/>
+      <c r="N85" s="78" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="60">
       <c r="A86" s="61" t="s">
         <v>887</v>
       </c>
       <c r="B86" s="32">
         <v>43290</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" s="72" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D86" s="77" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E86" s="77"/>
+    </row>
+    <row r="87" spans="1:14" ht="60">
       <c r="A87" s="61" t="s">
         <v>888</v>
       </c>
       <c r="B87" s="32">
         <v>43291</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" s="72" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F87" s="78" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="75">
       <c r="A88" s="61" t="s">
         <v>889</v>
       </c>
       <c r="B88" s="32">
         <v>43292</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" s="72" t="s">
+        <v>1666</v>
+      </c>
+      <c r="M88" s="77" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="60">
       <c r="A89" s="61" t="s">
         <v>890</v>
       </c>
       <c r="B89" s="32">
         <v>43293</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" s="72" t="s">
+        <v>1667</v>
+      </c>
+      <c r="G89" s="78" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="60">
       <c r="A90" s="61" t="s">
         <v>891</v>
       </c>
       <c r="B90" s="32">
         <v>43294</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" s="72" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F90" s="77" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="75">
       <c r="A91" s="61" t="s">
         <v>892</v>
       </c>
       <c r="B91" s="32">
         <v>43295</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" s="72" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F91" s="77" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="60">
       <c r="A92" s="62" t="s">
         <v>893</v>
       </c>
       <c r="B92" s="32">
         <v>43296</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="72" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H92" s="77" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="75">
       <c r="A93" s="61" t="s">
         <v>887</v>
       </c>
       <c r="B93" s="32">
         <v>43297</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" s="72" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D93" s="77" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E93" s="77"/>
+    </row>
+    <row r="94" spans="1:14" ht="75">
       <c r="A94" s="61" t="s">
         <v>888</v>
       </c>
       <c r="B94" s="32">
         <v>43298</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" s="72" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F94" s="74" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I94" s="78"/>
+      <c r="N94" s="78" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="75">
       <c r="A95" s="61" t="s">
         <v>889</v>
       </c>
       <c r="B95" s="32">
         <v>43299</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" s="72" t="s">
+        <v>1688</v>
+      </c>
+      <c r="J95" s="77" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K95" s="77"/>
+      <c r="L95" s="77"/>
+    </row>
+    <row r="96" spans="1:14" ht="75">
       <c r="A96" s="61" t="s">
         <v>890</v>
       </c>
       <c r="B96" s="32">
         <v>43300</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" s="72" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M96" s="78" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="60">
       <c r="A97" s="61" t="s">
         <v>891</v>
       </c>
       <c r="B97" s="32">
         <v>43301</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" s="72" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F97" s="77" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="60">
       <c r="A98" s="61" t="s">
         <v>892</v>
       </c>
       <c r="B98" s="32">
         <v>43302</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" s="72" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H98" s="77" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="45">
       <c r="A99" s="62" t="s">
         <v>893</v>
       </c>
       <c r="B99" s="32">
         <v>43303</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" s="72" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F99" s="77" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="60">
       <c r="A100" s="61" t="s">
         <v>887</v>
       </c>
       <c r="B100" s="32">
         <v>43304</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" s="72" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F100" s="77" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="75">
       <c r="A101" s="61" t="s">
         <v>888</v>
       </c>
       <c r="B101" s="32">
         <v>43305</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101" s="72" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D101" s="77" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E101" s="77"/>
+    </row>
+    <row r="102" spans="1:12" ht="60">
       <c r="A102" s="61" t="s">
         <v>889</v>
       </c>
       <c r="B102" s="32">
         <v>43306</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102" s="72" t="s">
+        <v>1699</v>
+      </c>
+      <c r="J102" s="77" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
+    </row>
+    <row r="103" spans="1:12" ht="60">
       <c r="A103" s="61" t="s">
         <v>890</v>
       </c>
       <c r="B103" s="32">
         <v>43307</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103" s="72" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F103" s="78" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="60">
       <c r="A104" s="61" t="s">
         <v>891</v>
       </c>
       <c r="B104" s="32">
         <v>43308</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104" s="72" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G104" s="77" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="75">
       <c r="A105" s="61" t="s">
         <v>892</v>
       </c>
       <c r="B105" s="32">
         <v>43309</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105" s="72" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F105" s="78" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="60">
       <c r="A106" s="62" t="s">
         <v>893</v>
       </c>
       <c r="B106" s="32">
         <v>43310</v>
+      </c>
+      <c r="C106" s="72" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F106" s="77" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="90">
+      <c r="A107" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B107" s="32">
+        <v>43311</v>
+      </c>
+      <c r="C107" s="72" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D107" s="78" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E107" s="78"/>
+    </row>
+    <row r="108" spans="1:12" ht="75">
+      <c r="A108" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B108" s="32">
+        <v>43312</v>
+      </c>
+      <c r="C108" s="72" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H108" s="77" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="60">
+      <c r="A109" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B109" s="32">
+        <v>43313</v>
+      </c>
+      <c r="C109" s="72" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J109" s="78" t="s">
+        <v>1718</v>
+      </c>
+      <c r="K109" s="78"/>
+      <c r="L109" s="78"/>
+    </row>
+    <row r="110" spans="1:12" ht="60">
+      <c r="A110" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B110" s="32">
+        <v>43314</v>
+      </c>
+      <c r="C110" s="72" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I110" s="77" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="60">
+      <c r="A111" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B111" s="32">
+        <v>43315</v>
+      </c>
+      <c r="C111" s="72" t="s">
+        <v>1715</v>
+      </c>
+      <c r="F111" s="77" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="90">
+      <c r="A112" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B112" s="32">
+        <v>43316</v>
+      </c>
+      <c r="C112" s="72" t="s">
+        <v>1730</v>
+      </c>
+      <c r="G112" s="78" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I112" s="77" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="75">
+      <c r="A113" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B113" s="32">
+        <v>43317</v>
+      </c>
+      <c r="C113" s="72" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F113" s="78" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="75">
+      <c r="A114" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B114" s="32">
+        <v>43318</v>
+      </c>
+      <c r="C114" s="72" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D114" s="77" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E114" s="77"/>
+    </row>
+    <row r="115" spans="1:13" ht="60">
+      <c r="A115" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B115" s="32">
+        <v>43319</v>
+      </c>
+      <c r="C115" s="72" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H115" s="77" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="60">
+      <c r="A116" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B116" s="32">
+        <v>43320</v>
+      </c>
+      <c r="C116" s="72" t="s">
+        <v>1738</v>
+      </c>
+      <c r="M116" s="78" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="75">
+      <c r="A117" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B117" s="32">
+        <v>43321</v>
+      </c>
+      <c r="C117" s="72" t="s">
+        <v>1741</v>
+      </c>
+      <c r="F117" s="77" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="60">
+      <c r="A118" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B118" s="32">
+        <v>43322</v>
+      </c>
+      <c r="C118" s="72" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I118" s="77" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="60">
+      <c r="A119" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B119" s="32">
+        <v>43323</v>
+      </c>
+      <c r="C119" s="72" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F119" s="78" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="75">
+      <c r="A120" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B120" s="32">
+        <v>43324</v>
+      </c>
+      <c r="C120" s="72" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J120" s="77" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K120" s="77"/>
+      <c r="L120" s="77"/>
+    </row>
+    <row r="121" spans="1:13" ht="75">
+      <c r="A121" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B121" s="32">
+        <v>43325</v>
+      </c>
+      <c r="C121" s="72" t="s">
+        <v>1727</v>
+      </c>
+      <c r="G121" s="78" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="75">
+      <c r="A122" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B122" s="32">
+        <v>43326</v>
+      </c>
+      <c r="C122" s="72" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D122" s="77" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E122" s="77"/>
+    </row>
+    <row r="123" spans="1:13" ht="90">
+      <c r="A123" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B123" s="32">
+        <v>43327</v>
+      </c>
+      <c r="C123" s="72" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H123" s="77" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="75">
+      <c r="A124" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B124" s="32">
+        <v>43328</v>
+      </c>
+      <c r="C124" s="72" t="s">
+        <v>1744</v>
+      </c>
+      <c r="I124" s="77" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="60">
+      <c r="A125" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B125" s="32">
+        <v>43329</v>
+      </c>
+      <c r="C125" s="72" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F125" s="78" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="60">
+      <c r="A126" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B126" s="32">
+        <v>43330</v>
+      </c>
+      <c r="C126" s="72" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J126" s="77" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="75">
+      <c r="A127" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B127" s="32">
+        <v>43331</v>
+      </c>
+      <c r="C127" s="72" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F127" s="78" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="75">
+      <c r="A128" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B128" s="32">
+        <v>43332</v>
+      </c>
+      <c r="C128" s="72" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D128" s="78" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="60">
+      <c r="A129" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B129" s="32">
+        <v>43333</v>
+      </c>
+      <c r="C129" s="72" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H129" s="78" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="90">
+      <c r="A130" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B130" s="32">
+        <v>43334</v>
+      </c>
+      <c r="C130" s="72" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I130" s="77" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="60">
+      <c r="A131" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B131" s="32">
+        <v>43335</v>
+      </c>
+      <c r="C131" s="72" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F131" s="78" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="75">
+      <c r="A132" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B132" s="32">
+        <v>43336</v>
+      </c>
+      <c r="C132" s="72" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E132" s="78" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="90">
+      <c r="A133" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B133" s="32">
+        <v>43337</v>
+      </c>
+      <c r="C133" s="72" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G133" s="78" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="75">
+      <c r="A134" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B134" s="32">
+        <v>43338</v>
+      </c>
+      <c r="C134" s="72" t="s">
+        <v>1762</v>
+      </c>
+      <c r="J134" s="78" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="60">
+      <c r="A135" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B135" s="32">
+        <v>43339</v>
+      </c>
+      <c r="C135" s="72" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F135" s="78" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="60">
+      <c r="A136" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B136" s="32">
+        <v>43340</v>
+      </c>
+      <c r="C136" s="72" t="s">
+        <v>1775</v>
+      </c>
+      <c r="K136" s="78" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="60">
+      <c r="A137" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B137" s="32">
+        <v>43341</v>
+      </c>
+      <c r="C137" s="72" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I137" s="78" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="75">
+      <c r="A138" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B138" s="32">
+        <v>43342</v>
+      </c>
+      <c r="C138" s="72" t="s">
+        <v>1777</v>
+      </c>
+      <c r="L138" s="78" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="60">
+      <c r="A139" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B139" s="32">
+        <v>43343</v>
+      </c>
+      <c r="C139" s="72" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="75">
+      <c r="A140" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B140" s="32">
+        <v>43344</v>
+      </c>
+      <c r="C140" s="72" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="90">
+      <c r="A141" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B141" s="32">
+        <v>43345</v>
+      </c>
+      <c r="C141" s="72" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="90">
+      <c r="A142" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B142" s="32">
+        <v>43346</v>
+      </c>
+      <c r="C142" s="72" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B143" s="32">
+        <v>43347</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B144" s="32">
+        <v>43348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B145" s="32">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B146" s="32">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B147" s="32">
+        <v>43351</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B148" s="32">
+        <v>43352</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B149" s="32">
+        <v>43353</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B150" s="32">
+        <v>43354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B151" s="32">
+        <v>43355</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B152" s="32">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B153" s="32">
+        <v>43357</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B154" s="32">
+        <v>43358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B155" s="32">
+        <v>43359</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B156" s="32">
+        <v>43360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B157" s="32">
+        <v>43361</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B158" s="32">
+        <v>43362</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B159" s="32">
+        <v>43363</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B160" s="32">
+        <v>43364</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B161" s="32">
+        <v>43365</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B162" s="32">
+        <v>43366</v>
       </c>
     </row>
   </sheetData>
@@ -12548,7 +14302,7 @@
         <v>43159</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G151" s="1">
         <v>400</v>
@@ -12556,7 +14310,7 @@
     </row>
     <row r="153" spans="2:7" s="18" customFormat="1">
       <c r="B153" s="17" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D153" s="18">
         <f>SUM(D146:D152)</f>
@@ -12624,7 +14378,7 @@
         <v>43190</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="G159" s="1">
         <v>600</v>
@@ -12632,7 +14386,7 @@
     </row>
     <row r="161" spans="2:7" s="18" customFormat="1">
       <c r="B161" s="17" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D161" s="18">
         <f>SUM(D154:D160)</f>
@@ -12700,7 +14454,7 @@
         <v>43220</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="G167" s="1">
         <v>500</v>
@@ -12708,7 +14462,7 @@
     </row>
     <row r="169" spans="2:7" s="18" customFormat="1">
       <c r="B169" s="17" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D169" s="18">
         <f>SUM(D162:D168)</f>

--- a/O文档/万象说史计划表180602.xlsx
+++ b/O文档/万象说史计划表180602.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="14660" tabRatio="718"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24280" windowHeight="14420" tabRatio="718" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="写作营计划" sheetId="11" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="每天工作" sheetId="7" r:id="rId7"/>
     <sheet name="每天工作161129" sheetId="2" r:id="rId8"/>
     <sheet name="每天工作161114" sheetId="3" r:id="rId9"/>
+    <sheet name="工作表1" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">天马行空!$A$1:$L$24</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="2073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="2264">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8904,10 +8905,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魏格纳：大陆漂移学说之父
 喜饶嘉措：著名的藏族大格西，第二届佛教协会会长
 保罗·蒂贝茨：核平广岛的飞行员
@@ -9058,6 +9055,1178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>戴望舒：著名诗人
+慈禧太后：清朝晚期的实际统治者
+坂本龙马：日本近代化转型的关键小人物
+开普勒：行星运动的三大定律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡锷？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔泓熙？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太后当国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答对数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答错数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人: 曾俊毅，手机号码: 18859618319
+所在地区: 福建省福州市闽侯县上街镇
+详细地址:上街镇福州市闽侯县高新区高新大道启迪之星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪精卫？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双11？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天之骄女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白求恩？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文夕大火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光绪？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶卡捷琳娜二世：俄罗斯唯一的女大帝
+路遥：茅盾文学奖，《平凡的世界》
+王强：残忍的连环杀手
+李彦宏：百度创始人
+容闳：中国留学生之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米老鼠：迪士尼卡通形象
+丁汝昌：甲午海战中英勇抗敌
+龙榆生：是20世纪最负盛名的词学大师之一
+李立三：中国共产党早期领导人
+欧阳海：舍身救列车的英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙立人：歼灭日军最多的将领
+徐志摩：新月派诗人，《再别康桥》
+张云逸：共和国十大将之一
+许光达：共和国十大将之一
+龙云：云南王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛朗哥：西班牙独裁统治30多年
+叶公超：文学的天才，外交的奇才
+刘师培：经学家，民国三大狂人之一
+列夫·托尔斯泰：《战争与和平》，《安娜·卡列尼娜》
+哈勃：星系天文学之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵紫宸：中国20世纪最具影响力的神学家
+钱锺书：著名作家，《围城》
+沈理源：天津近代著名的建筑设计师
+谢晋：中国第三代导演代表之一
+高志航：中国空军“四大金刚”之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方先觉：衡阳保卫战坚守47天
+厉以宁：中国经济学界泰斗
+朱自清：著名作家，《背影》《春》
+林则徐：虎门销烟的民族英雄
+林凤眠：中国美术学院创始人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英敛之：天主教精神领袖。辅仁大学、《大公报》创办人
+饶漱石：开国元勋，华东战区统帅
+约翰·拉贝：《拉贝日记》，“中国的辛德勒”
+洪仁玕：太平天国，颁布《资政新篇》
+毛岸青：毛泽东的次子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘少奇：共和国开国元勋
+马克沁：发明大杀器马克沁机枪
+吉鸿昌：“恨不抗日死”的革命英雄
+黄霑：沧海一声笑的香港四大才子
+周培源：中国近代力学奠基人和理论物理奠基人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慈禧太后？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅礼？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李彦宏？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娶入豪门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧合的年号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr.嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐志摩？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁汝昌？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效答题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗朗哥？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪仁轩？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭沫若：传奇文人（可只讲某一方面）
+路易·里尔：加拿大最具争议的、悲情的民族英雄
+1906年，“雅礼大学堂”在长沙西牌楼创立
+1981年：中国女排首获世界冠军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯友兰：现代新儒家，中国哲学史
+罗荣桓：开国十大元帅
+曾国藩：剿灭太平天国，中兴名臣
+斯文·赫定：发现楼兰的探险家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈维·米尔克：同性恋权益运动的代表性人物，被枪杀
+邓立群：反对改革开放的“左王”
+1994年，辽宁阜新歌舞厅大火
+松下幸之助：“松下电器”的创始人，经营之神
+李小龙：功夫巨星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜聿明：抗日将领，中将，黄埔系骨干
+徐特立：延安五老之一
+恩格斯：革命导师
+唐圭璋：是20世纪最负盛名的词学大师之一
+顾诚：清贫的明史专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非正常死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🌳温树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘少奇？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非主流三国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr.嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古包头市东河区北梁新区北一区，15661509326，嘉嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾国藩？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《历史研究》？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未留地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非主流三国2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林则徐？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人:周威
+地址:辽宁省大连市高新区凌水路海苑花园34号楼2单元302
+电话:15604097847</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周沐枫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩格斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加里·格兰特：百年来最伟大的男演员第2名
+卓娅：苏联卫国战争的女英雄
+杨根思：《英雄儿女》王成的原型
+蒙特威尔第：古典音乐史上一位划时代的人物
+普契尼：《蝴蝶夫人》
+吴昌硕：“文人画最后的高峰”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱锺书？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阜新大火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丘吉尔：二战英国首相，诺贝尔奖
+吴清源：十番棋击败所有同时代高手
+赵南哲：韩国现代围棋之父
+王尔德：最受欢迎的剧作家之一
+吴有训：中国物理学研究的“开山祖师”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱德：新中国十大元帅之首
+阿莱斯特·克劳利：世界最邪恶的男人
+戴维·本-古里安：以色列国父
+石友三：焚毁少林寺的倒戈将军
+世界艾滋病日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白崇禧：新桂系军阀
+范思哲：范思哲奢侈品牌创始人
+廖耀湘：远征军，“五大王牌军”之一
+燕妮·马克思：马克思的妻子
+埃尔南·科尔特斯：摧毁阿兹特克古文明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张国焘：中国共产党创始人之一
+顾准：市场经济理论的第一人
+路遥：《平凡的世界》
+王国维：著名学者，《人间词话》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪士尼：世界上获得奥斯卡奖最多的人
+莫扎特：《奏鸣曲》《协奏曲》《安魂曲》
+曼德拉：南非国父
+大仲马：《三个火枪手》、《基督山伯爵》通俗小说之王
+普密蓬·阿杜德：泰国国王，世界上在位时间最长的君主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西门子：世界著名的德国发明家、企业家
+麦克·波拉科夫斯：麦当劳叔叔
+张子强：勒索香港富豪李嘉诚、郭炳湘，世纪贼王
+裘法祖：中国外科之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏青：民国四大才女
+蒋廷黻：中国现代历史学家、外交家
+邵力子：和平老人
+罗隆基：三大右派，中国民主同盟创始人之一
+郁达夫：作家《沉沦》《故都的秋》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈天华：《猛回头》和《警世钟》
+乌兰夫：开国上将，蒙古王
+孙立人：歼灭日军最多的将领
+约翰·列侬：英国摇滚乐队“披头士”成员
+1994年：克拉玛依大火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何鸿燊？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴有训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石友三？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡斯特罗：古巴
+郑周永：韩国现代的创始人
+巴金：著名作家，家、春、秋
+何鸿燊：澳门赌王
+刘长春：中国奥运第一人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科尔特斯？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴佩孚：直系军阀的首领
+阿炳：二胡《二泉映月》
+摩尔根：基因学说的创始人 
+赛金花：状元夫人的上海头牌
+国家宪法日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛金花？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家三兄弟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《简史三部曲》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr.嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第35期</t>
+  </si>
+  <si>
+    <t>第36期</t>
+  </si>
+  <si>
+    <t>第37期</t>
+  </si>
+  <si>
+    <t>第38期</t>
+  </si>
+  <si>
+    <t>第39期</t>
+  </si>
+  <si>
+    <t>第40期</t>
+  </si>
+  <si>
+    <t>莫扎特？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田汉：国歌“义勇军进行曲”创作者
+邓子恢：不当大将的开国元勋
+诺贝尔：诺贝尔奖创始人
+12月10日：国际人权日
+奥蒂斯·雷丁：美国灵魂乐歌手《The Dock Of The Bay》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁毅文：妇产科圣手，接生婴儿上万人
+毛人凤：民国国防部保密局局长
+魏忠贤：明朝末期宦官
+吴敬梓：《儒林外史》
+山姆·库克：灵魂乐之王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张太雷：中共首个牺牲在一线的中央委员
+吴玉章：“延安五老”之一 
+骆秉章：俘虏石达开，晚清8大名臣之一
+董健吾：以基督教牧师身份为掩护的中共特工
+上官鹏飞：年轻的散打冠军被KO身亡
+胡万林：神医，连环行医杀手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月13日：南京大屠杀死难者国家公祭日
+曹禺：《雷雨》《日出》
+谢添：演员，导演，中国的卓别林，林家铺子
+摩西奶奶：自学成才、大器晚成的代表
+萨缪尔森：第一个获诺贝尔经济学奖的美国人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华盛顿：美国国父
+萨哈罗夫：苏联氢弹之父，获诺贝尔和平奖
+张群：国民党元老
+1994年：三峡工程正式开工
+张青莲：无机化学家，中国同位素学科的奠基人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁达夫？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧合的年号2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛阳铲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《中南海》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张子强？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不幸中的万幸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr.嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙立人？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡汉民：中国国民党早期主要领导人之一，民国四大书法家
+李约瑟：《中国科学技术史》
+柯棣华：印度人，著名医生，国际主义战士
+夏目漱石：称为“日本国民大作家”
+柯受良：飞越黄河、飞跃长城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏目漱石？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺贝尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛人凤？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡万林？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华盛顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗荣桓：共和国十大元帅之一
+近卫文麿：日本侵华祸首之一
+马连良：京剧“四大须生”之首
+康生：文革关键人物之一
+贝多芬：最伟大的作曲家之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翦伯赞：著名历史学家
+雷锋：英雄楷模
+斯大林：领导苏联卫国战争取得胜利 ，苏联最高领导人
+冢田攻：中国军队击毙军衔最高的日本陆军将领
+拉马克：生物学伟大的奠基人之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹奉吉：刺杀日本陆军大将白川义则等
+关鹤岩：作曲家，《丢手绢》
+白令：白令海峡，第一个穿过北极圈和南极圈的人
+金·匹克：雨人原型，记忆力超常的残疾人
+郑振铎：著名作家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何东：香港第一任首富
+法布尔：《昆虫记》
+奥斯特洛夫斯基：《钢铁是怎样炼成的》
+缪荃孙：中国近代图书馆事业的奠基人
+普契尼：《蝴蝶夫人》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛姆：英国作家
+迪士尼：迪士尼乐园的创建者
+埃菲尔：创造奇迹的建筑大师，埃菲尔铁塔、自由女神像
+瓦西里·扎伊采夫：苏联著名狙击手
+徐永昌：抗战时期的军委会四巨头之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗荣桓？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡适：新文化运动的开山宗师
+吴莺音：上海老歌星，《我有一段情》
+金正日：朝鲜第二代领导人
+西蒙·海耶：世界狙击之王，绰号“白色死神”
+玻利瓦尔：南美洲的解放者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴莺音？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅斯年：著名历史学家，傅大炮
+宗白华：新道家代表人物，中国体验美学
+马季：中国新相声的代表人物
+乌斯季诺夫：荣获十一枚列宁勋章的苏联元帅
+康熙：中国历史上在位时间最长的皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉马克？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金匹克？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公祭日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦西里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄伽丘：文艺复兴先驱，《十日谈》
+木心：中国传统文化的精英和传奇人物
+罗家伦：“五四运动”的学生领袖和命名者
+巴顿：二战中著名的美军统帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄伽丘？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没当过皇帝的“皇帝”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Songti SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>༄྄ེིོུཉི</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>流风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Songti SC Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ཉ྄ིོུ༄</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣味地理之三国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不好判断的三国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥斯特洛夫斯基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东条英机：二战甲级战犯；剃刀将军
+明仁天皇：日本第125任天皇
+贝利亚：执行了斯大林的大清洗计划
+井勿幕：孙中山誉为“西北革命巨柱”
+约瑟夫·史密斯：摩门教创始人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明仁天皇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达伽马：第一位从欧洲航海到印度的人
+基特·卡森：把印第安人赶入保护区的美国传奇人物
+三船敏郎：著名的日本演员
+吴志达：美国连环杀人案的香港人
+焦耳：热力学第一定律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜鲁门：第33任美国总统
+查尔斯·巴贝奇：可编程计算机的发明者
+高华：《红太阳是怎样升起的》
+毛泽东：伟大的无产阶级革命家
+亨利·米勒：美国重要作家《北回归线》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄克诚：共和国十大将之一
+冯国璋：直系军阀首领
+冯·诺依曼：“计算机之父”和“博弈论之父”。
+沈从文：《边城》《湘行散记》
+王洛宾：有“西北民歌之父”、“西部歌王”之称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉斯普京：俄国妖僧
+聂荣臻：十大元帅之一
+尤敏：金马影后第一人
+梅贻琦：清华四哲人之一 
+蓬帕杜夫人：路易十五的著名情妇、社交名媛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠呦呦：抗疟药青蒿素和双氢青蒿素的发现者
+萨达姆：被美军击毙的伊拉克总统
+徐树铮：迫使外蒙古撤销自治，经营外蒙
+梅艳芳：女演员，香港演艺人协会的创办人
+罗曼·罗兰：《约翰·克利斯朵夫》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三船敏郎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵力子：和平老人
+亨弗莱·鲍嘉：百年来最伟大的男演员第1名
+雷海宗：南开史学四大家
+大正天皇：日本第123代天皇
+熊希龄：民国第一任总理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜鲁门？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马季？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈从文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史铁生：残疾作家，《我与地坛》
+马蒂斯：野兽派的创始人和主要代表人物
+多尔衮：清朝统治中国的关键人物
+王襄：甲骨文研究先驱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母仪天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mr.嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程砚秋：著名京剧演员
+齐白石：中国绘画大师
+顾拜旦：奥林匹克之父
+洪秀全：天平天国的天王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿西莫夫：美国著名科幻小说家
+蒋鼎文：“蒋介石的五虎上将” 之一
+张献忠：明末民变首领之一
+唐绍仪：民国第一任内阁总理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东史郎：《东史郎日记》， 向中国人民谢罪
+刘学询：支持孙中山的广东巨富，奇人
+黄柳霜：第一位美籍华人好莱坞影星
+托尔金：《魔戒》作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高行健：2000年诺贝尔文学奖
+薛定谔：诺贝尔物理学奖，量子力学奠基者
+三毛：中国现代作家，《撒哈拉的故事》
+萧劲光：中华人民共和国十大大将
+牛顿：科学史上最有影响力的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金大中：韩国民主斗士的象征，被誉为“亚洲的曼德拉”
+孟德尔：遗传学的奠基人
+陈毅：中华人民共和国十大元帅
+辜振甫：鹿港红顶商人，海基会董事长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王树声：中华人民共和国十大大将
+昭和天皇：日本第124代天皇
+特斯拉：创造出二十世纪的人
+冯国璋：直系军阀的首领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽利略：现代科学之父
+马可·波罗：《马可·波罗游记》
+盛世才：“新疆王”
+普雷斯利：流行巨星，猫王
+周恩来：党的创建人之一和核心领导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵力子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉斯普京？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠呦呦？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月18考完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始到期末考试结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史铁生？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万千宠爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪秀全？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛岳：有抗日“战神”之称
+黄远生：中国第一个真正现代意义上的记者
+开普勒：行星运动的三大定律
+埃菲尔：创造奇迹的建筑大师，埃菲尔铁塔
+路易·巴斯德：微生物学之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄远生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄柳霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫崎骏：日本动画大师
+沙克尔顿：南极探险家
+康拉德·阿登纳：最伟大的德国人，排名第一
+约翰·拉贝：中国的辛德勒
+刘峙：“福将”、“常胜将军”、“长腿将军”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿登纳？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金大中？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐绍仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛世才？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇葩死法之帝王篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅以升：著名桥梁专家，钱塘江大桥
+杨守敬：晚清民初学者第一人
+梁思成：梁启超之子，林徽因之夫，创办清华大学建筑系
+彭子冈：后方新闻界的“四大名旦”之一
+西蒙·波娃：《第二性》，女权运动的重要理论家和创始人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡元培：北京大学校长，教育学家
+奕䜣：洋务运动的中央主要代表
+1962年，七千人大会
+内山完造：鲁迅的日本密友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘胡兰：革命先烈
+同治皇帝：
+阿加莎·克里斯蒂：侦探小说女王
+庞炳勋：投降日军的集团军总司令
+戈林：希特勒指定的接班人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋经国：蒋介石之子，结束一党制
+叶企孙：清华四哲人之一
+陈炯明：炮轰总统府
+史蒂芬·亨得利：斯诺克皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄一波：中共八大元老之一
+蒋鼎文：“蒋介石的五虎上将” 之一
+莫里哀：伟大的法国喜剧作家
+陈桢：中国动物遗传学的创始人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁思成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡元培？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海灯法师：传说中的一指禅
+李小文：布鞋院士
+夏瑞芳：商务印书馆创办人
+杨衢云：中国近代革命第一人
+卡尔·林奈：现代生物分类学之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨衢云？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯国璋？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈林？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋经国？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听起来一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太上皇之谜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶成章：光复会会长，被蒋介石刺杀
+亨弗莱·鲍嘉：百年来最伟大的男演员第1名
+刘华清：“中国现代海军之父”、“中国航母之父”
+史怀哲：人道精神划时代伟人
+马鸿逵：宁夏王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宓：清华大学国学院创办人之一，哈佛三杰之一
+吴运铎：中国的保尔
+杨昌济：毛泽东的老师、岳父
+赵紫阳：副主席
+卫立煌：虎将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山姆·库克：灵魂乐之王
+萧红：《呼兰河传》《生死场》
+余英时：著名历史学家、汉学家
+拜伦：英国诗人
+维多利亚女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1556年：明嘉靖关中大地震，世界死亡最多，死亡80w
+王石：万达创始人
+西乡隆盛：日本维新三杰
+唐圭璋：是20世纪最负盛名的词学大师之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕碧城：民国奇才女，创造多个中国第一
+吴敬琏：中国经济学界的泰斗
+程长庚：清代徽剧、京剧表演艺术大师。
+丘吉尔：英国首相，领导二战胜利
+韩复榘：被蒋介石暗杀的“飞将军”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋鼎文？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周作人：新文化运动代表性人物
+陶铸：文革被迫害的副总理
+张莘夫：被暗杀身亡，苏联退出东北
+胡愈之：出版界的全才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张莘夫？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘华清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘湘：出川的川军
+奥黛丽·赫本：美国电影演员
+董振堂：宁都暴动，红五军
+蒋梦麟：北大校长，浙大校长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋梦麟？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈扬：后方新闻界的“四大名旦”之一
+朱可夫：指挥斯大林格勒战役、列宁格勒战役、柏林战役
+加里·格兰特：百年来最伟大的男演员第2名
+万籁鸣：中国动画创始人，《神笔马良》，《大闹天宫》
+孟德斯鸠：西方国家学说和法学理论的奠基人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨昌济？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万籁鸣？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁启超：中国近代思想家、政治家
+霍元甲：“吹”出来的武术家
+纳兰性德：清朝第一才子
+爱伦·坡：美国伟大作家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳兰性德？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶铸？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列宁：苏联的缔造者
+乔治·奥威尔：《1984》《动物庄园》
+钱端升：起草第一部新中国宪法
+陈舜臣：日本的中国历史小说创作的先行者
+肖华：《长征组歌》，开国最年轻的上将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧红？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑正秋：第一代导演，中国电影之父、中国电影第一人。
+刘墉：刘罗锅，浓墨宰相
+阿基诺夫人：亚洲首位民选女总统
+王稼祥：首次提出“毛泽东思想”
+许崇智：国民党建国粤军总司令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1948年，帝银事件，扑朔迷离，日本抢劫银行杀人事件
+爱德华·詹纳：疫苗之父
+麦克阿瑟：战后日本改造 ；太平洋战区最高统帅
+新凤霞：评剧演员
+重光葵：一只脚站起来的甲级战犯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳飞：民族英雄
+宋庆龄：孙中山夫人
+陶成章：被蒋介石刺杀的光复会会长
+孝庄文皇后：大玉儿，顺治帝的生母
+翁文灏：回归的第12号战犯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄任中：自比钟馗，台湾最后一个“白马王子”
+确吉坚赞：唯一结婚生子的十世班禅
+杨子荣：剿匪英雄
+奕劻：葬送清朝的重臣
+张辉瓒：被红军活捉杀害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>江竹筠：江姐
 顾维钧：被誉为“民国第一外交家” 
 光绪皇帝：与慈禧的“母子情”
@@ -9067,151 +10236,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戴望舒：著名诗人
-慈禧太后：清朝晚期的实际统治者
-坂本龙马：日本近代化转型的关键小人物
-开普勒：行星运动的三大定律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭沫若：传奇文人（可只讲某一方面）
-路易·里尔：加拿大最具争议的、悲情的民族英雄
-1906年，“雅礼大学堂”在长沙西牌楼创立
-1981年：中国女排首获世界冠军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡锷？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔泓熙？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太后当国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留言数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点赞数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他留言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答对数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答错数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货人: 曾俊毅，手机号码: 18859618319
-所在地区: 福建省福州市闽侯县上街镇
-详细地址:上街镇福州市闽侯县高新区高新大道启迪之星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪精卫？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双11？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天之骄女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白求恩？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文夕大火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光绪？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶卡捷琳娜二世：俄罗斯唯一的女大帝
-路遥：茅盾文学奖，《平凡的世界》
-王强：残忍的连环杀手
-李彦宏：百度创始人
-容闳：中国留学生之父</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米老鼠：迪士尼卡通形象
-丁汝昌：甲午海战中英勇抗敌
-龙榆生：是20世纪最负盛名的词学大师之一
-李立三：中国共产党早期领导人
-欧阳海：舍身救列车的英雄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙立人：歼灭日军最多的将领
-徐志摩：新月派诗人，《再别康桥》
-张云逸：共和国十大将之一
-许光达：共和国十大将之一
-龙云：云南王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛朗哥：西班牙独裁统治30多年
-叶公超：文学的天才，外交的奇才
-刘师培：经学家，民国三大狂人之一
-列夫·托尔斯泰：《战争与和平》，《安娜·卡列尼娜》
-哈勃：星系天文学之父</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵紫宸：中国20世纪最具影响力的神学家
-钱锺书：著名作家，《围城》
-沈理源：天津近代著名的建筑设计师
-谢晋：中国第三代导演代表之一
-高志航：中国空军“四大金刚”之一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方先觉：衡阳保卫战坚守47天
-厉以宁：中国经济学界泰斗
-朱自清：著名作家，《背影》《春》
-林则徐：虎门销烟的民族英雄
-林凤眠：中国美术学院创始人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英敛之：天主教精神领袖。辅仁大学、《大公报》创办人
-饶漱石：开国元勋，华东战区统帅
-约翰·拉贝：《拉贝日记》，“中国的辛德勒”
-洪仁玕：太平天国，颁布《资政新篇》
-毛岸青：毛泽东的次子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘少奇：共和国开国元勋
-马克沁：发明大杀器马克沁机枪
-吉鸿昌：“恨不抗日死”的革命英雄
-黄霑：沧海一声笑的香港四大才子
-周培源：中国近代力学奠基人和理论物理奠基人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慈禧太后？</t>
+    <t>邓丽君：著名歌星
+沙畹：欧洲汉学泰斗
+罗曼·罗兰：《约翰·克利斯朵夫》
+顾维钧：被誉为“民国第一外交家” 
+契诃夫：世界三大短篇小说巨匠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李宗仁：新桂系领袖，台儿庄大捷
+罗斯福：连任4届的美国总统，走出大萧条
+甘地：印度国父
+杨刚：后方新闻界的“四大名旦”之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖和：台湾新文学之父；台湾文学的“奶母”
+袁庚：招商银行、平安保险等企业创始人
+德川家康：战国三英杰
+顾圣婴：文革自杀的钢琴诗人
+徐复观：新儒家代表人物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9219,14 +10263,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaaa;@"/>
     <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="180" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ aaaa;@"/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9336,6 +10381,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Songti SC Regular"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -9402,7 +10453,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="884">
+  <cellStyleXfs count="982">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10287,8 +11338,106 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10515,8 +11664,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="884">
+  <cellStyles count="982">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -10955,6 +12114,55 @@
     <cellStyle name="超链接" xfId="878" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="880" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="882" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="884" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="886" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="888" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="890" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="892" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="894" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="896" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="898" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="900" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="902" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="904" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="906" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="908" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="910" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="912" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="914" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="916" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="918" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="920" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="922" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="924" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="926" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="928" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="930" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="932" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="934" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="936" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="938" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="940" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="942" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="944" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="946" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="948" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="950" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="952" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="954" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="956" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="958" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="960" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="962" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="964" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="966" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="968" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="970" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="972" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="974" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="976" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="978" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="980" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -11400,6 +12608,55 @@
     <cellStyle name="访问过的超链接" xfId="879" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="881" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="883" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="885" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="887" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="889" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="891" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="893" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="895" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="897" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="899" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="901" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="903" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="905" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="907" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="909" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="911" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="913" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="915" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="917" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="919" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="921" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="923" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="925" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="927" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="929" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="931" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="933" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="935" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="937" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="939" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="941" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="943" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="945" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="947" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="949" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="951" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="953" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="955" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="957" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="959" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="961" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="963" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="965" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="967" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="969" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="971" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="973" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="975" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="977" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="979" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="981" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11729,31 +12986,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U239"/>
+  <dimension ref="A1:W323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C208" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I211" sqref="I211"/>
+      <selection pane="bottomRight" activeCell="C315" sqref="C315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="12" style="31" customWidth="1"/>
     <col min="3" max="3" width="52.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="80" customWidth="1"/>
-    <col min="5" max="6" width="13.1640625" style="74" customWidth="1"/>
-    <col min="7" max="10" width="11.6640625" style="74" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="80" customWidth="1"/>
-    <col min="12" max="17" width="11.6640625" style="74" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" style="74" customWidth="1"/>
-    <col min="19" max="20" width="11.6640625" style="74" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="74" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="74" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="80" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="74" customWidth="1"/>
+    <col min="8" max="11" width="11.6640625" style="74" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="74" customWidth="1"/>
+    <col min="13" max="14" width="11.6640625" style="74" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="80" customWidth="1"/>
+    <col min="16" max="19" width="11.6640625" style="74" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" style="74" customWidth="1"/>
+    <col min="21" max="22" width="11.6640625" style="74" customWidth="1"/>
+    <col min="23" max="23" width="13.1640625" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="71" customFormat="1">
+    <row r="1" spans="1:23" s="71" customFormat="1">
       <c r="A1" s="71" t="s">
         <v>1481</v>
       </c>
@@ -11763,62 +13024,68 @@
       <c r="C1" s="71" t="s">
         <v>1482</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="73" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F1" s="79" t="s">
         <v>1948</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="G1" s="73" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>1779</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>1503</v>
+      </c>
+      <c r="L1" s="73" t="s">
         <v>1721</v>
       </c>
-      <c r="F1" s="73" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G1" s="73" t="s">
-        <v>1779</v>
-      </c>
-      <c r="H1" s="73" t="s">
-        <v>1780</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>1490</v>
-      </c>
-      <c r="J1" s="73" t="s">
-        <v>1503</v>
-      </c>
-      <c r="K1" s="79" t="s">
+      <c r="M1" s="73" t="s">
+        <v>1500</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>1769</v>
+      </c>
+      <c r="O1" s="79" t="s">
         <v>1946</v>
       </c>
-      <c r="L1" s="73" t="s">
-        <v>1500</v>
-      </c>
-      <c r="M1" s="73" t="s">
-        <v>1769</v>
-      </c>
-      <c r="N1" s="73" t="s">
+      <c r="P1" s="73" t="s">
         <v>1493</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="Q1" s="73" t="s">
         <v>1560</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="R1" s="73" t="s">
         <v>1733</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="S1" s="73" t="s">
         <v>1566</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="T1" s="73" t="s">
         <v>1581</v>
       </c>
-      <c r="S1" s="73" t="s">
+      <c r="U1" s="73" t="s">
         <v>1540</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="V1" s="73" t="s">
         <v>1568</v>
       </c>
-      <c r="U1" s="73" t="s">
+      <c r="W1" s="73" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="60">
+    <row r="2" spans="1:23" ht="60">
       <c r="A2" s="61" t="s">
         <v>887</v>
       </c>
@@ -11828,11 +13095,13 @@
       <c r="C2" s="72" t="s">
         <v>1483</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="J2" s="76" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="60">
+    <row r="3" spans="1:23" ht="60">
       <c r="A3" s="61" t="s">
         <v>888</v>
       </c>
@@ -11842,14 +13111,16 @@
       <c r="C3" s="72" t="s">
         <v>1484</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="M3" s="76"/>
-      <c r="P3" s="76" t="s">
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="81"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="81"/>
+      <c r="R3" s="76" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="60">
+    <row r="4" spans="1:23" ht="60">
       <c r="A4" s="61" t="s">
         <v>889</v>
       </c>
@@ -11859,11 +13130,13 @@
       <c r="C4" s="72" t="s">
         <v>1485</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="W4" s="76" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="75">
+    <row r="5" spans="1:23" ht="75">
       <c r="A5" s="61" t="s">
         <v>890</v>
       </c>
@@ -11873,11 +13146,13 @@
       <c r="C5" s="72" t="s">
         <v>1486</v>
       </c>
-      <c r="N5" s="76" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="P5" s="76" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="60">
+    <row r="6" spans="1:23" ht="60">
       <c r="A6" s="61" t="s">
         <v>891</v>
       </c>
@@ -11887,12 +13162,14 @@
       <c r="C6" s="72" t="s">
         <v>1487</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76" t="s">
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="G6" s="76" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="75">
+      <c r="L6" s="76"/>
+    </row>
+    <row r="7" spans="1:23" ht="75">
       <c r="A7" s="61" t="s">
         <v>892</v>
       </c>
@@ -11902,11 +13179,13 @@
       <c r="C7" s="72" t="s">
         <v>1488</v>
       </c>
-      <c r="I7" s="76" t="s">
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="J7" s="76" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="75">
+    <row r="8" spans="1:23" ht="75">
       <c r="A8" s="62" t="s">
         <v>893</v>
       </c>
@@ -11916,14 +13195,16 @@
       <c r="C8" s="72" t="s">
         <v>1494</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="M8" s="76"/>
-      <c r="P8" s="76" t="s">
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="81"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="81"/>
+      <c r="R8" s="76" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="90">
+    <row r="9" spans="1:23" ht="90">
       <c r="A9" s="61" t="s">
         <v>887</v>
       </c>
@@ -11933,11 +13214,13 @@
       <c r="C9" s="72" t="s">
         <v>1501</v>
       </c>
-      <c r="I9" s="77" t="s">
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="J9" s="77" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="60">
+    <row r="10" spans="1:23" ht="60">
       <c r="A10" s="61" t="s">
         <v>888</v>
       </c>
@@ -11947,11 +13230,13 @@
       <c r="C10" s="72" t="s">
         <v>1495</v>
       </c>
-      <c r="L10" s="76" t="s">
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="M10" s="76" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="60">
+    <row r="11" spans="1:23" ht="60">
       <c r="A11" s="61" t="s">
         <v>889</v>
       </c>
@@ -11961,13 +13246,15 @@
       <c r="C11" s="72" t="s">
         <v>1496</v>
       </c>
-      <c r="G11" s="76"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
       <c r="H11" s="76"/>
-      <c r="J11" s="76" t="s">
+      <c r="I11" s="76"/>
+      <c r="K11" s="76" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="105">
+    <row r="12" spans="1:23" ht="105">
       <c r="A12" s="61" t="s">
         <v>890</v>
       </c>
@@ -11977,11 +13264,13 @@
       <c r="C12" s="72" t="s">
         <v>1505</v>
       </c>
-      <c r="N12" s="76" t="s">
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="P12" s="76" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="75">
+    <row r="13" spans="1:23" ht="75">
       <c r="A13" s="61" t="s">
         <v>891</v>
       </c>
@@ -11991,12 +13280,14 @@
       <c r="C13" s="72" t="s">
         <v>1506</v>
       </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76" t="s">
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="G13" s="76" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="75">
+      <c r="L13" s="76"/>
+    </row>
+    <row r="14" spans="1:23" ht="75">
       <c r="A14" s="61" t="s">
         <v>892</v>
       </c>
@@ -12006,11 +13297,13 @@
       <c r="C14" s="72" t="s">
         <v>1511</v>
       </c>
-      <c r="I14" s="76" t="s">
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="J14" s="76" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="90">
+    <row r="15" spans="1:23" ht="90">
       <c r="A15" s="62" t="s">
         <v>893</v>
       </c>
@@ -12020,14 +13313,16 @@
       <c r="C15" s="72" t="s">
         <v>1512</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="M15" s="76"/>
-      <c r="P15" s="76" t="s">
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="81"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="81"/>
+      <c r="R15" s="76" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="75">
+    <row r="16" spans="1:23" ht="75">
       <c r="A16" s="61" t="s">
         <v>887</v>
       </c>
@@ -12037,11 +13332,13 @@
       <c r="C16" s="72" t="s">
         <v>1510</v>
       </c>
-      <c r="N16" s="76" t="s">
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="P16" s="76" t="s">
         <v>1526</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="60">
+    <row r="17" spans="1:21" ht="60">
       <c r="A17" s="61" t="s">
         <v>888</v>
       </c>
@@ -12051,11 +13348,13 @@
       <c r="C17" s="72" t="s">
         <v>1513</v>
       </c>
-      <c r="L17" s="76" t="s">
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="M17" s="76" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="90">
+    <row r="18" spans="1:21" ht="90">
       <c r="A18" s="61" t="s">
         <v>889</v>
       </c>
@@ -12065,13 +13364,15 @@
       <c r="C18" s="72" t="s">
         <v>1514</v>
       </c>
-      <c r="G18" s="76"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
       <c r="H18" s="76"/>
-      <c r="J18" s="76" t="s">
+      <c r="I18" s="76"/>
+      <c r="K18" s="76" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="60">
+    <row r="19" spans="1:21" ht="60">
       <c r="A19" s="61" t="s">
         <v>890</v>
       </c>
@@ -12081,17 +13382,19 @@
       <c r="C19" s="72" t="s">
         <v>1520</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="I19" s="76" t="s">
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="81"/>
+      <c r="J19" s="76" t="s">
         <v>1531</v>
       </c>
-      <c r="K19" s="81"/>
-      <c r="M19" s="76"/>
-      <c r="P19" s="76" t="s">
+      <c r="N19" s="76"/>
+      <c r="O19" s="81"/>
+      <c r="R19" s="76" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="60">
+    <row r="20" spans="1:21" ht="60">
       <c r="A20" s="61" t="s">
         <v>891</v>
       </c>
@@ -12101,12 +13404,14 @@
       <c r="C20" s="72" t="s">
         <v>1524</v>
       </c>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76" t="s">
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="G20" s="76" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="60">
+      <c r="L20" s="76"/>
+    </row>
+    <row r="21" spans="1:21" ht="60">
       <c r="A21" s="61" t="s">
         <v>892</v>
       </c>
@@ -12116,11 +13421,13 @@
       <c r="C21" s="72" t="s">
         <v>1515</v>
       </c>
-      <c r="N21" s="76" t="s">
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="P21" s="76" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="75">
+    <row r="22" spans="1:21" ht="75">
       <c r="A22" s="62" t="s">
         <v>893</v>
       </c>
@@ -12130,13 +13437,15 @@
       <c r="C22" s="72" t="s">
         <v>1516</v>
       </c>
-      <c r="G22" s="76"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
       <c r="H22" s="76"/>
-      <c r="J22" s="76" t="s">
+      <c r="I22" s="76"/>
+      <c r="K22" s="76" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="90">
+    <row r="23" spans="1:21" ht="90">
       <c r="A23" s="61" t="s">
         <v>887</v>
       </c>
@@ -12146,11 +13455,13 @@
       <c r="C23" s="72" t="s">
         <v>1529</v>
       </c>
-      <c r="L23" s="76" t="s">
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="M23" s="76" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="75">
+    <row r="24" spans="1:21" ht="75">
       <c r="A24" s="61" t="s">
         <v>888</v>
       </c>
@@ -12160,11 +13471,13 @@
       <c r="C24" s="72" t="s">
         <v>1534</v>
       </c>
-      <c r="I24" s="76" t="s">
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="J24" s="76" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="75">
+    <row r="25" spans="1:21" ht="75">
       <c r="A25" s="61" t="s">
         <v>889</v>
       </c>
@@ -12174,12 +13487,14 @@
       <c r="C25" s="72" t="s">
         <v>1539</v>
       </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75" t="s">
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="G25" s="75" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="75">
+      <c r="L25" s="75"/>
+    </row>
+    <row r="26" spans="1:21" ht="75">
       <c r="A26" s="61" t="s">
         <v>890</v>
       </c>
@@ -12189,11 +13504,13 @@
       <c r="C26" s="72" t="s">
         <v>1535</v>
       </c>
-      <c r="N26" s="76" t="s">
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="P26" s="76" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="60">
+    <row r="27" spans="1:21" ht="60">
       <c r="A27" s="61" t="s">
         <v>891</v>
       </c>
@@ -12203,11 +13520,13 @@
       <c r="C27" s="72" t="s">
         <v>1536</v>
       </c>
-      <c r="I27" s="76" t="s">
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="J27" s="76" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="75">
+    <row r="28" spans="1:21" ht="75">
       <c r="A28" s="61" t="s">
         <v>892</v>
       </c>
@@ -12217,11 +13536,13 @@
       <c r="C28" s="72" t="s">
         <v>1537</v>
       </c>
-      <c r="S28" s="75" t="s">
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="U28" s="75" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="60">
+    <row r="29" spans="1:21" ht="60">
       <c r="A29" s="62" t="s">
         <v>893</v>
       </c>
@@ -12231,13 +13552,15 @@
       <c r="C29" s="72" t="s">
         <v>1525</v>
       </c>
-      <c r="G29" s="76"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
       <c r="H29" s="76"/>
-      <c r="J29" s="76" t="s">
+      <c r="I29" s="76"/>
+      <c r="K29" s="76" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="90">
+    <row r="30" spans="1:21" ht="90">
       <c r="A30" s="61" t="s">
         <v>887</v>
       </c>
@@ -12247,14 +13570,16 @@
       <c r="C30" s="72" t="s">
         <v>1542</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="M30" s="76"/>
-      <c r="P30" s="76" t="s">
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="81"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="81"/>
+      <c r="R30" s="76" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="75">
+    <row r="31" spans="1:21" ht="75">
       <c r="A31" s="61" t="s">
         <v>888</v>
       </c>
@@ -12264,11 +13589,13 @@
       <c r="C31" s="72" t="s">
         <v>1543</v>
       </c>
-      <c r="L31" s="76" t="s">
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="M31" s="76" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="75">
+    <row r="32" spans="1:21" ht="75">
       <c r="A32" s="61" t="s">
         <v>889</v>
       </c>
@@ -12278,11 +13605,13 @@
       <c r="C32" s="72" t="s">
         <v>1544</v>
       </c>
-      <c r="N32" s="76" t="s">
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="P32" s="76" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="60">
+    <row r="33" spans="1:22" ht="60">
       <c r="A33" s="61" t="s">
         <v>890</v>
       </c>
@@ -12292,11 +13621,13 @@
       <c r="C33" s="72" t="s">
         <v>1545</v>
       </c>
-      <c r="I33" s="76" t="s">
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="J33" s="76" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="60">
+    <row r="34" spans="1:22" ht="60">
       <c r="A34" s="61" t="s">
         <v>891</v>
       </c>
@@ -12306,11 +13637,13 @@
       <c r="C34" s="72" t="s">
         <v>1546</v>
       </c>
-      <c r="O34" s="76" t="s">
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="Q34" s="76" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="90">
+    <row r="35" spans="1:22" ht="90">
       <c r="A35" s="61" t="s">
         <v>892</v>
       </c>
@@ -12320,13 +13653,15 @@
       <c r="C35" s="72" t="s">
         <v>1561</v>
       </c>
-      <c r="G35" s="76"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
       <c r="H35" s="76"/>
-      <c r="J35" s="76" t="s">
+      <c r="I35" s="76"/>
+      <c r="K35" s="76" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="75">
+    <row r="36" spans="1:22" ht="75">
       <c r="A36" s="62" t="s">
         <v>893</v>
       </c>
@@ -12336,14 +13671,16 @@
       <c r="C36" s="72" t="s">
         <v>1547</v>
       </c>
-      <c r="D36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="M36" s="76"/>
-      <c r="P36" s="76" t="s">
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="81"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="81"/>
+      <c r="R36" s="76" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="75">
+    <row r="37" spans="1:22" ht="75">
       <c r="A37" s="61" t="s">
         <v>887</v>
       </c>
@@ -12353,11 +13690,13 @@
       <c r="C37" s="72" t="s">
         <v>1562</v>
       </c>
-      <c r="L37" s="76" t="s">
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="M37" s="76" t="s">
         <v>1588</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="75">
+    <row r="38" spans="1:22" ht="75">
       <c r="A38" s="61" t="s">
         <v>888</v>
       </c>
@@ -12367,11 +13706,13 @@
       <c r="C38" s="72" t="s">
         <v>1552</v>
       </c>
-      <c r="I38" s="76" t="s">
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="J38" s="76" t="s">
         <v>1586</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="105">
+    <row r="39" spans="1:22" ht="105">
       <c r="A39" s="61" t="s">
         <v>889</v>
       </c>
@@ -12381,14 +13722,16 @@
       <c r="C39" s="72" t="s">
         <v>1553</v>
       </c>
-      <c r="N39" s="76" t="s">
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="P39" s="76" t="s">
         <v>1590</v>
       </c>
-      <c r="Q39" s="76" t="s">
+      <c r="S39" s="76" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="75">
+    <row r="40" spans="1:22" ht="75">
       <c r="A40" s="61" t="s">
         <v>890</v>
       </c>
@@ -12398,11 +13741,13 @@
       <c r="C40" s="72" t="s">
         <v>1567</v>
       </c>
-      <c r="T40" s="76" t="s">
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="V40" s="76" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="60">
+    <row r="41" spans="1:22" ht="60">
       <c r="A41" s="61" t="s">
         <v>891</v>
       </c>
@@ -12412,11 +13757,13 @@
       <c r="C41" s="72" t="s">
         <v>1554</v>
       </c>
-      <c r="O41" s="76" t="s">
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="Q41" s="76" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="75">
+    <row r="42" spans="1:22" ht="75">
       <c r="A42" s="61" t="s">
         <v>892</v>
       </c>
@@ -12426,11 +13773,13 @@
       <c r="C42" s="72" t="s">
         <v>1555</v>
       </c>
-      <c r="R42" s="75" t="s">
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="T42" s="75" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="75">
+    <row r="43" spans="1:22" ht="75">
       <c r="A43" s="62" t="s">
         <v>893</v>
       </c>
@@ -12440,13 +13789,15 @@
       <c r="C43" s="72" t="s">
         <v>1556</v>
       </c>
-      <c r="G43" s="76"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
       <c r="H43" s="76"/>
-      <c r="J43" s="76" t="s">
+      <c r="I43" s="76"/>
+      <c r="K43" s="76" t="s">
         <v>1594</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="105">
+    <row r="44" spans="1:22" ht="105">
       <c r="A44" s="61" t="s">
         <v>887</v>
       </c>
@@ -12456,14 +13807,16 @@
       <c r="C44" s="72" t="s">
         <v>1571</v>
       </c>
-      <c r="D44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="M44" s="76"/>
-      <c r="P44" s="76" t="s">
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="81"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="81"/>
+      <c r="R44" s="76" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="75">
+    <row r="45" spans="1:22" ht="75">
       <c r="A45" s="61" t="s">
         <v>888</v>
       </c>
@@ -12473,11 +13826,13 @@
       <c r="C45" s="72" t="s">
         <v>1587</v>
       </c>
-      <c r="L45" s="76" t="s">
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="M45" s="76" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="105">
+    <row r="46" spans="1:22" ht="105">
       <c r="A46" s="61" t="s">
         <v>889</v>
       </c>
@@ -12487,11 +13842,13 @@
       <c r="C46" s="72" t="s">
         <v>1572</v>
       </c>
-      <c r="I46" s="76" t="s">
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="J46" s="76" t="s">
         <v>1605</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="75">
+    <row r="47" spans="1:22" ht="75">
       <c r="A47" s="61" t="s">
         <v>890</v>
       </c>
@@ -12501,11 +13858,13 @@
       <c r="C47" s="72" t="s">
         <v>1573</v>
       </c>
-      <c r="T47" s="75" t="s">
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="V47" s="75" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="90">
+    <row r="48" spans="1:22" ht="90">
       <c r="A48" s="61" t="s">
         <v>891</v>
       </c>
@@ -12515,11 +13874,13 @@
       <c r="C48" s="72" t="s">
         <v>1574</v>
       </c>
-      <c r="Q48" s="76" t="s">
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="S48" s="76" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="60">
+    <row r="49" spans="1:21" ht="60">
       <c r="A49" s="61" t="s">
         <v>892</v>
       </c>
@@ -12529,11 +13890,13 @@
       <c r="C49" s="72" t="s">
         <v>1595</v>
       </c>
-      <c r="O49" s="76" t="s">
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="Q49" s="76" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="75">
+    <row r="50" spans="1:21" ht="75">
       <c r="A50" s="62" t="s">
         <v>893</v>
       </c>
@@ -12543,11 +13906,13 @@
       <c r="C50" s="72" t="s">
         <v>1583</v>
       </c>
-      <c r="N50" s="76" t="s">
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="P50" s="76" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="90">
+    <row r="51" spans="1:21" ht="90">
       <c r="A51" s="61" t="s">
         <v>887</v>
       </c>
@@ -12557,13 +13922,15 @@
       <c r="C51" s="72" t="s">
         <v>1584</v>
       </c>
-      <c r="G51" s="76"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
       <c r="H51" s="76"/>
-      <c r="J51" s="76" t="s">
+      <c r="I51" s="76"/>
+      <c r="K51" s="76" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="75">
+    <row r="52" spans="1:21" ht="75">
       <c r="A52" s="61" t="s">
         <v>888</v>
       </c>
@@ -12573,14 +13940,16 @@
       <c r="C52" s="72" t="s">
         <v>1585</v>
       </c>
-      <c r="D52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="M52" s="76"/>
-      <c r="P52" s="76" t="s">
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="81"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="81"/>
+      <c r="R52" s="76" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="60">
+    <row r="53" spans="1:21" ht="60">
       <c r="A53" s="61" t="s">
         <v>889</v>
       </c>
@@ -12590,11 +13959,13 @@
       <c r="C53" s="72" t="s">
         <v>1597</v>
       </c>
-      <c r="I53" s="76" t="s">
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="J53" s="76" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="60">
+    <row r="54" spans="1:21" ht="60">
       <c r="A54" s="61" t="s">
         <v>890</v>
       </c>
@@ -12604,11 +13975,13 @@
       <c r="C54" s="72" t="s">
         <v>1598</v>
       </c>
-      <c r="L54" s="76" t="s">
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="M54" s="76" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="60">
+    <row r="55" spans="1:21" ht="60">
       <c r="A55" s="61" t="s">
         <v>891</v>
       </c>
@@ -12618,11 +13991,13 @@
       <c r="C55" s="72" t="s">
         <v>1599</v>
       </c>
-      <c r="O55" s="76" t="s">
+      <c r="D55" s="88"/>
+      <c r="E55" s="88"/>
+      <c r="Q55" s="76" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="60">
+    <row r="56" spans="1:21" ht="60">
       <c r="A56" s="61" t="s">
         <v>892</v>
       </c>
@@ -12632,11 +14007,13 @@
       <c r="C56" s="72" t="s">
         <v>1600</v>
       </c>
-      <c r="Q56" s="76" t="s">
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="S56" s="76" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="75">
+    <row r="57" spans="1:21" ht="75">
       <c r="A57" s="62" t="s">
         <v>893</v>
       </c>
@@ -12646,11 +14023,13 @@
       <c r="C57" s="72" t="s">
         <v>1601</v>
       </c>
-      <c r="N57" s="76" t="s">
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="P57" s="76" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="60">
+    <row r="58" spans="1:21" ht="60">
       <c r="A58" s="61" t="s">
         <v>887</v>
       </c>
@@ -12660,13 +14039,15 @@
       <c r="C58" s="72" t="s">
         <v>1602</v>
       </c>
-      <c r="G58" s="76"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88"/>
       <c r="H58" s="76"/>
-      <c r="J58" s="76" t="s">
+      <c r="I58" s="76"/>
+      <c r="K58" s="76" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="75">
+    <row r="59" spans="1:21" ht="75">
       <c r="A59" s="61" t="s">
         <v>888</v>
       </c>
@@ -12676,11 +14057,13 @@
       <c r="C59" s="72" t="s">
         <v>1603</v>
       </c>
-      <c r="S59" s="78" t="s">
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="U59" s="78" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="75">
+    <row r="60" spans="1:21" ht="75">
       <c r="A60" s="61" t="s">
         <v>889</v>
       </c>
@@ -12690,12 +14073,14 @@
       <c r="C60" s="72" t="s">
         <v>1604</v>
       </c>
-      <c r="M60" s="77"/>
-      <c r="P60" s="77" t="s">
+      <c r="D60" s="88"/>
+      <c r="E60" s="88"/>
+      <c r="N60" s="77"/>
+      <c r="R60" s="77" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="60">
+    <row r="61" spans="1:21" ht="60">
       <c r="A61" s="61" t="s">
         <v>890</v>
       </c>
@@ -12705,11 +14090,13 @@
       <c r="C61" s="72" t="s">
         <v>1620</v>
       </c>
-      <c r="I61" s="77" t="s">
+      <c r="D61" s="88"/>
+      <c r="E61" s="88"/>
+      <c r="J61" s="77" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="60">
+    <row r="62" spans="1:21" ht="60">
       <c r="A62" s="61" t="s">
         <v>891</v>
       </c>
@@ -12719,11 +14106,13 @@
       <c r="C62" s="72" t="s">
         <v>1628</v>
       </c>
-      <c r="O62" s="77" t="s">
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="Q62" s="77" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="60">
+    <row r="63" spans="1:21" ht="60">
       <c r="A63" s="61" t="s">
         <v>892</v>
       </c>
@@ -12733,11 +14122,13 @@
       <c r="C63" s="72" t="s">
         <v>1622</v>
       </c>
-      <c r="L63" s="77" t="s">
+      <c r="D63" s="88"/>
+      <c r="E63" s="88"/>
+      <c r="M63" s="77" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="75">
+    <row r="64" spans="1:21" ht="75">
       <c r="A64" s="62" t="s">
         <v>893</v>
       </c>
@@ -12747,11 +14138,13 @@
       <c r="C64" s="72" t="s">
         <v>1623</v>
       </c>
-      <c r="Q64" s="77" t="s">
+      <c r="D64" s="88"/>
+      <c r="E64" s="88"/>
+      <c r="S64" s="77" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="75">
+    <row r="65" spans="1:20" ht="75">
       <c r="A65" s="61" t="s">
         <v>887</v>
       </c>
@@ -12761,11 +14154,13 @@
       <c r="C65" s="72" t="s">
         <v>1624</v>
       </c>
-      <c r="N65" s="78" t="s">
+      <c r="D65" s="88"/>
+      <c r="E65" s="88"/>
+      <c r="P65" s="78" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="60">
+    <row r="66" spans="1:20" ht="60">
       <c r="A66" s="61" t="s">
         <v>888</v>
       </c>
@@ -12775,16 +14170,18 @@
       <c r="C66" s="72" t="s">
         <v>1634</v>
       </c>
-      <c r="G66" s="77"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
       <c r="H66" s="77"/>
-      <c r="I66" s="74" t="s">
+      <c r="I66" s="77"/>
+      <c r="J66" s="74" t="s">
         <v>1644</v>
       </c>
-      <c r="J66" s="77" t="s">
+      <c r="K66" s="77" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="75">
+    <row r="67" spans="1:20" ht="75">
       <c r="A67" s="61" t="s">
         <v>889</v>
       </c>
@@ -12794,11 +14191,13 @@
       <c r="C67" s="72" t="s">
         <v>1625</v>
       </c>
-      <c r="I67" s="77" t="s">
+      <c r="D67" s="88"/>
+      <c r="E67" s="88"/>
+      <c r="J67" s="77" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="75">
+    <row r="68" spans="1:20" ht="75">
       <c r="A68" s="61" t="s">
         <v>890</v>
       </c>
@@ -12808,12 +14207,14 @@
       <c r="C68" s="72" t="s">
         <v>1626</v>
       </c>
-      <c r="M68" s="77"/>
-      <c r="P68" s="77" t="s">
+      <c r="D68" s="88"/>
+      <c r="E68" s="88"/>
+      <c r="N68" s="77"/>
+      <c r="R68" s="77" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="60">
+    <row r="69" spans="1:20" ht="60">
       <c r="A69" s="61" t="s">
         <v>891</v>
       </c>
@@ -12823,11 +14224,13 @@
       <c r="C69" s="72" t="s">
         <v>1627</v>
       </c>
-      <c r="O69" s="77" t="s">
+      <c r="D69" s="88"/>
+      <c r="E69" s="88"/>
+      <c r="Q69" s="77" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="60">
+    <row r="70" spans="1:20" ht="60">
       <c r="A70" s="61" t="s">
         <v>892</v>
       </c>
@@ -12837,11 +14240,13 @@
       <c r="C70" s="72" t="s">
         <v>1638</v>
       </c>
-      <c r="L70" s="77" t="s">
+      <c r="D70" s="88"/>
+      <c r="E70" s="88"/>
+      <c r="M70" s="77" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="90">
+    <row r="71" spans="1:20" ht="90">
       <c r="A71" s="62" t="s">
         <v>893</v>
       </c>
@@ -12851,11 +14256,13 @@
       <c r="C71" s="72" t="s">
         <v>1639</v>
       </c>
-      <c r="Q71" s="77" t="s">
+      <c r="D71" s="88"/>
+      <c r="E71" s="88"/>
+      <c r="S71" s="77" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="60">
+    <row r="72" spans="1:20" ht="60">
       <c r="A72" s="61" t="s">
         <v>887</v>
       </c>
@@ -12865,11 +14272,13 @@
       <c r="C72" s="72" t="s">
         <v>1640</v>
       </c>
-      <c r="I72" s="77" t="s">
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
+      <c r="J72" s="77" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="60">
+    <row r="73" spans="1:20" ht="60">
       <c r="A73" s="61" t="s">
         <v>888</v>
       </c>
@@ -12879,12 +14288,14 @@
       <c r="C73" s="72" t="s">
         <v>1648</v>
       </c>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77" t="s">
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="G73" s="77" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" ht="75">
+      <c r="L73" s="77"/>
+    </row>
+    <row r="74" spans="1:20" ht="75">
       <c r="A74" s="61" t="s">
         <v>889</v>
       </c>
@@ -12894,13 +14305,15 @@
       <c r="C74" s="72" t="s">
         <v>1641</v>
       </c>
-      <c r="G74" s="77"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
       <c r="H74" s="77"/>
-      <c r="J74" s="77" t="s">
+      <c r="I74" s="77"/>
+      <c r="K74" s="77" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="60">
+    <row r="75" spans="1:20" ht="60">
       <c r="A75" s="61" t="s">
         <v>890</v>
       </c>
@@ -12910,11 +14323,13 @@
       <c r="C75" s="72" t="s">
         <v>1642</v>
       </c>
-      <c r="R75" s="78" t="s">
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="T75" s="78" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="60">
+    <row r="76" spans="1:20" ht="60">
       <c r="A76" s="61" t="s">
         <v>891</v>
       </c>
@@ -12924,11 +14339,13 @@
       <c r="C76" s="72" t="s">
         <v>1653</v>
       </c>
-      <c r="O76" s="78" t="s">
+      <c r="D76" s="88"/>
+      <c r="E76" s="88"/>
+      <c r="Q76" s="78" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="60">
+    <row r="77" spans="1:20" ht="60">
       <c r="A77" s="61" t="s">
         <v>892</v>
       </c>
@@ -12938,12 +14355,14 @@
       <c r="C77" s="72" t="s">
         <v>1643</v>
       </c>
-      <c r="M77" s="77"/>
-      <c r="P77" s="77" t="s">
+      <c r="D77" s="88"/>
+      <c r="E77" s="88"/>
+      <c r="N77" s="77"/>
+      <c r="R77" s="77" t="s">
         <v>1655</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="60">
+    <row r="78" spans="1:20" ht="60">
       <c r="A78" s="62" t="s">
         <v>893</v>
       </c>
@@ -12953,11 +14372,13 @@
       <c r="C78" s="72" t="s">
         <v>1656</v>
       </c>
-      <c r="I78" s="78" t="s">
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="J78" s="78" t="s">
         <v>1660</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="75">
+    <row r="79" spans="1:20" ht="75">
       <c r="A79" s="61" t="s">
         <v>887</v>
       </c>
@@ -12967,12 +14388,14 @@
       <c r="C79" s="72" t="s">
         <v>1661</v>
       </c>
-      <c r="E79" s="77"/>
-      <c r="F79" s="77" t="s">
+      <c r="D79" s="88"/>
+      <c r="E79" s="88"/>
+      <c r="G79" s="77" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" ht="60">
+      <c r="L79" s="77"/>
+    </row>
+    <row r="80" spans="1:20" ht="60">
       <c r="A80" s="61" t="s">
         <v>888</v>
       </c>
@@ -12982,11 +14405,13 @@
       <c r="C80" s="72" t="s">
         <v>1659</v>
       </c>
-      <c r="L80" s="78" t="s">
+      <c r="D80" s="88"/>
+      <c r="E80" s="88"/>
+      <c r="M80" s="78" t="s">
         <v>1663</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="60">
+    <row r="81" spans="1:19" ht="60">
       <c r="A81" s="61" t="s">
         <v>889</v>
       </c>
@@ -12996,11 +14421,13 @@
       <c r="C81" s="72" t="s">
         <v>1657</v>
       </c>
-      <c r="Q81" s="77" t="s">
+      <c r="D81" s="88"/>
+      <c r="E81" s="88"/>
+      <c r="S81" s="77" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="60">
+    <row r="82" spans="1:19" ht="60">
       <c r="A82" s="61" t="s">
         <v>890</v>
       </c>
@@ -13010,8 +14437,10 @@
       <c r="C82" s="72" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" ht="60">
+      <c r="D82" s="88"/>
+      <c r="E82" s="88"/>
+    </row>
+    <row r="83" spans="1:19" ht="60">
       <c r="A83" s="61" t="s">
         <v>891</v>
       </c>
@@ -13021,11 +14450,13 @@
       <c r="C83" s="72" t="s">
         <v>1673</v>
       </c>
-      <c r="I83" s="77" t="s">
+      <c r="D83" s="88"/>
+      <c r="E83" s="88"/>
+      <c r="J83" s="77" t="s">
         <v>1674</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="75">
+    <row r="84" spans="1:19" ht="75">
       <c r="A84" s="61" t="s">
         <v>892</v>
       </c>
@@ -13035,11 +14466,13 @@
       <c r="C84" s="72" t="s">
         <v>1672</v>
       </c>
-      <c r="I84" s="77" t="s">
+      <c r="D84" s="88"/>
+      <c r="E84" s="88"/>
+      <c r="J84" s="77" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="60">
+    <row r="85" spans="1:19" ht="60">
       <c r="A85" s="62" t="s">
         <v>893</v>
       </c>
@@ -13049,15 +14482,17 @@
       <c r="C85" s="72" t="s">
         <v>1678</v>
       </c>
-      <c r="E85" s="78"/>
-      <c r="F85" s="78" t="s">
+      <c r="D85" s="88"/>
+      <c r="E85" s="88"/>
+      <c r="G85" s="78" t="s">
         <v>1669</v>
       </c>
-      <c r="I85" s="77" t="s">
+      <c r="J85" s="77" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" ht="60">
+      <c r="L85" s="78"/>
+    </row>
+    <row r="86" spans="1:19" ht="60">
       <c r="A86" s="61" t="s">
         <v>887</v>
       </c>
@@ -13067,12 +14502,14 @@
       <c r="C86" s="72" t="s">
         <v>1670</v>
       </c>
-      <c r="M86" s="77"/>
-      <c r="P86" s="77" t="s">
+      <c r="D86" s="88"/>
+      <c r="E86" s="88"/>
+      <c r="N86" s="77"/>
+      <c r="R86" s="77" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="60">
+    <row r="87" spans="1:19" ht="60">
       <c r="A87" s="61" t="s">
         <v>888</v>
       </c>
@@ -13082,11 +14519,13 @@
       <c r="C87" s="72" t="s">
         <v>1680</v>
       </c>
-      <c r="I87" s="78" t="s">
+      <c r="D87" s="88"/>
+      <c r="E87" s="88"/>
+      <c r="J87" s="78" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="75">
+    <row r="88" spans="1:19" ht="75">
       <c r="A88" s="61" t="s">
         <v>889</v>
       </c>
@@ -13096,11 +14535,13 @@
       <c r="C88" s="72" t="s">
         <v>1666</v>
       </c>
-      <c r="Q88" s="77" t="s">
+      <c r="D88" s="88"/>
+      <c r="E88" s="88"/>
+      <c r="S88" s="77" t="s">
         <v>1676</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="60">
+    <row r="89" spans="1:19" ht="60">
       <c r="A89" s="61" t="s">
         <v>890</v>
       </c>
@@ -13110,11 +14551,13 @@
       <c r="C89" s="72" t="s">
         <v>1667</v>
       </c>
-      <c r="L89" s="78" t="s">
+      <c r="D89" s="88"/>
+      <c r="E89" s="88"/>
+      <c r="M89" s="78" t="s">
         <v>1677</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="60">
+    <row r="90" spans="1:19" ht="60">
       <c r="A90" s="61" t="s">
         <v>891</v>
       </c>
@@ -13124,11 +14567,13 @@
       <c r="C90" s="72" t="s">
         <v>1686</v>
       </c>
-      <c r="I90" s="77" t="s">
+      <c r="D90" s="88"/>
+      <c r="E90" s="88"/>
+      <c r="J90" s="77" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="75">
+    <row r="91" spans="1:19" ht="75">
       <c r="A91" s="61" t="s">
         <v>892</v>
       </c>
@@ -13138,11 +14583,13 @@
       <c r="C91" s="72" t="s">
         <v>1695</v>
       </c>
-      <c r="I91" s="77" t="s">
+      <c r="D91" s="88"/>
+      <c r="E91" s="88"/>
+      <c r="J91" s="77" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="60">
+    <row r="92" spans="1:19" ht="60">
       <c r="A92" s="62" t="s">
         <v>893</v>
       </c>
@@ -13152,11 +14599,13 @@
       <c r="C92" s="72" t="s">
         <v>1668</v>
       </c>
-      <c r="O92" s="77" t="s">
+      <c r="D92" s="88"/>
+      <c r="E92" s="88"/>
+      <c r="Q92" s="77" t="s">
         <v>1683</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="75">
+    <row r="93" spans="1:19" ht="75">
       <c r="A93" s="61" t="s">
         <v>887</v>
       </c>
@@ -13166,12 +14615,14 @@
       <c r="C93" s="72" t="s">
         <v>1682</v>
       </c>
-      <c r="M93" s="77"/>
-      <c r="P93" s="77" t="s">
+      <c r="D93" s="88"/>
+      <c r="E93" s="88"/>
+      <c r="N93" s="77"/>
+      <c r="R93" s="77" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="75">
+    <row r="94" spans="1:19" ht="75">
       <c r="A94" s="61" t="s">
         <v>888</v>
       </c>
@@ -13181,15 +14632,17 @@
       <c r="C94" s="72" t="s">
         <v>1684</v>
       </c>
-      <c r="E94" s="78"/>
-      <c r="F94" s="78" t="s">
+      <c r="D94" s="88"/>
+      <c r="E94" s="88"/>
+      <c r="G94" s="78" t="s">
         <v>1687</v>
       </c>
-      <c r="I94" s="74" t="s">
+      <c r="J94" s="74" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" ht="75">
+      <c r="L94" s="78"/>
+    </row>
+    <row r="95" spans="1:19" ht="75">
       <c r="A95" s="61" t="s">
         <v>889</v>
       </c>
@@ -13199,13 +14652,15 @@
       <c r="C95" s="72" t="s">
         <v>1688</v>
       </c>
-      <c r="G95" s="77"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
       <c r="H95" s="77"/>
-      <c r="J95" s="77" t="s">
+      <c r="I95" s="77"/>
+      <c r="K95" s="77" t="s">
         <v>1693</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="75">
+    <row r="96" spans="1:19" ht="75">
       <c r="A96" s="61" t="s">
         <v>890</v>
       </c>
@@ -13215,11 +14670,13 @@
       <c r="C96" s="72" t="s">
         <v>1689</v>
       </c>
-      <c r="Q96" s="78" t="s">
+      <c r="D96" s="88"/>
+      <c r="E96" s="88"/>
+      <c r="S96" s="78" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="60">
+    <row r="97" spans="1:18" ht="60">
       <c r="A97" s="61" t="s">
         <v>891</v>
       </c>
@@ -13229,11 +14686,13 @@
       <c r="C97" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="I97" s="77" t="s">
+      <c r="D97" s="88"/>
+      <c r="E97" s="88"/>
+      <c r="J97" s="77" t="s">
         <v>1704</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="60">
+    <row r="98" spans="1:18" ht="60">
       <c r="A98" s="61" t="s">
         <v>892</v>
       </c>
@@ -13243,11 +14702,13 @@
       <c r="C98" s="72" t="s">
         <v>1691</v>
       </c>
-      <c r="O98" s="77" t="s">
+      <c r="D98" s="88"/>
+      <c r="E98" s="88"/>
+      <c r="Q98" s="77" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="45">
+    <row r="99" spans="1:18" ht="45">
       <c r="A99" s="62" t="s">
         <v>893</v>
       </c>
@@ -13257,11 +14718,13 @@
       <c r="C99" s="72" t="s">
         <v>1708</v>
       </c>
-      <c r="I99" s="77" t="s">
+      <c r="D99" s="88"/>
+      <c r="E99" s="88"/>
+      <c r="J99" s="77" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="60">
+    <row r="100" spans="1:18" ht="60">
       <c r="A100" s="61" t="s">
         <v>887</v>
       </c>
@@ -13271,11 +14734,13 @@
       <c r="C100" s="72" t="s">
         <v>1709</v>
       </c>
-      <c r="I100" s="77" t="s">
+      <c r="D100" s="88"/>
+      <c r="E100" s="88"/>
+      <c r="J100" s="77" t="s">
         <v>1710</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="75">
+    <row r="101" spans="1:18" ht="75">
       <c r="A101" s="61" t="s">
         <v>888</v>
       </c>
@@ -13285,12 +14750,14 @@
       <c r="C101" s="72" t="s">
         <v>1698</v>
       </c>
-      <c r="M101" s="77"/>
-      <c r="P101" s="77" t="s">
+      <c r="D101" s="88"/>
+      <c r="E101" s="88"/>
+      <c r="N101" s="77"/>
+      <c r="R101" s="77" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="60">
+    <row r="102" spans="1:18" ht="60">
       <c r="A102" s="61" t="s">
         <v>889</v>
       </c>
@@ -13300,13 +14767,15 @@
       <c r="C102" s="72" t="s">
         <v>1699</v>
       </c>
-      <c r="G102" s="77"/>
+      <c r="D102" s="88"/>
+      <c r="E102" s="88"/>
       <c r="H102" s="77"/>
-      <c r="J102" s="77" t="s">
+      <c r="I102" s="77"/>
+      <c r="K102" s="77" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="60">
+    <row r="103" spans="1:18" ht="60">
       <c r="A103" s="61" t="s">
         <v>890</v>
       </c>
@@ -13316,11 +14785,13 @@
       <c r="C103" s="72" t="s">
         <v>1700</v>
       </c>
-      <c r="I103" s="78" t="s">
+      <c r="D103" s="88"/>
+      <c r="E103" s="88"/>
+      <c r="J103" s="78" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="60">
+    <row r="104" spans="1:18" ht="60">
       <c r="A104" s="61" t="s">
         <v>891</v>
       </c>
@@ -13330,11 +14801,13 @@
       <c r="C104" s="72" t="s">
         <v>1701</v>
       </c>
-      <c r="L104" s="77" t="s">
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="M104" s="77" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="75">
+    <row r="105" spans="1:18" ht="75">
       <c r="A105" s="61" t="s">
         <v>892</v>
       </c>
@@ -13344,11 +14817,13 @@
       <c r="C105" s="72" t="s">
         <v>1728</v>
       </c>
-      <c r="I105" s="78" t="s">
+      <c r="D105" s="88"/>
+      <c r="E105" s="88"/>
+      <c r="J105" s="78" t="s">
         <v>1716</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="60">
+    <row r="106" spans="1:18" ht="60">
       <c r="A106" s="62" t="s">
         <v>893</v>
       </c>
@@ -13358,11 +14833,13 @@
       <c r="C106" s="72" t="s">
         <v>1702</v>
       </c>
-      <c r="I106" s="77" t="s">
+      <c r="D106" s="88"/>
+      <c r="E106" s="88"/>
+      <c r="J106" s="77" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="90">
+    <row r="107" spans="1:18" ht="90">
       <c r="A107" s="61" t="s">
         <v>887</v>
       </c>
@@ -13372,12 +14849,14 @@
       <c r="C107" s="72" t="s">
         <v>1711</v>
       </c>
-      <c r="M107" s="78"/>
-      <c r="P107" s="78" t="s">
+      <c r="D107" s="88"/>
+      <c r="E107" s="88"/>
+      <c r="N107" s="78"/>
+      <c r="R107" s="78" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="75">
+    <row r="108" spans="1:18" ht="75">
       <c r="A108" s="61" t="s">
         <v>888</v>
       </c>
@@ -13387,11 +14866,13 @@
       <c r="C108" s="72" t="s">
         <v>1712</v>
       </c>
-      <c r="O108" s="77" t="s">
+      <c r="D108" s="88"/>
+      <c r="E108" s="88"/>
+      <c r="Q108" s="77" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="60">
+    <row r="109" spans="1:18" ht="60">
       <c r="A109" s="61" t="s">
         <v>889</v>
       </c>
@@ -13401,13 +14882,15 @@
       <c r="C109" s="72" t="s">
         <v>1713</v>
       </c>
-      <c r="G109" s="78"/>
+      <c r="D109" s="88"/>
+      <c r="E109" s="88"/>
       <c r="H109" s="78"/>
-      <c r="J109" s="78" t="s">
+      <c r="I109" s="78"/>
+      <c r="K109" s="78" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="60">
+    <row r="110" spans="1:18" ht="60">
       <c r="A110" s="61" t="s">
         <v>890</v>
       </c>
@@ -13417,11 +14900,13 @@
       <c r="C110" s="72" t="s">
         <v>1714</v>
       </c>
-      <c r="E110" s="77" t="s">
+      <c r="D110" s="88"/>
+      <c r="E110" s="88"/>
+      <c r="L110" s="77" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="60">
+    <row r="111" spans="1:18" ht="60">
       <c r="A111" s="61" t="s">
         <v>891</v>
       </c>
@@ -13431,11 +14916,13 @@
       <c r="C111" s="72" t="s">
         <v>1715</v>
       </c>
-      <c r="I111" s="77" t="s">
+      <c r="D111" s="88"/>
+      <c r="E111" s="88"/>
+      <c r="J111" s="77" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="90">
+    <row r="112" spans="1:18" ht="90">
       <c r="A112" s="61" t="s">
         <v>892</v>
       </c>
@@ -13445,14 +14932,16 @@
       <c r="C112" s="72" t="s">
         <v>1730</v>
       </c>
-      <c r="E112" s="77" t="s">
+      <c r="D112" s="88"/>
+      <c r="E112" s="88"/>
+      <c r="L112" s="77" t="s">
         <v>1731</v>
       </c>
-      <c r="L112" s="78" t="s">
+      <c r="M112" s="78" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="75">
+    <row r="113" spans="1:19" ht="75">
       <c r="A113" s="62" t="s">
         <v>893</v>
       </c>
@@ -13462,11 +14951,13 @@
       <c r="C113" s="72" t="s">
         <v>1722</v>
       </c>
-      <c r="I113" s="78" t="s">
+      <c r="D113" s="88"/>
+      <c r="E113" s="88"/>
+      <c r="J113" s="78" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="75">
+    <row r="114" spans="1:19" ht="75">
       <c r="A114" s="61" t="s">
         <v>887</v>
       </c>
@@ -13476,12 +14967,14 @@
       <c r="C114" s="72" t="s">
         <v>1723</v>
       </c>
-      <c r="M114" s="77"/>
-      <c r="P114" s="77" t="s">
+      <c r="D114" s="88"/>
+      <c r="E114" s="88"/>
+      <c r="N114" s="77"/>
+      <c r="R114" s="77" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="60">
+    <row r="115" spans="1:19" ht="60">
       <c r="A115" s="61" t="s">
         <v>888</v>
       </c>
@@ -13491,11 +14984,13 @@
       <c r="C115" s="72" t="s">
         <v>1724</v>
       </c>
-      <c r="O115" s="77" t="s">
+      <c r="D115" s="88"/>
+      <c r="E115" s="88"/>
+      <c r="Q115" s="77" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="60">
+    <row r="116" spans="1:19" ht="60">
       <c r="A116" s="61" t="s">
         <v>889</v>
       </c>
@@ -13505,11 +15000,13 @@
       <c r="C116" s="72" t="s">
         <v>1738</v>
       </c>
-      <c r="Q116" s="78" t="s">
+      <c r="D116" s="88"/>
+      <c r="E116" s="88"/>
+      <c r="S116" s="78" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="75">
+    <row r="117" spans="1:19" ht="75">
       <c r="A117" s="61" t="s">
         <v>890</v>
       </c>
@@ -13519,11 +15016,13 @@
       <c r="C117" s="72" t="s">
         <v>1741</v>
       </c>
-      <c r="I117" s="77" t="s">
+      <c r="D117" s="88"/>
+      <c r="E117" s="88"/>
+      <c r="J117" s="77" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="60">
+    <row r="118" spans="1:19" ht="60">
       <c r="A118" s="61" t="s">
         <v>891</v>
       </c>
@@ -13533,11 +15032,13 @@
       <c r="C118" s="72" t="s">
         <v>1740</v>
       </c>
-      <c r="E118" s="77" t="s">
+      <c r="D118" s="88"/>
+      <c r="E118" s="88"/>
+      <c r="L118" s="77" t="s">
         <v>1748</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="60">
+    <row r="119" spans="1:19" ht="60">
       <c r="A119" s="61" t="s">
         <v>892</v>
       </c>
@@ -13547,11 +15048,13 @@
       <c r="C119" s="72" t="s">
         <v>1725</v>
       </c>
-      <c r="I119" s="78" t="s">
+      <c r="D119" s="88"/>
+      <c r="E119" s="88"/>
+      <c r="J119" s="78" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="75">
+    <row r="120" spans="1:19" ht="75">
       <c r="A120" s="62" t="s">
         <v>893</v>
       </c>
@@ -13561,13 +15064,15 @@
       <c r="C120" s="72" t="s">
         <v>1726</v>
       </c>
-      <c r="G120" s="77"/>
+      <c r="D120" s="88"/>
+      <c r="E120" s="88"/>
       <c r="H120" s="77"/>
-      <c r="J120" s="77" t="s">
+      <c r="I120" s="77"/>
+      <c r="K120" s="77" t="s">
         <v>1749</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="75">
+    <row r="121" spans="1:19" ht="75">
       <c r="A121" s="61" t="s">
         <v>887</v>
       </c>
@@ -13577,11 +15082,13 @@
       <c r="C121" s="72" t="s">
         <v>1727</v>
       </c>
-      <c r="L121" s="78" t="s">
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="M121" s="78" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="75">
+    <row r="122" spans="1:19" ht="75">
       <c r="A122" s="61" t="s">
         <v>888</v>
       </c>
@@ -13591,12 +15098,14 @@
       <c r="C122" s="72" t="s">
         <v>1742</v>
       </c>
-      <c r="M122" s="77"/>
-      <c r="P122" s="77" t="s">
+      <c r="D122" s="88"/>
+      <c r="E122" s="88"/>
+      <c r="N122" s="77"/>
+      <c r="R122" s="77" t="s">
         <v>1752</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="90">
+    <row r="123" spans="1:19" ht="90">
       <c r="A123" s="61" t="s">
         <v>889</v>
       </c>
@@ -13606,11 +15115,13 @@
       <c r="C123" s="72" t="s">
         <v>1743</v>
       </c>
-      <c r="O123" s="77" t="s">
+      <c r="D123" s="88"/>
+      <c r="E123" s="88"/>
+      <c r="Q123" s="77" t="s">
         <v>1753</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="75">
+    <row r="124" spans="1:19" ht="75">
       <c r="A124" s="61" t="s">
         <v>890</v>
       </c>
@@ -13620,11 +15131,13 @@
       <c r="C124" s="72" t="s">
         <v>1744</v>
       </c>
-      <c r="E124" s="77" t="s">
+      <c r="D124" s="88"/>
+      <c r="E124" s="88"/>
+      <c r="L124" s="77" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="60">
+    <row r="125" spans="1:19" ht="60">
       <c r="A125" s="61" t="s">
         <v>891</v>
       </c>
@@ -13634,11 +15147,13 @@
       <c r="C125" s="72" t="s">
         <v>1745</v>
       </c>
-      <c r="I125" s="78" t="s">
+      <c r="D125" s="88"/>
+      <c r="E125" s="88"/>
+      <c r="J125" s="78" t="s">
         <v>1755</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="60">
+    <row r="126" spans="1:19" ht="60">
       <c r="A126" s="61" t="s">
         <v>892</v>
       </c>
@@ -13648,11 +15163,13 @@
       <c r="C126" s="72" t="s">
         <v>1746</v>
       </c>
-      <c r="J126" s="77" t="s">
+      <c r="D126" s="88"/>
+      <c r="E126" s="88"/>
+      <c r="K126" s="77" t="s">
         <v>1757</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="75">
+    <row r="127" spans="1:19" ht="75">
       <c r="A127" s="62" t="s">
         <v>893</v>
       </c>
@@ -13662,11 +15179,13 @@
       <c r="C127" s="72" t="s">
         <v>1747</v>
       </c>
-      <c r="I127" s="78" t="s">
+      <c r="D127" s="88"/>
+      <c r="E127" s="88"/>
+      <c r="J127" s="78" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="75">
+    <row r="128" spans="1:19" ht="75">
       <c r="A128" s="61" t="s">
         <v>887</v>
       </c>
@@ -13676,11 +15195,13 @@
       <c r="C128" s="72" t="s">
         <v>1758</v>
       </c>
-      <c r="P128" s="78" t="s">
+      <c r="D128" s="88"/>
+      <c r="E128" s="88"/>
+      <c r="R128" s="78" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="60">
+    <row r="129" spans="1:17" ht="60">
       <c r="A129" s="61" t="s">
         <v>888</v>
       </c>
@@ -13690,11 +15211,13 @@
       <c r="C129" s="72" t="s">
         <v>1759</v>
       </c>
-      <c r="O129" s="77" t="s">
+      <c r="D129" s="88"/>
+      <c r="E129" s="88"/>
+      <c r="Q129" s="77" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="90">
+    <row r="130" spans="1:17" ht="90">
       <c r="A130" s="61" t="s">
         <v>889</v>
       </c>
@@ -13704,11 +15227,13 @@
       <c r="C130" s="72" t="s">
         <v>1766</v>
       </c>
-      <c r="E130" s="77" t="s">
+      <c r="D130" s="88"/>
+      <c r="E130" s="88"/>
+      <c r="L130" s="77" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="60">
+    <row r="131" spans="1:17" ht="60">
       <c r="A131" s="61" t="s">
         <v>890</v>
       </c>
@@ -13718,11 +15243,13 @@
       <c r="C131" s="72" t="s">
         <v>1760</v>
       </c>
-      <c r="I131" s="78" t="s">
+      <c r="D131" s="88"/>
+      <c r="E131" s="88"/>
+      <c r="J131" s="78" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="75">
+    <row r="132" spans="1:17" ht="75">
       <c r="A132" s="61" t="s">
         <v>891</v>
       </c>
@@ -13732,11 +15259,13 @@
       <c r="C132" s="72" t="s">
         <v>1770</v>
       </c>
-      <c r="M132" s="77" t="s">
+      <c r="D132" s="88"/>
+      <c r="E132" s="88"/>
+      <c r="N132" s="77" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="90">
+    <row r="133" spans="1:17" ht="90">
       <c r="A133" s="61" t="s">
         <v>892</v>
       </c>
@@ -13746,11 +15275,13 @@
       <c r="C133" s="72" t="s">
         <v>1761</v>
       </c>
-      <c r="L133" s="77" t="s">
+      <c r="D133" s="88"/>
+      <c r="E133" s="88"/>
+      <c r="M133" s="77" t="s">
         <v>1772</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="75">
+    <row r="134" spans="1:17" ht="75">
       <c r="A134" s="62" t="s">
         <v>893</v>
       </c>
@@ -13760,11 +15291,13 @@
       <c r="C134" s="72" t="s">
         <v>1762</v>
       </c>
-      <c r="J134" s="77" t="s">
+      <c r="D134" s="88"/>
+      <c r="E134" s="88"/>
+      <c r="K134" s="77" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="60">
+    <row r="135" spans="1:17" ht="60">
       <c r="A135" s="61" t="s">
         <v>887</v>
       </c>
@@ -13774,11 +15307,13 @@
       <c r="C135" s="72" t="s">
         <v>1774</v>
       </c>
-      <c r="I135" s="77" t="s">
+      <c r="D135" s="88"/>
+      <c r="E135" s="88"/>
+      <c r="J135" s="77" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="60">
+    <row r="136" spans="1:17" ht="60">
       <c r="A136" s="61" t="s">
         <v>888</v>
       </c>
@@ -13788,11 +15323,13 @@
       <c r="C136" s="72" t="s">
         <v>1775</v>
       </c>
-      <c r="G136" s="77" t="s">
+      <c r="D136" s="88"/>
+      <c r="E136" s="88"/>
+      <c r="H136" s="77" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="60">
+    <row r="137" spans="1:17" ht="60">
       <c r="A137" s="61" t="s">
         <v>889</v>
       </c>
@@ -13802,11 +15339,13 @@
       <c r="C137" s="72" t="s">
         <v>1776</v>
       </c>
-      <c r="E137" s="77" t="s">
+      <c r="D137" s="88"/>
+      <c r="E137" s="88"/>
+      <c r="L137" s="77" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="75">
+    <row r="138" spans="1:17" ht="75">
       <c r="A138" s="61" t="s">
         <v>890</v>
       </c>
@@ -13816,11 +15355,13 @@
       <c r="C138" s="72" t="s">
         <v>1777</v>
       </c>
-      <c r="H138" s="77" t="s">
+      <c r="D138" s="88"/>
+      <c r="E138" s="88"/>
+      <c r="I138" s="77" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="60">
+    <row r="139" spans="1:17" ht="60">
       <c r="A139" s="61" t="s">
         <v>891</v>
       </c>
@@ -13830,11 +15371,13 @@
       <c r="C139" s="72" t="s">
         <v>1783</v>
       </c>
-      <c r="O139" s="78" t="s">
+      <c r="D139" s="88"/>
+      <c r="E139" s="88"/>
+      <c r="Q139" s="78" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="75">
+    <row r="140" spans="1:17" ht="75">
       <c r="A140" s="61" t="s">
         <v>892</v>
       </c>
@@ -13844,11 +15387,13 @@
       <c r="C140" s="72" t="s">
         <v>1784</v>
       </c>
-      <c r="M140" s="77" t="s">
+      <c r="D140" s="88"/>
+      <c r="E140" s="88"/>
+      <c r="N140" s="77" t="s">
         <v>1789</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="90">
+    <row r="141" spans="1:17" ht="90">
       <c r="A141" s="62" t="s">
         <v>893</v>
       </c>
@@ -13858,11 +15403,13 @@
       <c r="C141" s="72" t="s">
         <v>1785</v>
       </c>
-      <c r="L141" s="77" t="s">
+      <c r="D141" s="88"/>
+      <c r="E141" s="88"/>
+      <c r="M141" s="77" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="90">
+    <row r="142" spans="1:17" ht="90">
       <c r="A142" s="61" t="s">
         <v>887</v>
       </c>
@@ -13872,11 +15419,13 @@
       <c r="C142" s="72" t="s">
         <v>1786</v>
       </c>
-      <c r="J142" s="78" t="s">
+      <c r="D142" s="88"/>
+      <c r="E142" s="88"/>
+      <c r="K142" s="78" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="60">
+    <row r="143" spans="1:17" ht="60">
       <c r="A143" s="61" t="s">
         <v>888</v>
       </c>
@@ -13886,11 +15435,13 @@
       <c r="C143" s="72" t="s">
         <v>1790</v>
       </c>
-      <c r="G143" s="77" t="s">
+      <c r="D143" s="88"/>
+      <c r="E143" s="88"/>
+      <c r="H143" s="77" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="60">
+    <row r="144" spans="1:17" ht="60">
       <c r="A144" s="61" t="s">
         <v>889</v>
       </c>
@@ -13900,11 +15451,13 @@
       <c r="C144" s="72" t="s">
         <v>1791</v>
       </c>
-      <c r="H144" s="77" t="s">
+      <c r="D144" s="88"/>
+      <c r="E144" s="88"/>
+      <c r="I144" s="77" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="60">
+    <row r="145" spans="1:15" ht="60">
       <c r="A145" s="61" t="s">
         <v>890</v>
       </c>
@@ -13914,11 +15467,13 @@
       <c r="C145" s="72" t="s">
         <v>1792</v>
       </c>
-      <c r="E145" s="77" t="s">
+      <c r="D145" s="88"/>
+      <c r="E145" s="88"/>
+      <c r="L145" s="77" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="60">
+    <row r="146" spans="1:15" ht="60">
       <c r="A146" s="61" t="s">
         <v>891</v>
       </c>
@@ -13928,11 +15483,13 @@
       <c r="C146" s="72" t="s">
         <v>1799</v>
       </c>
-      <c r="I146" s="78" t="s">
+      <c r="D146" s="88"/>
+      <c r="E146" s="88"/>
+      <c r="J146" s="78" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="60">
+    <row r="147" spans="1:15" ht="60">
       <c r="A147" s="61" t="s">
         <v>892</v>
       </c>
@@ -13942,11 +15499,13 @@
       <c r="C147" s="72" t="s">
         <v>1800</v>
       </c>
-      <c r="M147" s="77" t="s">
+      <c r="D147" s="88"/>
+      <c r="E147" s="88"/>
+      <c r="N147" s="77" t="s">
         <v>1801</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="75">
+    <row r="148" spans="1:15" ht="75">
       <c r="A148" s="62" t="s">
         <v>893</v>
       </c>
@@ -13956,11 +15515,13 @@
       <c r="C148" s="72" t="s">
         <v>1793</v>
       </c>
-      <c r="L148" s="77" t="s">
+      <c r="D148" s="88"/>
+      <c r="E148" s="88"/>
+      <c r="M148" s="77" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="60">
+    <row r="149" spans="1:15" ht="60">
       <c r="A149" s="61" t="s">
         <v>887</v>
       </c>
@@ -13970,11 +15531,13 @@
       <c r="C149" s="72" t="s">
         <v>1810</v>
       </c>
-      <c r="J149" s="78" t="s">
+      <c r="D149" s="88"/>
+      <c r="E149" s="88"/>
+      <c r="K149" s="78" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="75">
+    <row r="150" spans="1:15" ht="75">
       <c r="A150" s="61" t="s">
         <v>888</v>
       </c>
@@ -13984,11 +15547,13 @@
       <c r="C150" s="72" t="s">
         <v>1802</v>
       </c>
-      <c r="G150" s="77" t="s">
+      <c r="D150" s="88"/>
+      <c r="E150" s="88"/>
+      <c r="H150" s="77" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="60">
+    <row r="151" spans="1:15" ht="60">
       <c r="A151" s="61" t="s">
         <v>889</v>
       </c>
@@ -13998,11 +15563,13 @@
       <c r="C151" s="72" t="s">
         <v>1803</v>
       </c>
-      <c r="H151" s="77" t="s">
+      <c r="D151" s="88"/>
+      <c r="E151" s="88"/>
+      <c r="I151" s="77" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="75">
+    <row r="152" spans="1:15" ht="75">
       <c r="A152" s="61" t="s">
         <v>890</v>
       </c>
@@ -14012,11 +15579,13 @@
       <c r="C152" s="72" t="s">
         <v>1804</v>
       </c>
-      <c r="E152" s="77" t="s">
+      <c r="D152" s="88"/>
+      <c r="E152" s="88"/>
+      <c r="L152" s="77" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="60">
+    <row r="153" spans="1:15" ht="60">
       <c r="A153" s="61" t="s">
         <v>891</v>
       </c>
@@ -14026,11 +15595,13 @@
       <c r="C153" s="72" t="s">
         <v>1816</v>
       </c>
-      <c r="I153" s="78" t="s">
+      <c r="D153" s="88"/>
+      <c r="E153" s="88"/>
+      <c r="J153" s="78" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="75">
+    <row r="154" spans="1:15" ht="75">
       <c r="A154" s="61" t="s">
         <v>892</v>
       </c>
@@ -14040,11 +15611,13 @@
       <c r="C154" s="72" t="s">
         <v>1805</v>
       </c>
-      <c r="M154" s="83" t="s">
+      <c r="D154" s="88"/>
+      <c r="E154" s="88"/>
+      <c r="N154" s="83" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="60">
+    <row r="155" spans="1:15" ht="60">
       <c r="A155" s="62" t="s">
         <v>893</v>
       </c>
@@ -14054,12 +15627,14 @@
       <c r="C155" s="72" t="s">
         <v>1819</v>
       </c>
-      <c r="D155" s="87"/>
-      <c r="K155" s="83" t="s">
+      <c r="D155" s="88"/>
+      <c r="E155" s="88"/>
+      <c r="F155" s="87"/>
+      <c r="O155" s="83" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="60">
+    <row r="156" spans="1:15" ht="60">
       <c r="A156" s="61" t="s">
         <v>887</v>
       </c>
@@ -14069,11 +15644,13 @@
       <c r="C156" s="72" t="s">
         <v>1806</v>
       </c>
-      <c r="L156" s="77" t="s">
+      <c r="D156" s="88"/>
+      <c r="E156" s="88"/>
+      <c r="M156" s="77" t="s">
         <v>1821</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="60">
+    <row r="157" spans="1:15" ht="60">
       <c r="A157" s="61" t="s">
         <v>888</v>
       </c>
@@ -14083,11 +15660,13 @@
       <c r="C157" s="72" t="s">
         <v>1807</v>
       </c>
-      <c r="G157" s="83" t="s">
+      <c r="D157" s="88"/>
+      <c r="E157" s="88"/>
+      <c r="H157" s="83" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="60">
+    <row r="158" spans="1:15" ht="60">
       <c r="A158" s="61" t="s">
         <v>889</v>
       </c>
@@ -14097,11 +15676,13 @@
       <c r="C158" s="72" t="s">
         <v>1823</v>
       </c>
-      <c r="J158" s="83" t="s">
+      <c r="D158" s="88"/>
+      <c r="E158" s="88"/>
+      <c r="K158" s="83" t="s">
         <v>1824</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="60">
+    <row r="159" spans="1:15" ht="60">
       <c r="A159" s="61" t="s">
         <v>890</v>
       </c>
@@ -14111,11 +15692,13 @@
       <c r="C159" s="72" t="s">
         <v>1830</v>
       </c>
-      <c r="H159" s="77" t="s">
+      <c r="D159" s="88"/>
+      <c r="E159" s="88"/>
+      <c r="I159" s="77" t="s">
         <v>1831</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="75">
+    <row r="160" spans="1:15" ht="75">
       <c r="A160" s="61" t="s">
         <v>891</v>
       </c>
@@ -14125,11 +15708,13 @@
       <c r="C160" s="72" t="s">
         <v>1825</v>
       </c>
-      <c r="E160" s="83" t="s">
+      <c r="D160" s="88"/>
+      <c r="E160" s="88"/>
+      <c r="L160" s="83" t="s">
         <v>1832</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="75">
+    <row r="161" spans="1:16" ht="75">
       <c r="A161" s="61" t="s">
         <v>892</v>
       </c>
@@ -14139,11 +15724,13 @@
       <c r="C161" s="72" t="s">
         <v>1826</v>
       </c>
-      <c r="M161" s="77" t="s">
+      <c r="D161" s="88"/>
+      <c r="E161" s="88"/>
+      <c r="N161" s="77" t="s">
         <v>1833</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="75">
+    <row r="162" spans="1:16" ht="75">
       <c r="A162" s="62" t="s">
         <v>893</v>
       </c>
@@ -14153,11 +15740,13 @@
       <c r="C162" s="72" t="s">
         <v>1827</v>
       </c>
-      <c r="J162" s="83" t="s">
+      <c r="D162" s="88"/>
+      <c r="E162" s="88"/>
+      <c r="K162" s="83" t="s">
         <v>1834</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="75">
+    <row r="163" spans="1:16" ht="75">
       <c r="A163" s="61" t="s">
         <v>887</v>
       </c>
@@ -14167,12 +15756,14 @@
       <c r="C163" s="72" t="s">
         <v>1828</v>
       </c>
-      <c r="D163" s="87"/>
-      <c r="K163" s="83" t="s">
+      <c r="D163" s="88"/>
+      <c r="E163" s="88"/>
+      <c r="F163" s="87"/>
+      <c r="O163" s="83" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="60">
+    <row r="164" spans="1:16" ht="60">
       <c r="A164" s="61" t="s">
         <v>888</v>
       </c>
@@ -14182,11 +15773,13 @@
       <c r="C164" s="72" t="s">
         <v>1829</v>
       </c>
-      <c r="L164" s="78" t="s">
+      <c r="D164" s="88"/>
+      <c r="E164" s="88"/>
+      <c r="M164" s="78" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="75">
+    <row r="165" spans="1:16" ht="75">
       <c r="A165" s="61" t="s">
         <v>889</v>
       </c>
@@ -14196,11 +15789,13 @@
       <c r="C165" s="72" t="s">
         <v>1835</v>
       </c>
-      <c r="G165" s="83" t="s">
+      <c r="D165" s="88"/>
+      <c r="E165" s="88"/>
+      <c r="H165" s="83" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="60">
+    <row r="166" spans="1:16" ht="60">
       <c r="A166" s="61" t="s">
         <v>890</v>
       </c>
@@ -14210,11 +15805,13 @@
       <c r="C166" s="72" t="s">
         <v>1836</v>
       </c>
-      <c r="N166" s="82" t="s">
+      <c r="D166" s="88"/>
+      <c r="E166" s="88"/>
+      <c r="P166" s="82" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="75">
+    <row r="167" spans="1:16" ht="75">
       <c r="A167" s="61" t="s">
         <v>891</v>
       </c>
@@ -14224,11 +15821,13 @@
       <c r="C167" s="72" t="s">
         <v>1837</v>
       </c>
-      <c r="I167" s="83" t="s">
+      <c r="D167" s="88"/>
+      <c r="E167" s="88"/>
+      <c r="J167" s="83" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="60">
+    <row r="168" spans="1:16" ht="60">
       <c r="A168" s="61" t="s">
         <v>892</v>
       </c>
@@ -14238,11 +15837,13 @@
       <c r="C168" s="72" t="s">
         <v>1838</v>
       </c>
-      <c r="E168" s="83" t="s">
+      <c r="D168" s="88"/>
+      <c r="E168" s="88"/>
+      <c r="L168" s="83" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="75">
+    <row r="169" spans="1:16" ht="75">
       <c r="A169" s="62" t="s">
         <v>893</v>
       </c>
@@ -14252,11 +15853,13 @@
       <c r="C169" s="72" t="s">
         <v>1839</v>
       </c>
-      <c r="H169" s="83" t="s">
+      <c r="D169" s="88"/>
+      <c r="E169" s="88"/>
+      <c r="I169" s="83" t="s">
         <v>1904</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="60">
+    <row r="170" spans="1:16" ht="60">
       <c r="A170" s="61" t="s">
         <v>887</v>
       </c>
@@ -14266,11 +15869,13 @@
       <c r="C170" s="72" t="s">
         <v>1840</v>
       </c>
-      <c r="J170" s="83" t="s">
+      <c r="D170" s="88"/>
+      <c r="E170" s="88"/>
+      <c r="K170" s="83" t="s">
         <v>1905</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="60">
+    <row r="171" spans="1:16" ht="60">
       <c r="A171" s="61" t="s">
         <v>888</v>
       </c>
@@ -14280,11 +15885,13 @@
       <c r="C171" s="72" t="s">
         <v>1897</v>
       </c>
-      <c r="M171" s="83" t="s">
+      <c r="D171" s="88"/>
+      <c r="E171" s="88"/>
+      <c r="N171" s="83" t="s">
         <v>1906</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="60">
+    <row r="172" spans="1:16" ht="60">
       <c r="A172" s="61" t="s">
         <v>889</v>
       </c>
@@ -14294,12 +15901,14 @@
       <c r="C172" s="72" t="s">
         <v>1898</v>
       </c>
-      <c r="D172" s="87"/>
-      <c r="K172" s="83" t="s">
+      <c r="D172" s="88"/>
+      <c r="E172" s="88"/>
+      <c r="F172" s="87"/>
+      <c r="O172" s="83" t="s">
         <v>1920</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="75">
+    <row r="173" spans="1:16" ht="75">
       <c r="A173" s="61" t="s">
         <v>890</v>
       </c>
@@ -14309,11 +15918,13 @@
       <c r="C173" s="72" t="s">
         <v>1899</v>
       </c>
-      <c r="G173" s="83" t="s">
+      <c r="D173" s="88"/>
+      <c r="E173" s="88"/>
+      <c r="H173" s="83" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="75">
+    <row r="174" spans="1:16" ht="75">
       <c r="A174" s="61" t="s">
         <v>891</v>
       </c>
@@ -14323,11 +15934,13 @@
       <c r="C174" s="72" t="s">
         <v>1924</v>
       </c>
-      <c r="I174" s="83" t="s">
+      <c r="D174" s="88"/>
+      <c r="E174" s="88"/>
+      <c r="J174" s="83" t="s">
         <v>1955</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="90">
+    <row r="175" spans="1:16" ht="90">
       <c r="A175" s="61" t="s">
         <v>892</v>
       </c>
@@ -14337,11 +15950,13 @@
       <c r="C175" s="72" t="s">
         <v>1900</v>
       </c>
-      <c r="E175" s="83" t="s">
+      <c r="D175" s="88"/>
+      <c r="E175" s="88"/>
+      <c r="L175" s="83" t="s">
         <v>1944</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="75">
+    <row r="176" spans="1:16" ht="75">
       <c r="A176" s="62" t="s">
         <v>893</v>
       </c>
@@ -14351,11 +15966,13 @@
       <c r="C176" s="72" t="s">
         <v>1901</v>
       </c>
-      <c r="H176" s="83" t="s">
+      <c r="D176" s="88"/>
+      <c r="E176" s="88"/>
+      <c r="I176" s="83" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="60">
+    <row r="177" spans="1:15" ht="60">
       <c r="A177" s="61" t="s">
         <v>887</v>
       </c>
@@ -14365,14 +15982,16 @@
       <c r="C177" s="72" t="s">
         <v>1922</v>
       </c>
-      <c r="D177" s="80" t="s">
+      <c r="D177" s="88"/>
+      <c r="E177" s="88"/>
+      <c r="F177" s="80" t="s">
         <v>1949</v>
       </c>
-      <c r="K177" s="83" t="s">
+      <c r="O177" s="83" t="s">
         <v>1947</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="75">
+    <row r="178" spans="1:15" ht="75">
       <c r="A178" s="61" t="s">
         <v>888</v>
       </c>
@@ -14382,11 +16001,13 @@
       <c r="C178" s="72" t="s">
         <v>1923</v>
       </c>
-      <c r="G178" s="83" t="s">
+      <c r="D178" s="88"/>
+      <c r="E178" s="88"/>
+      <c r="H178" s="83" t="s">
         <v>1956</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="90">
+    <row r="179" spans="1:15" ht="90">
       <c r="A179" s="61" t="s">
         <v>889</v>
       </c>
@@ -14396,14 +16017,16 @@
       <c r="C179" s="72" t="s">
         <v>1950</v>
       </c>
-      <c r="I179" s="77" t="s">
+      <c r="D179" s="88"/>
+      <c r="E179" s="88"/>
+      <c r="J179" s="77" t="s">
         <v>1954</v>
       </c>
-      <c r="J179" s="74" t="s">
+      <c r="K179" s="74" t="s">
         <v>1976</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="60">
+    <row r="180" spans="1:15" ht="60">
       <c r="A180" s="61" t="s">
         <v>890</v>
       </c>
@@ -14413,11 +16036,13 @@
       <c r="C180" s="72" t="s">
         <v>1951</v>
       </c>
-      <c r="F180" s="83" t="s">
+      <c r="D180" s="88"/>
+      <c r="E180" s="88"/>
+      <c r="G180" s="83" t="s">
         <v>1977</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="75">
+    <row r="181" spans="1:15" ht="75">
       <c r="A181" s="61" t="s">
         <v>891</v>
       </c>
@@ -14427,11 +16052,13 @@
       <c r="C181" s="72" t="s">
         <v>1952</v>
       </c>
-      <c r="I181" s="77" t="s">
+      <c r="D181" s="88"/>
+      <c r="E181" s="88"/>
+      <c r="J181" s="77" t="s">
         <v>1970</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="75">
+    <row r="182" spans="1:15" ht="75">
       <c r="A182" s="61" t="s">
         <v>892</v>
       </c>
@@ -14441,11 +16068,13 @@
       <c r="C182" s="72" t="s">
         <v>1953</v>
       </c>
-      <c r="D182" s="83" t="s">
+      <c r="D182" s="88"/>
+      <c r="E182" s="88"/>
+      <c r="F182" s="83" t="s">
         <v>1972</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="60">
+    <row r="183" spans="1:15" ht="60">
       <c r="A183" s="62" t="s">
         <v>893</v>
       </c>
@@ -14455,11 +16084,13 @@
       <c r="C183" s="72" t="s">
         <v>1967</v>
       </c>
-      <c r="E183" s="83" t="s">
+      <c r="D183" s="88"/>
+      <c r="E183" s="88"/>
+      <c r="L183" s="83" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="60">
+    <row r="184" spans="1:15" ht="60">
       <c r="A184" s="61" t="s">
         <v>887</v>
       </c>
@@ -14469,14 +16100,16 @@
       <c r="C184" s="72" t="s">
         <v>1968</v>
       </c>
-      <c r="H184" s="83" t="s">
+      <c r="D184" s="88"/>
+      <c r="E184" s="88"/>
+      <c r="I184" s="83" t="s">
         <v>1971</v>
       </c>
-      <c r="M184" s="74" t="s">
+      <c r="N184" s="74" t="s">
         <v>1975</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="75">
+    <row r="185" spans="1:15" ht="75">
       <c r="A185" s="61" t="s">
         <v>888</v>
       </c>
@@ -14486,11 +16119,13 @@
       <c r="C185" s="72" t="s">
         <v>1969</v>
       </c>
-      <c r="K185" s="77" t="s">
+      <c r="D185" s="88"/>
+      <c r="E185" s="88"/>
+      <c r="O185" s="77" t="s">
         <v>1978</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="90">
+    <row r="186" spans="1:15" ht="90">
       <c r="A186" s="61" t="s">
         <v>889</v>
       </c>
@@ -14500,11 +16135,13 @@
       <c r="C186" s="72" t="s">
         <v>1979</v>
       </c>
-      <c r="G186" s="83" t="s">
+      <c r="D186" s="88"/>
+      <c r="E186" s="88"/>
+      <c r="H186" s="83" t="s">
         <v>1986</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="60">
+    <row r="187" spans="1:15" ht="60">
       <c r="A187" s="61" t="s">
         <v>890</v>
       </c>
@@ -14514,11 +16151,13 @@
       <c r="C187" s="72" t="s">
         <v>1980</v>
       </c>
-      <c r="J187" s="83" t="s">
+      <c r="D187" s="88"/>
+      <c r="E187" s="88"/>
+      <c r="K187" s="83" t="s">
         <v>1987</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="60">
+    <row r="188" spans="1:15" ht="60">
       <c r="A188" s="61" t="s">
         <v>891</v>
       </c>
@@ -14528,11 +16167,13 @@
       <c r="C188" s="72" t="s">
         <v>1981</v>
       </c>
-      <c r="F188" s="83" t="s">
+      <c r="D188" s="88"/>
+      <c r="E188" s="88"/>
+      <c r="G188" s="83" t="s">
         <v>1988</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="60">
+    <row r="189" spans="1:15" ht="60">
       <c r="A189" s="61" t="s">
         <v>892</v>
       </c>
@@ -14542,14 +16183,16 @@
       <c r="C189" s="72" t="s">
         <v>1982</v>
       </c>
-      <c r="D189" s="83" t="s">
+      <c r="D189" s="88"/>
+      <c r="E189" s="88"/>
+      <c r="F189" s="83" t="s">
         <v>1989</v>
       </c>
-      <c r="L189" s="74" t="s">
+      <c r="M189" s="74" t="s">
         <v>1974</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="75">
+    <row r="190" spans="1:15" ht="75">
       <c r="A190" s="62" t="s">
         <v>893</v>
       </c>
@@ -14559,11 +16202,13 @@
       <c r="C190" s="72" t="s">
         <v>1983</v>
       </c>
-      <c r="E190" s="83" t="s">
+      <c r="D190" s="88"/>
+      <c r="E190" s="88"/>
+      <c r="L190" s="83" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="75">
+    <row r="191" spans="1:15" ht="75">
       <c r="A191" s="61" t="s">
         <v>887</v>
       </c>
@@ -14573,11 +16218,13 @@
       <c r="C191" s="72" t="s">
         <v>1984</v>
       </c>
-      <c r="I191" s="83" t="s">
+      <c r="D191" s="88"/>
+      <c r="E191" s="88"/>
+      <c r="J191" s="83" t="s">
         <v>2013</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="60">
+    <row r="192" spans="1:15" ht="60">
       <c r="A192" s="61" t="s">
         <v>888</v>
       </c>
@@ -14587,11 +16234,13 @@
       <c r="C192" s="72" t="s">
         <v>1985</v>
       </c>
-      <c r="H192" s="83" t="s">
+      <c r="D192" s="88"/>
+      <c r="E192" s="88"/>
+      <c r="I192" s="83" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="75">
+    <row r="193" spans="1:15" ht="75">
       <c r="A193" s="61" t="s">
         <v>889</v>
       </c>
@@ -14601,11 +16250,13 @@
       <c r="C193" s="72" t="s">
         <v>1990</v>
       </c>
-      <c r="G193" s="83" t="s">
+      <c r="D193" s="88"/>
+      <c r="E193" s="88"/>
+      <c r="H193" s="83" t="s">
         <v>1999</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="75">
+    <row r="194" spans="1:15" ht="75">
       <c r="A194" s="61" t="s">
         <v>890</v>
       </c>
@@ -14615,11 +16266,13 @@
       <c r="C194" s="72" t="s">
         <v>1991</v>
       </c>
-      <c r="J194" s="83" t="s">
+      <c r="D194" s="88"/>
+      <c r="E194" s="88"/>
+      <c r="K194" s="83" t="s">
         <v>2000</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="75">
+    <row r="195" spans="1:15" ht="75">
       <c r="A195" s="61" t="s">
         <v>891</v>
       </c>
@@ -14629,11 +16282,13 @@
       <c r="C195" s="72" t="s">
         <v>1992</v>
       </c>
-      <c r="K195" s="77" t="s">
+      <c r="D195" s="88"/>
+      <c r="E195" s="88"/>
+      <c r="O195" s="77" t="s">
         <v>2001</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="75">
+    <row r="196" spans="1:15" ht="75">
       <c r="A196" s="61" t="s">
         <v>892</v>
       </c>
@@ -14643,11 +16298,13 @@
       <c r="C196" s="72" t="s">
         <v>1993</v>
       </c>
-      <c r="D196" s="83" t="s">
+      <c r="D196" s="88"/>
+      <c r="E196" s="88"/>
+      <c r="F196" s="83" t="s">
         <v>2012</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="75">
+    <row r="197" spans="1:15" ht="75">
       <c r="A197" s="62" t="s">
         <v>893</v>
       </c>
@@ -14657,11 +16314,13 @@
       <c r="C197" s="72" t="s">
         <v>1994</v>
       </c>
-      <c r="F197" s="78" t="s">
+      <c r="D197" s="88"/>
+      <c r="E197" s="88"/>
+      <c r="G197" s="78" t="s">
         <v>2014</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="75">
+    <row r="198" spans="1:15" ht="75">
       <c r="A198" s="61" t="s">
         <v>887</v>
       </c>
@@ -14671,11 +16330,13 @@
       <c r="C198" s="72" t="s">
         <v>1995</v>
       </c>
-      <c r="E198" s="83" t="s">
+      <c r="D198" s="88"/>
+      <c r="E198" s="88"/>
+      <c r="L198" s="83" t="s">
         <v>2015</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="60">
+    <row r="199" spans="1:15" ht="60">
       <c r="A199" s="61" t="s">
         <v>888</v>
       </c>
@@ -14685,11 +16346,13 @@
       <c r="C199" s="72" t="s">
         <v>2016</v>
       </c>
-      <c r="H199" s="83" t="s">
+      <c r="D199" s="88"/>
+      <c r="E199" s="88"/>
+      <c r="I199" s="83" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="90">
+    <row r="200" spans="1:15" ht="90">
       <c r="A200" s="61" t="s">
         <v>889</v>
       </c>
@@ -14699,11 +16362,13 @@
       <c r="C200" s="72" t="s">
         <v>1996</v>
       </c>
-      <c r="I200" s="77" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" ht="75">
+      <c r="D200" s="88"/>
+      <c r="E200" s="88"/>
+      <c r="J200" s="77" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" ht="75">
       <c r="A201" s="61" t="s">
         <v>890</v>
       </c>
@@ -14711,13 +16376,15 @@
         <v>43405</v>
       </c>
       <c r="C201" s="72" t="s">
-        <v>2019</v>
-      </c>
-      <c r="G201" s="83" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" ht="60">
+        <v>2018</v>
+      </c>
+      <c r="D201" s="88"/>
+      <c r="E201" s="88"/>
+      <c r="H201" s="83" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="60">
       <c r="A202" s="61" t="s">
         <v>891</v>
       </c>
@@ -14725,13 +16392,15 @@
         <v>43406</v>
       </c>
       <c r="C202" s="72" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J202" s="83" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" ht="75">
+        <v>2019</v>
+      </c>
+      <c r="D202" s="88"/>
+      <c r="E202" s="88"/>
+      <c r="K202" s="83" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" ht="75">
       <c r="A203" s="61" t="s">
         <v>892</v>
       </c>
@@ -14739,16 +16408,18 @@
         <v>43407</v>
       </c>
       <c r="C203" s="72" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D203" s="83" t="s">
-        <v>2033</v>
-      </c>
-      <c r="K203" s="80" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D203" s="88"/>
+      <c r="E203" s="88"/>
+      <c r="F203" s="83" t="s">
         <v>2032</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" ht="60">
+      <c r="O203" s="80" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" ht="60">
       <c r="A204" s="62" t="s">
         <v>893</v>
       </c>
@@ -14756,13 +16427,15 @@
         <v>43408</v>
       </c>
       <c r="C204" s="72" t="s">
-        <v>2022</v>
-      </c>
-      <c r="F204" s="83" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" ht="75">
+        <v>2021</v>
+      </c>
+      <c r="D204" s="88"/>
+      <c r="E204" s="88"/>
+      <c r="G204" s="83" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" ht="75">
       <c r="A205" s="61" t="s">
         <v>887</v>
       </c>
@@ -14770,13 +16443,15 @@
         <v>43409</v>
       </c>
       <c r="C205" s="72" t="s">
-        <v>2023</v>
-      </c>
-      <c r="E205" s="83" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" ht="60">
+        <v>2022</v>
+      </c>
+      <c r="D205" s="88"/>
+      <c r="E205" s="88"/>
+      <c r="L205" s="83" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" ht="60">
       <c r="A206" s="61" t="s">
         <v>888</v>
       </c>
@@ -14784,13 +16459,15 @@
         <v>43410</v>
       </c>
       <c r="C206" s="72" t="s">
-        <v>2026</v>
-      </c>
-      <c r="H206" s="83" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" ht="75">
+        <v>2025</v>
+      </c>
+      <c r="D206" s="88"/>
+      <c r="E206" s="88"/>
+      <c r="I206" s="83" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" ht="75">
       <c r="A207" s="61" t="s">
         <v>889</v>
       </c>
@@ -14798,13 +16475,15 @@
         <v>43411</v>
       </c>
       <c r="C207" s="72" t="s">
-        <v>2027</v>
-      </c>
-      <c r="I207" s="77" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" ht="60">
+        <v>2026</v>
+      </c>
+      <c r="D207" s="88"/>
+      <c r="E207" s="88"/>
+      <c r="J207" s="77" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" ht="60">
       <c r="A208" s="61" t="s">
         <v>890</v>
       </c>
@@ -14812,13 +16491,15 @@
         <v>43412</v>
       </c>
       <c r="C208" s="72" t="s">
-        <v>2028</v>
-      </c>
-      <c r="G208" s="83" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="60">
+        <v>2027</v>
+      </c>
+      <c r="D208" s="88"/>
+      <c r="E208" s="88"/>
+      <c r="H208" s="83" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="60">
       <c r="A209" s="61" t="s">
         <v>891</v>
       </c>
@@ -14826,13 +16507,15 @@
         <v>43413</v>
       </c>
       <c r="C209" s="72" t="s">
-        <v>2029</v>
-      </c>
-      <c r="J209" s="82" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="60">
+        <v>2028</v>
+      </c>
+      <c r="D209" s="88"/>
+      <c r="E209" s="88"/>
+      <c r="K209" s="83" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="60">
       <c r="A210" s="61" t="s">
         <v>892</v>
       </c>
@@ -14840,13 +16523,15 @@
         <v>43414</v>
       </c>
       <c r="C210" s="72" t="s">
-        <v>2030</v>
-      </c>
-      <c r="D210" s="82" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="60">
+        <v>2029</v>
+      </c>
+      <c r="D210" s="88"/>
+      <c r="E210" s="88"/>
+      <c r="F210" s="83" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="60">
       <c r="A211" s="62" t="s">
         <v>893</v>
       </c>
@@ -14854,13 +16539,15 @@
         <v>43415</v>
       </c>
       <c r="C211" s="72" t="s">
-        <v>2031</v>
-      </c>
-      <c r="F211" s="78" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="90">
+        <v>2030</v>
+      </c>
+      <c r="D211" s="88"/>
+      <c r="E211" s="88"/>
+      <c r="G211" s="78" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="90">
       <c r="A212" s="61" t="s">
         <v>887</v>
       </c>
@@ -14868,13 +16555,15 @@
         <v>43416</v>
       </c>
       <c r="C212" s="72" t="s">
-        <v>2043</v>
-      </c>
-      <c r="E212" s="78" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="75">
+        <v>2042</v>
+      </c>
+      <c r="D212" s="88"/>
+      <c r="E212" s="88"/>
+      <c r="L212" s="77" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="75">
       <c r="A213" s="61" t="s">
         <v>888</v>
       </c>
@@ -14882,13 +16571,15 @@
         <v>43417</v>
       </c>
       <c r="C213" s="72" t="s">
-        <v>2044</v>
-      </c>
-      <c r="I213" s="78" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="90">
+        <v>2043</v>
+      </c>
+      <c r="D213" s="88"/>
+      <c r="E213" s="88"/>
+      <c r="J213" s="77" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="90">
       <c r="A214" s="61" t="s">
         <v>889</v>
       </c>
@@ -14896,13 +16587,15 @@
         <v>43418</v>
       </c>
       <c r="C214" s="72" t="s">
-        <v>2045</v>
-      </c>
-      <c r="H214" s="78" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="60">
+        <v>2260</v>
+      </c>
+      <c r="D214" s="88"/>
+      <c r="E214" s="88"/>
+      <c r="I214" s="83" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="60">
       <c r="A215" s="61" t="s">
         <v>890</v>
       </c>
@@ -14910,13 +16603,15 @@
         <v>43419</v>
       </c>
       <c r="C215" s="72" t="s">
-        <v>2046</v>
-      </c>
-      <c r="G215" s="78" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="60">
+        <v>2044</v>
+      </c>
+      <c r="D215" s="88"/>
+      <c r="E215" s="88"/>
+      <c r="H215" s="83" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="60">
       <c r="A216" s="61" t="s">
         <v>891</v>
       </c>
@@ -14924,13 +16619,15 @@
         <v>43420</v>
       </c>
       <c r="C216" s="72" t="s">
-        <v>2047</v>
-      </c>
-      <c r="J216" s="74" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="75">
+        <v>2080</v>
+      </c>
+      <c r="D216" s="88"/>
+      <c r="E216" s="88"/>
+      <c r="N216" s="78" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="75">
       <c r="A217" s="61" t="s">
         <v>892</v>
       </c>
@@ -14938,10 +16635,15 @@
         <v>43421</v>
       </c>
       <c r="C217" s="72" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="75">
+        <v>2061</v>
+      </c>
+      <c r="D217" s="88"/>
+      <c r="E217" s="88"/>
+      <c r="K217" s="83" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="75">
       <c r="A218" s="62" t="s">
         <v>893</v>
       </c>
@@ -14949,10 +16651,15 @@
         <v>43422</v>
       </c>
       <c r="C218" s="72" t="s">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="75">
+        <v>2062</v>
+      </c>
+      <c r="D218" s="88"/>
+      <c r="E218" s="88"/>
+      <c r="G218" s="77" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="75">
       <c r="A219" s="61" t="s">
         <v>887</v>
       </c>
@@ -14960,10 +16667,15 @@
         <v>43423</v>
       </c>
       <c r="C219" s="72" t="s">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="75">
+        <v>2063</v>
+      </c>
+      <c r="D219" s="88"/>
+      <c r="E219" s="88"/>
+      <c r="F219" s="83" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="75">
       <c r="A220" s="61" t="s">
         <v>888</v>
       </c>
@@ -14971,10 +16683,15 @@
         <v>43424</v>
       </c>
       <c r="C220" s="72" t="s">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="75">
+        <v>2064</v>
+      </c>
+      <c r="D220" s="88"/>
+      <c r="E220" s="88"/>
+      <c r="L220" s="83" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="75">
       <c r="A221" s="61" t="s">
         <v>889</v>
       </c>
@@ -14982,10 +16699,15 @@
         <v>43425</v>
       </c>
       <c r="C221" s="72" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="75">
+        <v>2065</v>
+      </c>
+      <c r="D221" s="88"/>
+      <c r="E221" s="88"/>
+      <c r="J221" s="77" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="75">
       <c r="A222" s="61" t="s">
         <v>890</v>
       </c>
@@ -14993,10 +16715,15 @@
         <v>43426</v>
       </c>
       <c r="C222" s="72" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" ht="75">
+        <v>2066</v>
+      </c>
+      <c r="D222" s="88"/>
+      <c r="E222" s="88"/>
+      <c r="M222" s="78" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="75">
       <c r="A223" s="61" t="s">
         <v>891</v>
       </c>
@@ -15004,10 +16731,15 @@
         <v>43427</v>
       </c>
       <c r="C223" s="72" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" ht="75">
+        <v>2067</v>
+      </c>
+      <c r="D223" s="88"/>
+      <c r="E223" s="88"/>
+      <c r="I223" s="77" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="75">
       <c r="A224" s="61" t="s">
         <v>892</v>
       </c>
@@ -15015,127 +16747,1589 @@
         <v>43428</v>
       </c>
       <c r="C224" s="72" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
+        <v>2068</v>
+      </c>
+      <c r="D224" s="88"/>
+      <c r="E224" s="88"/>
+      <c r="H224" s="77" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" ht="75">
       <c r="A225" s="62" t="s">
         <v>893</v>
       </c>
       <c r="B225" s="32">
         <v>43429</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
+      <c r="C225" s="72" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D225" s="88"/>
+      <c r="E225" s="88"/>
+      <c r="K225" s="82" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="60">
       <c r="A226" s="61" t="s">
         <v>887</v>
       </c>
       <c r="B226" s="32">
         <v>43430</v>
       </c>
-    </row>
-    <row r="227" spans="1:2">
+      <c r="C226" s="72" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D226" s="88"/>
+      <c r="E226" s="88"/>
+      <c r="G226" s="83" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" ht="75">
       <c r="A227" s="61" t="s">
         <v>888</v>
       </c>
       <c r="B227" s="32">
         <v>43431</v>
       </c>
-    </row>
-    <row r="228" spans="1:2">
+      <c r="C227" s="72" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D227" s="88"/>
+      <c r="E227" s="88"/>
+      <c r="F227" s="83" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="75">
       <c r="A228" s="61" t="s">
         <v>889</v>
       </c>
       <c r="B228" s="32">
         <v>43432</v>
       </c>
-    </row>
-    <row r="229" spans="1:2">
+      <c r="C228" s="72" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D228" s="88"/>
+      <c r="E228" s="88"/>
+      <c r="L228" s="83" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="90">
       <c r="A229" s="61" t="s">
         <v>890</v>
       </c>
       <c r="B229" s="32">
         <v>43433</v>
       </c>
-    </row>
-    <row r="230" spans="1:2">
+      <c r="C229" s="72" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D229" s="88"/>
+      <c r="E229" s="88"/>
+      <c r="J229" s="78"/>
+    </row>
+    <row r="230" spans="1:12" ht="75">
       <c r="A230" s="61" t="s">
         <v>891</v>
       </c>
       <c r="B230" s="32">
         <v>43434</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
+      <c r="C230" s="72" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D230" s="88"/>
+      <c r="E230" s="88"/>
+      <c r="I230" s="83" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="75">
       <c r="A231" s="61" t="s">
         <v>892</v>
       </c>
       <c r="B231" s="32">
         <v>43435</v>
       </c>
-    </row>
-    <row r="232" spans="1:2">
+      <c r="C231" s="72" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D231" s="88"/>
+      <c r="E231" s="88"/>
+      <c r="H231" s="83" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="75">
       <c r="A232" s="62" t="s">
         <v>893</v>
       </c>
       <c r="B232" s="32">
         <v>43436</v>
       </c>
-    </row>
-    <row r="233" spans="1:2">
+      <c r="C232" s="72" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D232" s="88"/>
+      <c r="E232" s="88"/>
+      <c r="G232" s="83" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="60">
       <c r="A233" s="61" t="s">
         <v>887</v>
       </c>
       <c r="B233" s="32">
         <v>43437</v>
       </c>
-    </row>
-    <row r="234" spans="1:2">
+      <c r="C233" s="72" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D233" s="88"/>
+      <c r="E233" s="88"/>
+      <c r="J233" s="77" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" ht="75">
       <c r="A234" s="61" t="s">
         <v>888</v>
       </c>
       <c r="B234" s="32">
         <v>43438</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
+      <c r="C234" s="72" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D234" s="88"/>
+      <c r="E234" s="88"/>
+      <c r="K234" s="83" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="75">
       <c r="A235" s="61" t="s">
         <v>889</v>
       </c>
       <c r="B235" s="32">
         <v>43439</v>
       </c>
-    </row>
-    <row r="236" spans="1:2">
+      <c r="C235" s="72" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D235" s="88"/>
+      <c r="E235" s="88"/>
+      <c r="F235" s="83" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="60">
       <c r="A236" s="61" t="s">
         <v>890</v>
       </c>
       <c r="B236" s="32">
         <v>43440</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
+      <c r="C236" s="72" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D236" s="88"/>
+      <c r="E236" s="88"/>
+      <c r="I236" s="83" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="75">
       <c r="A237" s="61" t="s">
         <v>891</v>
       </c>
       <c r="B237" s="32">
         <v>43441</v>
       </c>
-    </row>
-    <row r="238" spans="1:2">
+      <c r="C237" s="72" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D237" s="88"/>
+      <c r="E237" s="88"/>
+      <c r="L237" s="83" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="75">
       <c r="A238" s="61" t="s">
         <v>892</v>
       </c>
       <c r="B238" s="32">
         <v>43442</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
+      <c r="C238" s="72" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D238" s="88"/>
+      <c r="E238" s="88"/>
+      <c r="H238" s="83" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" ht="75">
       <c r="A239" s="62" t="s">
         <v>893</v>
       </c>
       <c r="B239" s="32">
         <v>43443</v>
+      </c>
+      <c r="C239" s="72" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D239" s="88"/>
+      <c r="E239" s="88"/>
+      <c r="G239" s="83" t="s">
+        <v>2141</v>
+      </c>
+      <c r="J239" s="80"/>
+    </row>
+    <row r="240" spans="1:12" ht="75">
+      <c r="A240" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B240" s="32">
+        <v>43444</v>
+      </c>
+      <c r="C240" s="72" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D240" s="88"/>
+      <c r="E240" s="88"/>
+      <c r="K240" s="83" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="75">
+      <c r="A241" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B241" s="32">
+        <v>43445</v>
+      </c>
+      <c r="C241" s="72" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D241" s="88"/>
+      <c r="E241" s="89" t="s">
+        <v>2144</v>
+      </c>
+      <c r="J241" s="80"/>
+    </row>
+    <row r="242" spans="1:12" ht="90">
+      <c r="A242" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B242" s="32">
+        <v>43446</v>
+      </c>
+      <c r="C242" s="72" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D242" s="88"/>
+      <c r="E242" s="88"/>
+      <c r="J242" s="78" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="75">
+      <c r="A243" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B243" s="32">
+        <v>43447</v>
+      </c>
+      <c r="C243" s="72" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D243" s="88"/>
+      <c r="E243" s="88"/>
+      <c r="F243" s="83" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="75">
+      <c r="A244" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B244" s="32">
+        <v>43448</v>
+      </c>
+      <c r="C244" s="72" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D244" s="88"/>
+      <c r="E244" s="88"/>
+      <c r="I244" s="83" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="75">
+      <c r="A245" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B245" s="32">
+        <v>43449</v>
+      </c>
+      <c r="C245" s="72" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D245" s="88"/>
+      <c r="E245" s="88"/>
+      <c r="L245" s="83" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="75">
+      <c r="A246" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B246" s="32">
+        <v>43450</v>
+      </c>
+      <c r="C246" s="72" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D246" s="88"/>
+      <c r="H246" s="83" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="75">
+      <c r="A247" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B247" s="32">
+        <v>43451</v>
+      </c>
+      <c r="C247" s="72" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D247" s="88"/>
+      <c r="E247" s="83" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="75">
+      <c r="A248" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B248" s="32">
+        <v>43452</v>
+      </c>
+      <c r="C248" s="72" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D248" s="88"/>
+      <c r="G248" s="83" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="75">
+      <c r="A249" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B249" s="32">
+        <v>43453</v>
+      </c>
+      <c r="C249" s="72" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D249" s="88"/>
+      <c r="K249" s="83" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="75">
+      <c r="A250" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B250" s="32">
+        <v>43454</v>
+      </c>
+      <c r="C250" s="72" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D250" s="88"/>
+      <c r="J250" s="83" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="60">
+      <c r="A251" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B251" s="32">
+        <v>43455</v>
+      </c>
+      <c r="C251" s="72" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D251" s="88"/>
+      <c r="F251" s="83" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="75">
+      <c r="A252" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B252" s="32">
+        <v>43456</v>
+      </c>
+      <c r="C252" s="72" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D252" s="88"/>
+      <c r="I252" s="82" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="75">
+      <c r="A253" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B253" s="32">
+        <v>43457</v>
+      </c>
+      <c r="C253" s="72" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D253" s="88"/>
+      <c r="K253" s="88" t="s">
+        <v>2205</v>
+      </c>
+      <c r="L253" s="83" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="75">
+      <c r="A254" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B254" s="32">
+        <v>43458</v>
+      </c>
+      <c r="C254" s="72" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D254" s="88"/>
+      <c r="E254" s="83" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="75">
+      <c r="A255" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B255" s="32">
+        <v>43459</v>
+      </c>
+      <c r="C255" s="72" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D255" s="88"/>
+      <c r="H255" s="83" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="75">
+      <c r="A256" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B256" s="32">
+        <v>43460</v>
+      </c>
+      <c r="C256" s="72" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D256" s="88"/>
+      <c r="G256" s="83" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="75">
+      <c r="A257" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B257" s="32">
+        <v>43461</v>
+      </c>
+      <c r="C257" s="72" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D257" s="88"/>
+      <c r="J257" s="83" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" ht="75">
+      <c r="A258" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B258" s="32">
+        <v>43462</v>
+      </c>
+      <c r="C258" s="72" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D258" s="88"/>
+      <c r="F258" s="83" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="75">
+      <c r="A259" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B259" s="32">
+        <v>43463</v>
+      </c>
+      <c r="C259" s="72" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D259" s="88"/>
+      <c r="E259" s="83" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="75">
+      <c r="A260" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B260" s="32">
+        <v>43464</v>
+      </c>
+      <c r="C260" s="72" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D260" s="88"/>
+      <c r="I260" s="83" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="60">
+      <c r="A261" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B261" s="32">
+        <v>43465</v>
+      </c>
+      <c r="C261" s="72" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D261" s="88"/>
+      <c r="H261" s="83" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="60">
+      <c r="A262" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B262" s="32">
+        <v>43466</v>
+      </c>
+      <c r="C262" s="72" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D262" s="88"/>
+      <c r="G262" s="83" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="60">
+      <c r="A263" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B263" s="32">
+        <v>43467</v>
+      </c>
+      <c r="C263" s="72" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D263" s="88"/>
+      <c r="J263" s="83" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="60">
+      <c r="A264" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B264" s="32">
+        <v>43468</v>
+      </c>
+      <c r="C264" s="72" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D264" s="88"/>
+      <c r="E264" s="83" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="75">
+      <c r="A265" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B265" s="32">
+        <v>43469</v>
+      </c>
+      <c r="C265" s="72" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D265" s="88"/>
+      <c r="F265" s="83" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="75">
+      <c r="A266" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B266" s="32">
+        <v>43470</v>
+      </c>
+      <c r="C266" s="72" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D266" s="88"/>
+      <c r="J266" s="83" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="60">
+      <c r="A267" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B267" s="32">
+        <v>43471</v>
+      </c>
+      <c r="C267" s="72" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D267" s="88"/>
+      <c r="I267" s="83" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="60">
+      <c r="A268" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B268" s="32">
+        <v>43472</v>
+      </c>
+      <c r="C268" s="72" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D268" s="88"/>
+      <c r="H268" s="83" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" ht="75">
+      <c r="A269" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B269" s="32">
+        <v>43473</v>
+      </c>
+      <c r="C269" s="72" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D269" s="88"/>
+      <c r="E269" s="83" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" ht="75">
+      <c r="A270" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B270" s="32">
+        <v>43474</v>
+      </c>
+      <c r="C270" s="72" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D270" s="88"/>
+      <c r="J270" s="83" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" ht="75">
+      <c r="A271" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B271" s="32">
+        <v>43475</v>
+      </c>
+      <c r="C271" s="72" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D271" s="88"/>
+      <c r="G271" s="83" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" ht="60">
+      <c r="A272" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B272" s="32">
+        <v>43476</v>
+      </c>
+      <c r="C272" s="72" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D272" s="88"/>
+      <c r="F272" s="83" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="75">
+      <c r="A273" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B273" s="32">
+        <v>43477</v>
+      </c>
+      <c r="C273" s="72" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D273" s="88"/>
+      <c r="E273" s="83" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="60">
+      <c r="A274" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B274" s="32">
+        <v>43478</v>
+      </c>
+      <c r="C274" s="72" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D274" s="88"/>
+      <c r="I274" s="83" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="75">
+      <c r="A275" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B275" s="32">
+        <v>43479</v>
+      </c>
+      <c r="C275" s="72" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D275" s="88"/>
+      <c r="J275" s="77" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="60">
+      <c r="A276" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B276" s="32">
+        <v>43480</v>
+      </c>
+      <c r="C276" s="72" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D276" s="88"/>
+      <c r="H276" s="82" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="60">
+      <c r="A277" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B277" s="32">
+        <v>43481</v>
+      </c>
+      <c r="C277" s="72" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D277" s="88"/>
+      <c r="G277" s="78" t="s">
+        <v>2242</v>
+      </c>
+      <c r="J277" s="74" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="75">
+      <c r="A278" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B278" s="32">
+        <v>43482</v>
+      </c>
+      <c r="C278" s="72" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D278" s="88"/>
+      <c r="F278" s="82" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="75">
+      <c r="A279" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B279" s="32">
+        <v>43483</v>
+      </c>
+      <c r="C279" s="72" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D279" s="88"/>
+      <c r="E279" s="82" t="s">
+        <v>2248</v>
+      </c>
+      <c r="L279" s="74" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="60">
+      <c r="A280" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B280" s="32">
+        <v>43484</v>
+      </c>
+      <c r="C280" s="72" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D280" s="88"/>
+      <c r="I280" s="78" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="60">
+      <c r="A281" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B281" s="32">
+        <v>43485</v>
+      </c>
+      <c r="C281" s="72" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D281" s="88"/>
+      <c r="J281" s="78" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="75">
+      <c r="A282" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B282" s="32">
+        <v>43486</v>
+      </c>
+      <c r="C282" s="72" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D282" s="75" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="75">
+      <c r="A283" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B283" s="32">
+        <v>43487</v>
+      </c>
+      <c r="C283" s="72" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D283" s="88"/>
+      <c r="H283" s="78" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="60">
+      <c r="A284" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B284" s="32">
+        <v>43488</v>
+      </c>
+      <c r="C284" s="72" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D284" s="88"/>
+      <c r="F284" s="80" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="75">
+      <c r="A285" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B285" s="32">
+        <v>43489</v>
+      </c>
+      <c r="C285" s="72" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D285" s="88"/>
+      <c r="E285" s="74" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="75">
+      <c r="A286" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B286" s="32">
+        <v>43490</v>
+      </c>
+      <c r="C286" s="72" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D286" s="88"/>
+    </row>
+    <row r="287" spans="1:12" ht="75">
+      <c r="A287" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B287" s="32">
+        <v>43491</v>
+      </c>
+      <c r="C287" s="72" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="75">
+      <c r="A288" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B288" s="32">
+        <v>43492</v>
+      </c>
+      <c r="C288" s="72" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="75">
+      <c r="A289" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B289" s="32">
+        <v>43493</v>
+      </c>
+      <c r="C289" s="72" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="75">
+      <c r="A290" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B290" s="32">
+        <v>43494</v>
+      </c>
+      <c r="C290" s="72" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="60">
+      <c r="A291" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B291" s="32">
+        <v>43495</v>
+      </c>
+      <c r="C291" s="72" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="75">
+      <c r="A292" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B292" s="32">
+        <v>43496</v>
+      </c>
+      <c r="C292" s="72" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B293" s="32">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B294" s="32">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B295" s="32">
+        <v>43499</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B296" s="32">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B297" s="32">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B298" s="32">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B299" s="32">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B300" s="32">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B301" s="32">
+        <v>43505</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B302" s="32">
+        <v>43506</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B303" s="32">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B304" s="32">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B305" s="32">
+        <v>43509</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B306" s="32">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B307" s="32">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B308" s="32">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B309" s="32">
+        <v>43513</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B310" s="32">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B311" s="32">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B312" s="32">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B313" s="32">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B314" s="32">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B315" s="32">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B316" s="32">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="61" t="s">
+        <v>887</v>
+      </c>
+      <c r="B317" s="32">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="61" t="s">
+        <v>888</v>
+      </c>
+      <c r="B318" s="32">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="61" t="s">
+        <v>889</v>
+      </c>
+      <c r="B319" s="32">
+        <v>43523</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="61" t="s">
+        <v>890</v>
+      </c>
+      <c r="B320" s="32">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="61" t="s">
+        <v>891</v>
+      </c>
+      <c r="B321" s="32">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="61" t="s">
+        <v>892</v>
+      </c>
+      <c r="B322" s="32">
+        <v>43526</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="62" t="s">
+        <v>893</v>
+      </c>
+      <c r="B323" s="32">
+        <v>43527</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>2156</v>
       </c>
     </row>
   </sheetData>
@@ -15152,28 +18346,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="85" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="3" customWidth="1"/>
-    <col min="6" max="6" width="58.33203125" style="3" customWidth="1"/>
-    <col min="7" max="12" width="9.33203125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="60.83203125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="9.33203125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="91"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" spans="1:14" s="2" customFormat="1">
       <c r="B1" s="2" t="s">
         <v>1862</v>
       </c>
@@ -15190,25 +18388,31 @@
         <v>1869</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>2051</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>2053</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2052</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2055</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>2056</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="51">
+      <c r="M1" s="2" t="s">
+        <v>2077</v>
+      </c>
+      <c r="N1" s="90" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="51">
       <c r="A2" s="1" t="s">
         <v>1844</v>
       </c>
@@ -15236,8 +18440,12 @@
       <c r="I2" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="N2" s="91">
+        <f t="shared" ref="N2:N36" si="0">(G2+H2+I2)/10</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>1845</v>
       </c>
@@ -15260,8 +18468,12 @@
       <c r="I3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="51">
+      <c r="N3" s="91">
+        <f t="shared" si="0"/>
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="51">
       <c r="A4" s="1" t="s">
         <v>1846</v>
       </c>
@@ -15289,8 +18501,12 @@
       <c r="I4" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="34">
+      <c r="N4" s="91">
+        <f t="shared" si="0"/>
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="34">
       <c r="A5" s="1" t="s">
         <v>1847</v>
       </c>
@@ -15318,8 +18534,12 @@
       <c r="I5" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5" s="91">
+        <f t="shared" si="0"/>
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>1848</v>
       </c>
@@ -15345,8 +18565,12 @@
       <c r="I6" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="34">
+      <c r="N6" s="91">
+        <f t="shared" si="0"/>
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="34">
       <c r="A7" s="1" t="s">
         <v>1849</v>
       </c>
@@ -15374,8 +18598,12 @@
       <c r="I7" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="34">
+      <c r="N7" s="91">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="34">
       <c r="A8" s="1" t="s">
         <v>1850</v>
       </c>
@@ -15403,8 +18631,12 @@
       <c r="I8" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="34">
+      <c r="N8" s="91">
+        <f t="shared" si="0"/>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="34">
       <c r="A9" s="1" t="s">
         <v>1851</v>
       </c>
@@ -15432,8 +18664,12 @@
       <c r="I9" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="34">
+      <c r="N9" s="91">
+        <f t="shared" si="0"/>
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="34">
       <c r="A10" s="1" t="s">
         <v>1852</v>
       </c>
@@ -15461,8 +18697,12 @@
       <c r="I10" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="34">
+      <c r="N10" s="91">
+        <f t="shared" si="0"/>
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="34">
       <c r="A11" s="1" t="s">
         <v>1853</v>
       </c>
@@ -15490,8 +18730,12 @@
       <c r="I11" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="N11" s="91">
+        <f t="shared" si="0"/>
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>1854</v>
       </c>
@@ -15517,8 +18761,12 @@
       <c r="I12" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="N12" s="91">
+        <f t="shared" si="0"/>
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>1855</v>
       </c>
@@ -15544,8 +18792,12 @@
       <c r="I13" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="34">
+      <c r="N13" s="91">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="34">
       <c r="A14" s="1" t="s">
         <v>1856</v>
       </c>
@@ -15573,8 +18825,12 @@
       <c r="I14" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="34">
+      <c r="N14" s="91">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="34">
       <c r="A15" s="1" t="s">
         <v>1857</v>
       </c>
@@ -15602,8 +18858,12 @@
       <c r="I15" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="34">
+      <c r="N15" s="91">
+        <f t="shared" si="0"/>
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="34">
       <c r="A16" s="1" t="s">
         <v>1858</v>
       </c>
@@ -15631,8 +18891,12 @@
       <c r="I16" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="51">
+      <c r="N16" s="91">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="51">
       <c r="A17" s="1" t="s">
         <v>1859</v>
       </c>
@@ -15649,7 +18913,7 @@
         <v>1960</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="G17" s="2">
         <v>535</v>
@@ -15660,8 +18924,12 @@
       <c r="I17" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="N17" s="91">
+        <f t="shared" si="0"/>
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>1860</v>
       </c>
@@ -15687,8 +18955,12 @@
       <c r="I18" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="34">
+      <c r="N18" s="91">
+        <f t="shared" si="0"/>
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="34">
       <c r="A19" s="1" t="s">
         <v>1861</v>
       </c>
@@ -15716,8 +18988,12 @@
       <c r="I19" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="34">
+      <c r="N19" s="91">
+        <f t="shared" si="0"/>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="34">
       <c r="A20" s="1" t="s">
         <v>1928</v>
       </c>
@@ -15745,13 +19021,17 @@
       <c r="I20" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="N20" s="91">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>1929</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C21" s="85">
         <v>43393</v>
@@ -15759,6 +19039,9 @@
       <c r="D21" s="1" t="s">
         <v>2010</v>
       </c>
+      <c r="E21" s="3" t="s">
+        <v>2091</v>
+      </c>
       <c r="G21" s="2">
         <v>402</v>
       </c>
@@ -15768,19 +19051,23 @@
       <c r="I21" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="N21" s="91">
+        <f t="shared" si="0"/>
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>1930</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C22" s="85">
         <v>43397</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="E22" s="86"/>
       <c r="F22" s="3" t="s">
@@ -15795,13 +19082,17 @@
       <c r="I22" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="N22" s="91">
+        <f t="shared" si="0"/>
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="34">
       <c r="A23" s="1" t="s">
         <v>1931</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C23" s="85">
         <v>43400</v>
@@ -15809,6 +19100,12 @@
       <c r="D23" s="1" t="s">
         <v>2009</v>
       </c>
+      <c r="E23" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>2008</v>
+      </c>
       <c r="G23" s="2">
         <v>288</v>
       </c>
@@ -15818,13 +19115,17 @@
       <c r="I23" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="N23" s="91">
+        <f t="shared" si="0"/>
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>1932</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="C24" s="85">
         <v>43404</v>
@@ -15832,6 +19133,9 @@
       <c r="D24" s="1" t="s">
         <v>2010</v>
       </c>
+      <c r="E24" s="3" t="s">
+        <v>2091</v>
+      </c>
       <c r="G24" s="2">
         <v>295</v>
       </c>
@@ -15850,13 +19154,21 @@
       <c r="L24" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="1">
+        <f>J24+K24</f>
+        <v>35</v>
+      </c>
+      <c r="N24" s="91">
+        <f t="shared" si="0"/>
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>1933</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="C25" s="85">
         <v>43407</v>
@@ -15864,6 +19176,9 @@
       <c r="D25" s="1" t="s">
         <v>2010</v>
       </c>
+      <c r="E25" s="3" t="s">
+        <v>2091</v>
+      </c>
       <c r="G25" s="2">
         <v>292</v>
       </c>
@@ -15882,55 +19197,595 @@
       <c r="L25" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="1">
+        <f t="shared" ref="M25:M33" si="1">J25+K25</f>
+        <v>32</v>
+      </c>
+      <c r="N25" s="91">
+        <f t="shared" si="0"/>
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="34">
       <c r="A26" s="1" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="B26" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C26" s="85">
+        <v>43411</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G26" s="2">
+        <v>332</v>
+      </c>
+      <c r="H26" s="2">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2">
+        <v>76</v>
+      </c>
+      <c r="J26" s="2">
+        <v>24</v>
+      </c>
+      <c r="K26" s="2">
+        <v>11</v>
+      </c>
+      <c r="L26" s="2">
+        <v>16</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="N26" s="91">
+        <f t="shared" si="0"/>
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="B27" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C27" s="85">
+        <v>43414</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G27" s="2">
+        <v>309</v>
+      </c>
+      <c r="H27" s="2">
+        <v>19</v>
+      </c>
+      <c r="I27" s="2">
+        <v>86</v>
+      </c>
+      <c r="J27" s="2">
+        <v>36</v>
+      </c>
+      <c r="K27" s="2">
+        <v>8</v>
+      </c>
+      <c r="L27" s="2">
+        <v>13</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="N27" s="91">
+        <f t="shared" si="0"/>
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="B28" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C28" s="85">
+        <v>43418</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E28" s="86"/>
+      <c r="F28" s="3" t="s">
+        <v>2092</v>
+      </c>
+      <c r="G28" s="2">
+        <v>382</v>
+      </c>
+      <c r="H28" s="2">
+        <v>26</v>
+      </c>
+      <c r="I28" s="2">
+        <v>84</v>
+      </c>
+      <c r="J28" s="2">
+        <v>54</v>
+      </c>
+      <c r="K28" s="2">
+        <v>8</v>
+      </c>
+      <c r="L28" s="2">
+        <v>6</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="N28" s="91">
+        <f t="shared" si="0"/>
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="B29" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C29" s="85">
+        <v>43421</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G29" s="2">
+        <v>421</v>
+      </c>
+      <c r="H29" s="2">
+        <v>37</v>
+      </c>
+      <c r="I29" s="2">
+        <v>114</v>
+      </c>
+      <c r="J29" s="2">
+        <v>42</v>
+      </c>
+      <c r="K29" s="2">
+        <v>34</v>
+      </c>
+      <c r="L29" s="2">
+        <v>10</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="N29" s="91">
+        <f t="shared" si="0"/>
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="51">
       <c r="A30" s="1" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="B30" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C30" s="85">
+        <v>43425</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>2095</v>
+      </c>
+      <c r="G30" s="2">
+        <v>302</v>
+      </c>
+      <c r="H30" s="2">
+        <v>44</v>
+      </c>
+      <c r="I30" s="2">
+        <v>111</v>
+      </c>
+      <c r="J30" s="2">
+        <v>50</v>
+      </c>
+      <c r="K30" s="2">
+        <v>28</v>
+      </c>
+      <c r="L30" s="2">
+        <v>5</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="N30" s="91">
+        <f t="shared" si="0"/>
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="B31" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C31" s="85">
+        <v>43428</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G31" s="2">
+        <v>242</v>
+      </c>
+      <c r="H31" s="2">
+        <v>27</v>
+      </c>
+      <c r="I31" s="2">
+        <v>70</v>
+      </c>
+      <c r="J31" s="2">
+        <v>18</v>
+      </c>
+      <c r="K31" s="2">
+        <v>28</v>
+      </c>
+      <c r="L31" s="2">
+        <v>10</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="N31" s="91">
+        <f t="shared" si="0"/>
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C32" s="85">
+        <v>43432</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G32" s="2">
+        <v>291</v>
+      </c>
+      <c r="H32" s="2">
+        <v>39</v>
+      </c>
+      <c r="I32" s="2">
+        <v>91</v>
+      </c>
+      <c r="J32" s="2">
+        <v>56</v>
+      </c>
+      <c r="K32" s="2">
+        <v>16</v>
+      </c>
+      <c r="L32" s="2">
+        <v>8</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="N32" s="91">
+        <f t="shared" si="0"/>
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C33" s="85">
+        <v>43435</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G33" s="2">
+        <v>274</v>
+      </c>
+      <c r="H33" s="2">
+        <v>36</v>
+      </c>
+      <c r="I33" s="2">
+        <v>84</v>
+      </c>
+      <c r="J33" s="2">
+        <v>38</v>
+      </c>
+      <c r="K33" s="2">
+        <v>30</v>
+      </c>
+      <c r="L33" s="2">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="N33" s="91">
+        <f t="shared" si="0"/>
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="21">
       <c r="A34" s="1" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C34" s="85">
+        <v>43439</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G34" s="2">
+        <v>351</v>
+      </c>
+      <c r="H34" s="2">
+        <v>32</v>
+      </c>
+      <c r="I34" s="2">
+        <v>92</v>
+      </c>
+      <c r="N34" s="91">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>1943</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C35" s="85">
+        <v>43442</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G35" s="2">
+        <v>303</v>
+      </c>
+      <c r="H35" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" s="2">
+        <v>104</v>
+      </c>
+      <c r="N35" s="91">
+        <f t="shared" si="0"/>
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C36" s="85">
+        <v>43446</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G36" s="2">
+        <v>292</v>
+      </c>
+      <c r="H36" s="2">
+        <v>29</v>
+      </c>
+      <c r="I36" s="2">
+        <v>85</v>
+      </c>
+      <c r="N36" s="91">
+        <f t="shared" si="0"/>
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C37" s="85">
+        <v>43449</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G37" s="2">
+        <v>278</v>
+      </c>
+      <c r="H37" s="2">
+        <v>34</v>
+      </c>
+      <c r="I37" s="2">
+        <v>105</v>
+      </c>
+      <c r="N37" s="91">
+        <f>(G37+H37+I37)/10</f>
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C38" s="85">
+        <v>43456</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G38" s="2">
+        <v>266</v>
+      </c>
+      <c r="H38" s="2">
+        <v>22</v>
+      </c>
+      <c r="I38" s="2">
+        <v>95</v>
+      </c>
+      <c r="N38" s="91">
+        <f>(G38+H38+I38)/10</f>
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C39" s="85">
+        <v>43825</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G39" s="2">
+        <v>355</v>
+      </c>
+      <c r="H39" s="2">
+        <v>19</v>
+      </c>
+      <c r="I39" s="2">
+        <v>44</v>
+      </c>
+      <c r="N39" s="91">
+        <f>(G39+H39+I39)/10</f>
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C40" s="85">
+        <v>43467</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="G40" s="2">
+        <v>330</v>
+      </c>
+      <c r="H40" s="2">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2">
+        <v>110</v>
+      </c>
+      <c r="N40" s="91">
+        <f>(G40+H40+I40)/10</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C41" s="85">
+        <v>43474</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G41" s="2">
+        <v>412</v>
+      </c>
+      <c r="H41" s="2">
+        <v>25</v>
+      </c>
+      <c r="I41" s="2">
+        <v>105</v>
+      </c>
+      <c r="N41" s="91">
+        <f>(G41+H41+I41)/10</f>
+        <v>54.2</v>
       </c>
     </row>
   </sheetData>
